--- a/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_Liquidity_GAP.xlsx
+++ b/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_Liquidity_GAP.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Liquidity Gap Report</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Cycle: December, 2019        Evaluation Date: December 31, 2019</t>
   </si>
   <si>
-    <t>Printed on: 03/27/20 10:45:14 AM</t>
+    <t>Printed on: 04/13/20 2:05:31 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario: Dn 200BP,Dn 100BP,Base,Up 100BP,Up 200BP,Up 300BP,Up 400BP,Flattener       Principal based</t>
@@ -392,6 +392,9 @@
   </si>
   <si>
     <t xml:space="preserve">Yield Curve: Treasury          Vol Curve: SwaptionHoLeeG1Factor          Parameter Set: Default          CPR Shocks (BP): 0          CDR Shocks (BP): 0</t>
+  </si>
+  <si>
+    <t>AllowNegative: Allow negative on Lattice</t>
   </si>
   <si>
     <t>Disclaimer</t>
@@ -12279,7 +12282,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection sqref="A1:Q1"/>
@@ -12441,6 +12444,11 @@
     <row r="27">
       <c r="A27" s="226" t="s">
         <v>116</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="226" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -12491,7 +12499,7 @@
   <sheetData>
     <row r="1" ht="24.75">
       <c r="A1" s="242" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="242"/>
       <c r="C1" s="242"/>

--- a/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_Liquidity_GAP.xlsx
+++ b/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_Liquidity_GAP.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>Liquidity Gap Report</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Cycle: December, 2019        Evaluation Date: December 31, 2019</t>
   </si>
   <si>
-    <t>Printed on: 04/13/20 2:05:31 PM</t>
+    <t>Printed on: 04/16/20 2:14:02 PM</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario: Dn 200BP,Dn 100BP,Base,Up 100BP,Up 200BP,Up 300BP,Up 400BP,Flattener       Principal based</t>
@@ -392,9 +392,6 @@
   </si>
   <si>
     <t xml:space="preserve">Yield Curve: Treasury          Vol Curve: SwaptionHoLeeG1Factor          Parameter Set: Default          CPR Shocks (BP): 0          CDR Shocks (BP): 0</t>
-  </si>
-  <si>
-    <t>AllowNegative: Allow negative on Lattice</t>
   </si>
   <si>
     <t>Disclaimer</t>
@@ -12282,7 +12279,7 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" zoomScalePageLayoutView="80" workbookViewId="0">
       <selection sqref="A1:Q1"/>
@@ -12444,11 +12441,6 @@
     <row r="27">
       <c r="A27" s="226" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="226" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -12499,7 +12491,7 @@
   <sheetData>
     <row r="1" ht="24.75">
       <c r="A1" s="242" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="242"/>
       <c r="C1" s="242"/>

--- a/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_Liquidity_GAP.xlsx
+++ b/lib/report/benchmark_report/web14/exl/201912/jsliu__bank_test_&_city_(HF)(201912)_Liquidity_GAP.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Liquidity Gap Report</t>
   </si>
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Cycle: December, 2019        Evaluation Date: December 31, 2019</t>
   </si>
   <si>
-    <t>Printed on: 04/16/20 2:14:02 PM</t>
+    <t>Printed on: 05/02/20 4:48:17 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario: Dn 200BP,Dn 100BP,Base,Up 100BP,Up 200BP,Up 300BP,Up 400BP,Flattener       Principal based</t>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t xml:space="preserve">jsliu  bank test &amp; city (HF)-201912</t>
+  </si>
+  <si>
+    <t>Printed on: 05/02/20 4:48:18 AM</t>
   </si>
   <si>
     <t>Notes</t>
@@ -9958,31 +9961,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>13208.632989544843</v>
+        <v>13208.63298955217</v>
       </c>
       <c r="C9" s="231">
-        <v>5404.6931374919677</v>
+        <v>5404.6931374902233</v>
       </c>
       <c r="D9" s="231">
-        <v>10073.619459761305</v>
+        <v>10073.619459731648</v>
       </c>
       <c r="E9" s="231">
-        <v>17771.069866923091</v>
+        <v>17771.069866931441</v>
       </c>
       <c r="F9" s="231">
-        <v>17393.4743540802</v>
+        <v>17393.474354086244</v>
       </c>
       <c r="G9" s="231">
-        <v>21647.981523961083</v>
+        <v>21647.981523974755</v>
       </c>
       <c r="H9" s="231">
-        <v>12759.63156439952</v>
+        <v>12759.631564408883</v>
       </c>
       <c r="I9" s="231">
-        <v>3234.593415902214</v>
+        <v>3234.5934158890891</v>
       </c>
       <c r="J9" s="231">
-        <v>3087.3036879357678</v>
+        <v>3087.3036879355641</v>
       </c>
       <c r="K9" s="231">
         <v>104581</v>
@@ -10008,28 +10011,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>13208.632989544843</v>
+        <v>13208.63298955217</v>
       </c>
       <c r="C11" s="231">
-        <v>18613.326127036809</v>
+        <v>18613.326127042394</v>
       </c>
       <c r="D11" s="231">
-        <v>28686.945586798116</v>
+        <v>28686.94558677404</v>
       </c>
       <c r="E11" s="231">
-        <v>46458.015453721207</v>
+        <v>46458.015453705477</v>
       </c>
       <c r="F11" s="231">
-        <v>63851.489807801408</v>
+        <v>63851.489807791717</v>
       </c>
       <c r="G11" s="231">
-        <v>85499.4713317625</v>
+        <v>85499.471331766472</v>
       </c>
       <c r="H11" s="231">
-        <v>98259.102896162018</v>
+        <v>98259.102896175347</v>
       </c>
       <c r="I11" s="231">
-        <v>101493.69631206423</v>
+        <v>101493.69631206444</v>
       </c>
       <c r="J11" s="231">
         <v>104581</v>
@@ -10043,31 +10046,31 @@
         <v>23</v>
       </c>
       <c r="B12" s="231">
-        <v>9116.4682311980341</v>
+        <v>9116.46823119803</v>
       </c>
       <c r="C12" s="231">
-        <v>11521.694550328653</v>
+        <v>11521.694550328652</v>
       </c>
       <c r="D12" s="231">
-        <v>20050.350884898497</v>
+        <v>20050.350884898482</v>
       </c>
       <c r="E12" s="231">
-        <v>16987.064710863182</v>
+        <v>16987.064710863171</v>
       </c>
       <c r="F12" s="231">
         <v>10366.018062257492</v>
       </c>
       <c r="G12" s="231">
-        <v>10950.190038394509</v>
+        <v>10950.19003839449</v>
       </c>
       <c r="H12" s="231">
-        <v>9601.3484682897615</v>
+        <v>9601.34846828956</v>
       </c>
       <c r="I12" s="231">
-        <v>3924.0804472170967</v>
+        <v>3924.0804472171476</v>
       </c>
       <c r="J12" s="231">
-        <v>-396.21539344722987</v>
+        <v>-396.21539344702614</v>
       </c>
       <c r="K12" s="231">
         <v>92121</v>
@@ -10113,28 +10116,28 @@
         <v>25</v>
       </c>
       <c r="B14" s="231">
-        <v>9116.4682311980341</v>
+        <v>9116.46823119803</v>
       </c>
       <c r="C14" s="231">
-        <v>20638.162781526687</v>
+        <v>20638.162781526684</v>
       </c>
       <c r="D14" s="231">
-        <v>40688.513666425184</v>
+        <v>40688.513666425162</v>
       </c>
       <c r="E14" s="231">
-        <v>57675.578377288366</v>
+        <v>57675.57837728833</v>
       </c>
       <c r="F14" s="231">
-        <v>68041.596439545858</v>
+        <v>68041.596439545829</v>
       </c>
       <c r="G14" s="231">
-        <v>78991.786477940361</v>
+        <v>78991.786477940317</v>
       </c>
       <c r="H14" s="231">
-        <v>88593.13494623013</v>
+        <v>88593.134946229882</v>
       </c>
       <c r="I14" s="231">
-        <v>92517.21539344723</v>
+        <v>92517.215393447026</v>
       </c>
       <c r="J14" s="231">
         <v>104581</v>
@@ -10146,31 +10149,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>4092.1647583468093</v>
+        <v>4092.16475835414</v>
       </c>
       <c r="C15" s="231">
-        <v>-6117.0014128366856</v>
+        <v>-6117.0014128384282</v>
       </c>
       <c r="D15" s="231">
-        <v>-9976.7314251371918</v>
+        <v>-9976.731425166834</v>
       </c>
       <c r="E15" s="231">
-        <v>784.0051560599095</v>
+        <v>784.00515606826957</v>
       </c>
       <c r="F15" s="231">
-        <v>7027.4562918227093</v>
+        <v>7027.456291828752</v>
       </c>
       <c r="G15" s="231">
-        <v>10697.791485566575</v>
+        <v>10697.791485580265</v>
       </c>
       <c r="H15" s="231">
-        <v>3158.2830961097588</v>
+        <v>3158.2830961193231</v>
       </c>
       <c r="I15" s="231">
-        <v>-689.48703131488264</v>
+        <v>-689.48703132805849</v>
       </c>
       <c r="J15" s="231">
-        <v>-8976.4809186170023</v>
+        <v>-8976.48091861741</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -10179,31 +10182,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.039129141606475452</v>
+        <v>0.039129141606545549</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.05849056150578677</v>
+        <v>-0.05849056150580343</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.095397169898329442</v>
+        <v>-0.095397169898612882</v>
       </c>
       <c r="E16" s="236">
-        <v>0.0074966308991108281</v>
+        <v>0.0074966308991907668</v>
       </c>
       <c r="F16" s="237">
-        <v>0.06719630039703875</v>
+        <v>0.067196300397096523</v>
       </c>
       <c r="G16" s="236">
-        <v>0.1022919219128386</v>
+        <v>0.10229192191296951</v>
       </c>
       <c r="H16" s="236">
-        <v>0.030199396602726681</v>
+        <v>0.030199396602818132</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.0065928517734089621</v>
+        <v>-0.006592851773534949</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.085832808240665151</v>
+        <v>-0.085832808240669051</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -10212,28 +10215,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>4092.1647583468093</v>
+        <v>4092.16475835414</v>
       </c>
       <c r="C17" s="231">
-        <v>-2024.8366544898781</v>
+        <v>-2024.8366544842902</v>
       </c>
       <c r="D17" s="231">
-        <v>-12001.568079627068</v>
+        <v>-12001.568079651122</v>
       </c>
       <c r="E17" s="231">
-        <v>-11217.562923567159</v>
+        <v>-11217.562923582853</v>
       </c>
       <c r="F17" s="231">
-        <v>-4190.1066317444493</v>
+        <v>-4190.1066317541117</v>
       </c>
       <c r="G17" s="231">
-        <v>6507.6848538221384</v>
+        <v>6507.6848538261547</v>
       </c>
       <c r="H17" s="231">
-        <v>9665.9679499318881</v>
+        <v>9665.9679499454651</v>
       </c>
       <c r="I17" s="231">
-        <v>8976.4809186170023</v>
+        <v>8976.48091861741</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -10245,28 +10248,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.039129141606475452</v>
+        <v>0.039129141606545549</v>
       </c>
       <c r="C18" s="236">
-        <v>-0.019361419899311328</v>
+        <v>-0.019361419899257895</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.11475858979764077</v>
+        <v>-0.11475858979787076</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.10726195889852994</v>
+        <v>-0.10726195889868001</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.040065658501491186</v>
+        <v>-0.04006565850158357</v>
       </c>
       <c r="G18" s="236">
-        <v>0.06222626341134755</v>
+        <v>0.062226263411385957</v>
       </c>
       <c r="H18" s="236">
-        <v>0.092425660014074151</v>
+        <v>0.092425660014203964</v>
       </c>
       <c r="I18" s="236">
-        <v>0.085832808240665151</v>
+        <v>0.085832808240669051</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -10278,31 +10281,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.4488761058084705</v>
+        <v>1.448876105809275</v>
       </c>
       <c r="C19" s="236">
-        <v>0.46908838920207274</v>
+        <v>0.46908838920192136</v>
       </c>
       <c r="D19" s="236">
-        <v>0.5024161181811807</v>
+        <v>0.502416118179702</v>
       </c>
       <c r="E19" s="236">
-        <v>1.0461530681965636</v>
+        <v>1.0461530681970559</v>
       </c>
       <c r="F19" s="237">
-        <v>1.6779320901831696</v>
+        <v>1.6779320901837524</v>
       </c>
       <c r="G19" s="236">
-        <v>1.9769503038812155</v>
+        <v>1.9769503038824674</v>
       </c>
       <c r="H19" s="236">
-        <v>1.3289416175801321</v>
+        <v>1.3289416175811351</v>
       </c>
       <c r="I19" s="236">
-        <v>0.82429334959127631</v>
+        <v>0.82429334958792078</v>
       </c>
       <c r="J19" s="236">
-        <v>0.25591502075217887</v>
+        <v>0.25591502075215766</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -10311,28 +10314,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.4488761058084705</v>
+        <v>1.448876105809275</v>
       </c>
       <c r="C20" s="236">
-        <v>0.90188871577743734</v>
+        <v>0.90188871577770813</v>
       </c>
       <c r="D20" s="236">
-        <v>0.70503793335831855</v>
+        <v>0.70503793335772724</v>
       </c>
       <c r="E20" s="236">
-        <v>0.80550584425548744</v>
+        <v>0.80550584425521532</v>
       </c>
       <c r="F20" s="237">
-        <v>0.93841845501865451</v>
+        <v>0.93841845501851251</v>
       </c>
       <c r="G20" s="236">
-        <v>1.082384323028819</v>
+        <v>1.0823843230288699</v>
       </c>
       <c r="H20" s="236">
-        <v>1.109105157592611</v>
+        <v>1.1091051575927644</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0970249794099702</v>
+        <v>1.0970249794099749</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -10375,28 +10378,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.099049520976917924</v>
+        <v>-0.0990495209768734</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.11297374020872214</v>
+        <v>-0.11297374020867679</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.11475858979764077</v>
+        <v>-0.11475858979787076</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.13553029511872952</v>
+        <v>-0.13553029511793446</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.16967526349227832</v>
+        <v>-0.16967526349201276</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.18685469719715037</v>
+        <v>-0.18685469719701306</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.19368149608888582</v>
+        <v>-0.19368149608885293</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.157180957395564</v>
+        <v>-0.1571809573952154</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -10406,28 +10409,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.73912490765977656</v>
+        <v>0.73912490765989358</v>
       </c>
       <c r="C24" s="236">
-        <v>0.70851394813999735</v>
+        <v>0.70851394814011426</v>
       </c>
       <c r="D24" s="236">
-        <v>0.70503793335831855</v>
+        <v>0.70503793335772724</v>
       </c>
       <c r="E24" s="236">
-        <v>0.65240887904835321</v>
+        <v>0.65240887905039213</v>
       </c>
       <c r="F24" s="236">
-        <v>0.56517561467640354</v>
+        <v>0.56517561467708388</v>
       </c>
       <c r="G24" s="236">
-        <v>0.521339860232343</v>
+        <v>0.52133986023269474</v>
       </c>
       <c r="H24" s="236">
-        <v>0.50397946519859671</v>
+        <v>0.50397946519868075</v>
       </c>
       <c r="I24" s="236">
-        <v>0.59729502253327771</v>
+        <v>0.59729502253417055</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -10763,31 +10766,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>19.6528278696599</v>
+        <v>19.652827869722802</v>
       </c>
       <c r="C50" s="246">
-        <v>25.6348257029634</v>
+        <v>25.6348257030589</v>
       </c>
       <c r="D50" s="246">
-        <v>59.2618836746156</v>
+        <v>59.2618836748189</v>
       </c>
       <c r="E50" s="246">
-        <v>125.271742534065</v>
+        <v>125.271742534271</v>
       </c>
       <c r="F50" s="246">
-        <v>116.15006297441501</v>
+        <v>116.150062974606</v>
       </c>
       <c r="G50" s="246">
-        <v>240.76301602178702</v>
+        <v>240.763016022459</v>
       </c>
       <c r="H50" s="246">
-        <v>476.134460215545</v>
+        <v>476.134460215608</v>
       </c>
       <c r="I50" s="246">
-        <v>461.112891230964</v>
+        <v>461.112891229479</v>
       </c>
       <c r="J50" s="246">
-        <v>18.018289775985068</v>
+        <v>18.018289775976427</v>
       </c>
       <c r="K50" s="246">
         <v>1542</v>
@@ -10798,31 +10801,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>19.6528278696599</v>
+        <v>19.652827869722802</v>
       </c>
       <c r="C51" s="248">
-        <v>25.6348257029634</v>
+        <v>25.6348257030589</v>
       </c>
       <c r="D51" s="248">
-        <v>59.2618836746156</v>
+        <v>59.2618836748189</v>
       </c>
       <c r="E51" s="248">
-        <v>125.271742534065</v>
+        <v>125.271742534271</v>
       </c>
       <c r="F51" s="248">
-        <v>116.15006297441501</v>
+        <v>116.150062974606</v>
       </c>
       <c r="G51" s="248">
-        <v>240.76301602178702</v>
+        <v>240.763016022459</v>
       </c>
       <c r="H51" s="248">
-        <v>476.134460215545</v>
+        <v>476.134460215608</v>
       </c>
       <c r="I51" s="248">
-        <v>461.112891230964</v>
+        <v>461.112891229479</v>
       </c>
       <c r="J51" s="248">
-        <v>18.018289775985068</v>
+        <v>18.018289775976427</v>
       </c>
       <c r="K51" s="248">
         <v>1542</v>
@@ -10903,31 +10906,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>19.6528278696599</v>
+        <v>19.652827869722802</v>
       </c>
       <c r="C54" s="248">
-        <v>25.6348257029634</v>
+        <v>25.6348257030589</v>
       </c>
       <c r="D54" s="248">
-        <v>59.2618836746156</v>
+        <v>59.2618836748189</v>
       </c>
       <c r="E54" s="248">
-        <v>125.271742534065</v>
+        <v>125.271742534271</v>
       </c>
       <c r="F54" s="248">
-        <v>116.15006297441501</v>
+        <v>116.150062974606</v>
       </c>
       <c r="G54" s="248">
-        <v>453.763016021787</v>
+        <v>453.763016022459</v>
       </c>
       <c r="H54" s="248">
-        <v>571.134460215545</v>
+        <v>571.134460215608</v>
       </c>
       <c r="I54" s="248">
-        <v>461.112891230964</v>
+        <v>461.112891229479</v>
       </c>
       <c r="J54" s="248">
-        <v>18.018289775985068</v>
+        <v>18.018289775976427</v>
       </c>
       <c r="K54" s="248">
         <v>1850</v>
@@ -10938,31 +10941,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>19.6528278696599</v>
+        <v>19.652827869722802</v>
       </c>
       <c r="C55" s="248">
-        <v>25.6348257029634</v>
+        <v>25.6348257030589</v>
       </c>
       <c r="D55" s="248">
-        <v>59.2618836746156</v>
+        <v>59.2618836748189</v>
       </c>
       <c r="E55" s="248">
-        <v>125.271742534065</v>
+        <v>125.271742534271</v>
       </c>
       <c r="F55" s="248">
-        <v>116.15006297441501</v>
+        <v>116.150062974606</v>
       </c>
       <c r="G55" s="248">
-        <v>3222.7630160217959</v>
+        <v>3222.763016022468</v>
       </c>
       <c r="H55" s="248">
-        <v>1806.134460215545</v>
+        <v>1806.1344602156082</v>
       </c>
       <c r="I55" s="248">
-        <v>461.112891230964</v>
+        <v>461.112891229479</v>
       </c>
       <c r="J55" s="248">
-        <v>18.018289775975973</v>
+        <v>18.018289775967787</v>
       </c>
       <c r="K55" s="248">
         <v>5854</v>
@@ -11078,7 +11081,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="246">
-        <v>380.05219228638</v>
+        <v>380.052192286381</v>
       </c>
       <c r="C59" s="246">
         <v>382.565733824596</v>
@@ -11102,7 +11105,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="246">
-        <v>18.42909842937479</v>
+        <v>18.42909842937388</v>
       </c>
       <c r="K59" s="246">
         <v>4751</v>
@@ -11122,22 +11125,22 @@
         <v>317.223205896817</v>
       </c>
       <c r="E60" s="246">
-        <v>487.557024126225</v>
+        <v>487.55702412634304</v>
       </c>
       <c r="F60" s="246">
-        <v>341.404732127106</v>
+        <v>341.40473212699095</v>
       </c>
       <c r="G60" s="246">
         <v>400.668752623485</v>
       </c>
       <c r="H60" s="246">
-        <v>286.143877269725</v>
+        <v>286.143877269724</v>
       </c>
       <c r="I60" s="246">
         <v>0</v>
       </c>
       <c r="J60" s="246">
-        <v>35.027421681578744</v>
+        <v>35.027421681576925</v>
       </c>
       <c r="K60" s="246">
         <v>2246</v>
@@ -11148,31 +11151,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>2054.91934392411</v>
+        <v>2054.91934393137</v>
       </c>
       <c r="C61" s="246">
-        <v>3205.2419755560804</v>
+        <v>3205.24197555424</v>
       </c>
       <c r="D61" s="246">
-        <v>5813.57976168213</v>
+        <v>5813.5797616522705</v>
       </c>
       <c r="E61" s="246">
-        <v>9734.74689610585</v>
+        <v>9734.74689611384</v>
       </c>
       <c r="F61" s="246">
-        <v>6616.21504885282</v>
+        <v>6616.21504885882</v>
       </c>
       <c r="G61" s="246">
-        <v>10036.2807914863</v>
+        <v>10036.280791499299</v>
       </c>
       <c r="H61" s="246">
-        <v>10588.491668575</v>
+        <v>10588.4916685843</v>
       </c>
       <c r="I61" s="246">
-        <v>2773.48052467125</v>
+        <v>2773.4805246596097</v>
       </c>
       <c r="J61" s="246">
-        <v>476.043989146463</v>
+        <v>476.043989146252</v>
       </c>
       <c r="K61" s="246">
         <v>51299</v>
@@ -11192,22 +11195,22 @@
         <v>87.4270545192028</v>
       </c>
       <c r="E62" s="246">
-        <v>134.37123683621198</v>
+        <v>134.371236836245</v>
       </c>
       <c r="F62" s="246">
-        <v>94.09150898783551</v>
+        <v>94.091508987803408</v>
       </c>
       <c r="G62" s="246">
         <v>110.424736364175</v>
       </c>
       <c r="H62" s="246">
-        <v>78.8615583392518</v>
+        <v>78.8615583392517</v>
       </c>
       <c r="I62" s="246">
         <v>0</v>
       </c>
       <c r="J62" s="246">
-        <v>9.6535948445668964</v>
+        <v>9.6535948445659869</v>
       </c>
       <c r="K62" s="246">
         <v>618.999999999999</v>
@@ -11218,31 +11221,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>2109.2763489865883</v>
+        <v>2109.2763489938484</v>
       </c>
       <c r="C63" s="248">
-        <v>3255.055280602357</v>
+        <v>3255.0552806005167</v>
       </c>
       <c r="D63" s="248">
-        <v>5901.0068162013331</v>
+        <v>5901.0068161714726</v>
       </c>
       <c r="E63" s="248">
-        <v>9869.1181329420615</v>
+        <v>9869.1181329500869</v>
       </c>
       <c r="F63" s="248">
-        <v>6710.3065578406558</v>
+        <v>6710.306557846623</v>
       </c>
       <c r="G63" s="248">
-        <v>10146.705527850476</v>
+        <v>10146.705527863474</v>
       </c>
       <c r="H63" s="248">
-        <v>10667.353226914251</v>
+        <v>10667.353226923551</v>
       </c>
       <c r="I63" s="248">
-        <v>2773.48052467125</v>
+        <v>2773.4805246596097</v>
       </c>
       <c r="J63" s="248">
-        <v>485.69758399102284</v>
+        <v>485.69758399081911</v>
       </c>
       <c r="K63" s="248">
         <v>51918</v>
@@ -11253,31 +11256,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>2306.5070975654685</v>
+        <v>2306.5070975727285</v>
       </c>
       <c r="C64" s="248">
-        <v>3435.7995182985396</v>
+        <v>3435.7995182966997</v>
       </c>
       <c r="D64" s="248">
-        <v>6218.23002209815</v>
+        <v>6218.23002206829</v>
       </c>
       <c r="E64" s="248">
-        <v>10356.675157068286</v>
+        <v>10356.67515707643</v>
       </c>
       <c r="F64" s="248">
-        <v>7051.7112899677613</v>
+        <v>7051.7112899736148</v>
       </c>
       <c r="G64" s="248">
-        <v>10547.374280473961</v>
+        <v>10547.37428048696</v>
       </c>
       <c r="H64" s="248">
-        <v>10953.497104183976</v>
+        <v>10953.497104193275</v>
       </c>
       <c r="I64" s="248">
-        <v>2773.48052467125</v>
+        <v>2773.4805246596097</v>
       </c>
       <c r="J64" s="248">
-        <v>520.72500567261159</v>
+        <v>520.72500567239331</v>
       </c>
       <c r="K64" s="248">
         <v>54164</v>
@@ -11393,31 +11396,31 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>3361.4533532308105</v>
+        <v>3361.4533532380719</v>
       </c>
       <c r="C68" s="248">
-        <v>4497.6197776915224</v>
+        <v>4497.6197776896825</v>
       </c>
       <c r="D68" s="248">
-        <v>8362.79032306457</v>
+        <v>8362.790323034711</v>
       </c>
       <c r="E68" s="248">
-        <v>14731.597082017011</v>
+        <v>14731.597082025155</v>
       </c>
       <c r="F68" s="248">
-        <v>14789.174541306849</v>
+        <v>14789.174541312703</v>
       </c>
       <c r="G68" s="248">
-        <v>10547.374280473961</v>
+        <v>10547.37428048696</v>
       </c>
       <c r="H68" s="248">
-        <v>10953.497104183976</v>
+        <v>10953.497104193275</v>
       </c>
       <c r="I68" s="248">
-        <v>2773.48052467125</v>
+        <v>2773.4805246596097</v>
       </c>
       <c r="J68" s="248">
-        <v>620.0130133600469</v>
+        <v>620.01301335982862</v>
       </c>
       <c r="K68" s="248">
         <v>70637</v>
@@ -11533,7 +11536,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>282.213076872188</v>
+        <v>282.213076872189</v>
       </c>
       <c r="C72" s="246">
         <v>271.503762058543</v>
@@ -11557,7 +11560,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>119.949360740864</v>
+        <v>119.94936074086309</v>
       </c>
       <c r="K72" s="246">
         <v>3535</v>
@@ -11568,7 +11571,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="248">
-        <v>723.91728237221707</v>
+        <v>723.9172823722181</v>
       </c>
       <c r="C73" s="248">
         <v>682.465883810886</v>
@@ -11638,31 +11641,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>4282.9801616751847</v>
+        <v>4282.980161682447</v>
       </c>
       <c r="C75" s="248">
-        <v>5379.0583117890037</v>
+        <v>5379.0583117871638</v>
       </c>
       <c r="D75" s="248">
-        <v>10014.357576086688</v>
+        <v>10014.357576056829</v>
       </c>
       <c r="E75" s="248">
-        <v>17645.798124389028</v>
+        <v>17645.79812439717</v>
       </c>
       <c r="F75" s="248">
-        <v>17277.324291105786</v>
+        <v>17277.324291111636</v>
       </c>
       <c r="G75" s="248">
-        <v>18425.218507939288</v>
+        <v>18425.218507952282</v>
       </c>
       <c r="H75" s="248">
-        <v>10953.497104183976</v>
+        <v>10953.497104193275</v>
       </c>
       <c r="I75" s="248">
-        <v>2773.48052467125</v>
+        <v>2773.4805246596097</v>
       </c>
       <c r="J75" s="248">
-        <v>886.28539815980184</v>
+        <v>886.28539815958356</v>
       </c>
       <c r="K75" s="248">
         <v>87638</v>
@@ -11848,31 +11851,31 @@
         <v>44</v>
       </c>
       <c r="B81" s="248">
-        <v>13208.632989544843</v>
+        <v>13208.63298955217</v>
       </c>
       <c r="C81" s="248">
-        <v>5404.6931374919677</v>
+        <v>5404.6931374902233</v>
       </c>
       <c r="D81" s="248">
-        <v>10073.619459761305</v>
+        <v>10073.619459731648</v>
       </c>
       <c r="E81" s="248">
-        <v>17771.069866923091</v>
+        <v>17771.069866931441</v>
       </c>
       <c r="F81" s="248">
-        <v>17393.4743540802</v>
+        <v>17393.474354086244</v>
       </c>
       <c r="G81" s="248">
-        <v>21647.981523961083</v>
+        <v>21647.981523974755</v>
       </c>
       <c r="H81" s="248">
-        <v>12759.63156439952</v>
+        <v>12759.631564408883</v>
       </c>
       <c r="I81" s="248">
-        <v>3234.593415902214</v>
+        <v>3234.5934158890891</v>
       </c>
       <c r="J81" s="248">
-        <v>3087.3036879357678</v>
+        <v>3087.3036879355641</v>
       </c>
       <c r="K81" s="248">
         <v>104581</v>
@@ -11907,22 +11910,22 @@
         <v>13743.2838959691</v>
       </c>
       <c r="E84" s="246">
-        <v>7323.27471086318</v>
+        <v>7323.27471086317</v>
       </c>
       <c r="F84" s="246">
         <v>3531.71306225749</v>
       </c>
       <c r="G84" s="246">
-        <v>2441.77276839451</v>
+        <v>2441.77276839449</v>
       </c>
       <c r="H84" s="246">
-        <v>1324.15960394486</v>
+        <v>1324.15960394466</v>
       </c>
       <c r="I84" s="246">
-        <v>262.481581561999</v>
+        <v>262.481581562047</v>
       </c>
       <c r="J84" s="246">
-        <v>-767.21539344721532</v>
+        <v>-767.21539344702614</v>
       </c>
       <c r="K84" s="246">
         <v>40901</v>
@@ -12003,13 +12006,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="246">
-        <v>758.650987399222</v>
+        <v>758.65098739921893</v>
       </c>
       <c r="C87" s="246">
-        <v>693.931396633247</v>
+        <v>693.93139663324507</v>
       </c>
       <c r="D87" s="246">
-        <v>1215.3176159675402</v>
+        <v>1215.31761596753</v>
       </c>
       <c r="E87" s="246">
         <v>1867.53</v>
@@ -12024,10 +12027,10 @@
         <v>1243.4412710643</v>
       </c>
       <c r="I87" s="246">
-        <v>251.205238935698</v>
+        <v>251.205238935701</v>
       </c>
       <c r="J87" s="246">
-        <v>-7.2759576141834259E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
       <c r="K87" s="246">
         <v>8893</v>
@@ -12073,31 +12076,31 @@
         <v>88</v>
       </c>
       <c r="B89" s="248">
-        <v>9116.4682311980341</v>
+        <v>9116.46823119803</v>
       </c>
       <c r="C89" s="248">
-        <v>11521.694550328653</v>
+        <v>11521.694550328652</v>
       </c>
       <c r="D89" s="248">
-        <v>20050.350884898497</v>
+        <v>20050.350884898482</v>
       </c>
       <c r="E89" s="248">
-        <v>16987.064710863182</v>
+        <v>16987.064710863171</v>
       </c>
       <c r="F89" s="248">
         <v>10366.018062257492</v>
       </c>
       <c r="G89" s="248">
-        <v>10950.190038394509</v>
+        <v>10950.19003839449</v>
       </c>
       <c r="H89" s="248">
-        <v>9601.3484682897615</v>
+        <v>9601.34846828956</v>
       </c>
       <c r="I89" s="248">
-        <v>3924.0804472170967</v>
+        <v>3924.0804472171476</v>
       </c>
       <c r="J89" s="248">
-        <v>-767.21539344722987</v>
+        <v>-767.21539344702614</v>
       </c>
       <c r="K89" s="248">
         <v>91750</v>
@@ -12178,31 +12181,31 @@
         <v>82</v>
       </c>
       <c r="B92" s="248">
-        <v>9116.4682311980341</v>
+        <v>9116.46823119803</v>
       </c>
       <c r="C92" s="248">
-        <v>11521.694550328653</v>
+        <v>11521.694550328652</v>
       </c>
       <c r="D92" s="248">
-        <v>20050.350884898497</v>
+        <v>20050.350884898482</v>
       </c>
       <c r="E92" s="248">
-        <v>16987.064710863182</v>
+        <v>16987.064710863171</v>
       </c>
       <c r="F92" s="248">
         <v>10366.018062257492</v>
       </c>
       <c r="G92" s="248">
-        <v>10950.190038394509</v>
+        <v>10950.19003839449</v>
       </c>
       <c r="H92" s="248">
-        <v>9601.3484682897615</v>
+        <v>9601.34846828956</v>
       </c>
       <c r="I92" s="248">
-        <v>3924.0804472170967</v>
+        <v>3924.0804472171476</v>
       </c>
       <c r="J92" s="248">
-        <v>-396.21539344722987</v>
+        <v>-396.21539344702614</v>
       </c>
       <c r="K92" s="248">
         <v>92121</v>
@@ -12228,31 +12231,31 @@
         <v>90</v>
       </c>
       <c r="B95" s="248">
-        <v>4092.1647583468111</v>
+        <v>4092.1647583541403</v>
       </c>
       <c r="C95" s="248">
-        <v>-6117.0014128366856</v>
+        <v>-6117.0014128384282</v>
       </c>
       <c r="D95" s="248">
-        <v>-9976.73142513719</v>
+        <v>-9976.7314251668358</v>
       </c>
       <c r="E95" s="248">
-        <v>784.00515605990961</v>
+        <v>784.00515606827287</v>
       </c>
       <c r="F95" s="248">
-        <v>7027.4562918227093</v>
+        <v>7027.456291828752</v>
       </c>
       <c r="G95" s="248">
-        <v>10697.791485566573</v>
+        <v>10697.791485580263</v>
       </c>
       <c r="H95" s="248">
-        <v>3158.2830961097588</v>
+        <v>3158.2830961193235</v>
       </c>
       <c r="I95" s="248">
-        <v>-689.48703131488242</v>
+        <v>-689.48703132805883</v>
       </c>
       <c r="J95" s="248">
-        <v>3483.5190813829959</v>
+        <v>3483.519081382572</v>
       </c>
       <c r="K95" s="248">
         <v>12460</v>
@@ -12296,7 +12299,7 @@
   <sheetData>
     <row r="1" ht="24.95" customHeight="1" s="227" customFormat="1">
       <c r="A1" s="241" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B1" s="241"/>
       <c r="C1" s="241"/>
@@ -12320,127 +12323,127 @@
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="229" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="226" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="226" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="226" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="226" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="226" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="226" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="226" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="226" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="226" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="226" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="226" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="226" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="226" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="226" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="226" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="226" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="226" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="226" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="226" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="226" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="226" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="229" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="226" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="226" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -12491,7 +12494,7 @@
   <sheetData>
     <row r="1" ht="24.75">
       <c r="A1" s="242" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B1" s="242"/>
       <c r="C1" s="242"/>
@@ -12693,31 +12696,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>13816.261972472161</v>
+        <v>13816.261972472925</v>
       </c>
       <c r="C9" s="231">
-        <v>4923.6227998360109</v>
+        <v>4923.6227998381264</v>
       </c>
       <c r="D9" s="231">
-        <v>10608.918133772471</v>
+        <v>10608.918133774228</v>
       </c>
       <c r="E9" s="231">
-        <v>19716.183341392694</v>
+        <v>19716.1833413891</v>
       </c>
       <c r="F9" s="231">
-        <v>18041.824722186673</v>
+        <v>18041.824722185782</v>
       </c>
       <c r="G9" s="231">
-        <v>21913.801674900293</v>
+        <v>21913.801674907187</v>
       </c>
       <c r="H9" s="231">
-        <v>10831.755197303213</v>
+        <v>10831.75519729971</v>
       </c>
       <c r="I9" s="231">
-        <v>1714.0444625602429</v>
+        <v>1714.0444625567791</v>
       </c>
       <c r="J9" s="231">
-        <v>3014.587695576236</v>
+        <v>3014.5876955761632</v>
       </c>
       <c r="K9" s="231">
         <v>104581</v>
@@ -12743,28 +12746,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>13816.261972472161</v>
+        <v>13816.261972472925</v>
       </c>
       <c r="C11" s="231">
-        <v>18739.884772308171</v>
+        <v>18739.884772311052</v>
       </c>
       <c r="D11" s="231">
-        <v>29348.802906080644</v>
+        <v>29348.802906085279</v>
       </c>
       <c r="E11" s="231">
-        <v>49064.986247473338</v>
+        <v>49064.986247474379</v>
       </c>
       <c r="F11" s="231">
-        <v>67106.810969660015</v>
+        <v>67106.81096966016</v>
       </c>
       <c r="G11" s="231">
-        <v>89020.612644560315</v>
+        <v>89020.612644567344</v>
       </c>
       <c r="H11" s="231">
-        <v>99852.367841863525</v>
+        <v>99852.367841867061</v>
       </c>
       <c r="I11" s="231">
-        <v>101566.41230442376</v>
+        <v>101566.41230442384</v>
       </c>
       <c r="J11" s="231">
         <v>104581</v>
@@ -12778,13 +12781,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="231">
-        <v>9155.8069512557722</v>
+        <v>9155.8069512557613</v>
       </c>
       <c r="C12" s="231">
-        <v>11155.388185391132</v>
+        <v>11155.38818539113</v>
       </c>
       <c r="D12" s="231">
-        <v>19396.305722720794</v>
+        <v>19396.305722720786</v>
       </c>
       <c r="E12" s="231">
         <v>17222.51279721436</v>
@@ -12799,10 +12802,10 @@
         <v>9720.01154807203</v>
       </c>
       <c r="I12" s="231">
-        <v>3987.8195811023083</v>
+        <v>3987.8195811023484</v>
       </c>
       <c r="J12" s="231">
-        <v>-137.33001055114437</v>
+        <v>-137.33001055117347</v>
       </c>
       <c r="K12" s="231">
         <v>92121</v>
@@ -12848,28 +12851,28 @@
         <v>25</v>
       </c>
       <c r="B14" s="231">
-        <v>9155.8069512557722</v>
+        <v>9155.8069512557613</v>
       </c>
       <c r="C14" s="231">
-        <v>20311.195136646904</v>
+        <v>20311.195136646893</v>
       </c>
       <c r="D14" s="231">
-        <v>39707.5008593677</v>
+        <v>39707.500859367676</v>
       </c>
       <c r="E14" s="231">
-        <v>56930.013656582058</v>
+        <v>56930.013656582036</v>
       </c>
       <c r="F14" s="231">
-        <v>67463.834356788284</v>
+        <v>67463.834356788269</v>
       </c>
       <c r="G14" s="231">
-        <v>78550.498881376814</v>
+        <v>78550.4988813768</v>
       </c>
       <c r="H14" s="231">
-        <v>88270.510429448841</v>
+        <v>88270.510429448826</v>
       </c>
       <c r="I14" s="231">
-        <v>92258.330010551144</v>
+        <v>92258.330010551173</v>
       </c>
       <c r="J14" s="231">
         <v>104581</v>
@@ -12881,31 +12884,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>4660.4550212163886</v>
+        <v>4660.4550212171634</v>
       </c>
       <c r="C15" s="231">
-        <v>-6231.7653855551207</v>
+        <v>-6231.7653855530034</v>
       </c>
       <c r="D15" s="231">
-        <v>-8787.3875889483224</v>
+        <v>-8787.387588946558</v>
       </c>
       <c r="E15" s="231">
-        <v>2493.6705441783342</v>
+        <v>2493.67054417474</v>
       </c>
       <c r="F15" s="231">
-        <v>7508.0040219804432</v>
+        <v>7508.0040219795519</v>
       </c>
       <c r="G15" s="231">
-        <v>10827.137150311764</v>
+        <v>10827.137150318658</v>
       </c>
       <c r="H15" s="231">
-        <v>1111.7436492311826</v>
+        <v>1111.7436492276793</v>
       </c>
       <c r="I15" s="231">
-        <v>-2273.7751185420657</v>
+        <v>-2273.7751185455691</v>
       </c>
       <c r="J15" s="231">
-        <v>-9308.08229387262</v>
+        <v>-9308.0822938726633</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -12914,31 +12917,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.044563113961583731</v>
+        <v>0.044563113961591148</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.059587930747985969</v>
+        <v>-0.059587930747965728</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.084024704190515692</v>
+        <v>-0.084024704190498817</v>
       </c>
       <c r="E16" s="236">
-        <v>0.023844393763478397</v>
+        <v>0.023844393763444029</v>
       </c>
       <c r="F16" s="237">
-        <v>0.071791281609283178</v>
+        <v>0.071791281609274643</v>
       </c>
       <c r="G16" s="236">
-        <v>0.10352872080312642</v>
+        <v>0.10352872080319234</v>
       </c>
       <c r="H16" s="236">
-        <v>0.010630455333484883</v>
+        <v>0.010630455333451385</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.021741761109016603</v>
+        <v>-0.021741761109050108</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.089003569423438483</v>
+        <v>-0.0890035694234389</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -12947,28 +12950,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>4660.4550212163886</v>
+        <v>4660.4550212171634</v>
       </c>
       <c r="C17" s="231">
-        <v>-1571.3103643387331</v>
+        <v>-1571.3103643358409</v>
       </c>
       <c r="D17" s="231">
-        <v>-10358.697953287054</v>
+        <v>-10358.697953282397</v>
       </c>
       <c r="E17" s="231">
-        <v>-7865.0274091087194</v>
+        <v>-7865.0274091076571</v>
       </c>
       <c r="F17" s="231">
-        <v>-357.02338712826895</v>
+        <v>-357.02338712810888</v>
       </c>
       <c r="G17" s="231">
-        <v>10470.1137631835</v>
+        <v>10470.113763190544</v>
       </c>
       <c r="H17" s="231">
-        <v>11581.857412414684</v>
+        <v>11581.857412418234</v>
       </c>
       <c r="I17" s="231">
-        <v>9308.08229387262</v>
+        <v>9308.0822938726633</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -12980,28 +12983,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.044563113961583731</v>
+        <v>0.044563113961591148</v>
       </c>
       <c r="C18" s="236">
-        <v>-0.015024816786402244</v>
+        <v>-0.015024816786374589</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.099049520976917924</v>
+        <v>-0.0990495209768734</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.075205127213439527</v>
+        <v>-0.075205127213429368</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.0034138456041562897</v>
+        <v>-0.0034138456041547592</v>
       </c>
       <c r="G18" s="236">
-        <v>0.10011487519897018</v>
+        <v>0.10011487519903753</v>
       </c>
       <c r="H18" s="236">
-        <v>0.11074533053245507</v>
+        <v>0.11074533053248903</v>
       </c>
       <c r="I18" s="236">
-        <v>0.089003569423438483</v>
+        <v>0.0890035694234389</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -13013,31 +13016,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.50901630473731</v>
+        <v>1.5090163047373952</v>
       </c>
       <c r="C19" s="236">
-        <v>0.44136723151273993</v>
+        <v>0.44136723151292961</v>
       </c>
       <c r="D19" s="236">
-        <v>0.54695560512563</v>
+        <v>0.54695560512572083</v>
       </c>
       <c r="E19" s="236">
-        <v>1.1447913305996598</v>
+        <v>1.144791330599451</v>
       </c>
       <c r="F19" s="237">
-        <v>1.7127522136230637</v>
+        <v>1.7127522136229794</v>
       </c>
       <c r="G19" s="236">
-        <v>1.9765910320727056</v>
+        <v>1.9765910320733275</v>
       </c>
       <c r="H19" s="236">
-        <v>1.1143767827571869</v>
+        <v>1.1143767827568265</v>
       </c>
       <c r="I19" s="236">
-        <v>0.42981996243833293</v>
+        <v>0.42981996243746</v>
       </c>
       <c r="J19" s="236">
-        <v>0.24463754187667461</v>
+        <v>0.24463754187666928</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -13046,28 +13049,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.50901630473731</v>
+        <v>1.5090163047373952</v>
       </c>
       <c r="C20" s="236">
-        <v>0.92263821238644583</v>
+        <v>0.92263821238658816</v>
       </c>
       <c r="D20" s="236">
-        <v>0.73912490765977656</v>
+        <v>0.73912490765989358</v>
       </c>
       <c r="E20" s="236">
-        <v>0.861847435053278</v>
+        <v>0.86184743505329664</v>
       </c>
       <c r="F20" s="237">
-        <v>0.994707929210781</v>
+        <v>0.99470792921078344</v>
       </c>
       <c r="G20" s="236">
-        <v>1.1332914992557204</v>
+        <v>1.13329149925581</v>
       </c>
       <c r="H20" s="236">
-        <v>1.1312086829006343</v>
+        <v>1.1312086829006744</v>
       </c>
       <c r="I20" s="236">
-        <v>1.1008915107482229</v>
+        <v>1.1008915107482233</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -13110,28 +13113,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.099049520976917924</v>
+        <v>-0.0990495209768734</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.11297374020872214</v>
+        <v>-0.11297374020867679</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.11475858979764077</v>
+        <v>-0.11475858979787076</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.13553029511872952</v>
+        <v>-0.13553029511793446</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.16967526349227832</v>
+        <v>-0.16967526349201276</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.18685469719715037</v>
+        <v>-0.18685469719701306</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.19368149608888582</v>
+        <v>-0.19368149608885293</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.157180957395564</v>
+        <v>-0.1571809573952154</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -13141,28 +13144,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.73912490765977656</v>
+        <v>0.73912490765989358</v>
       </c>
       <c r="C24" s="236">
-        <v>0.70851394813999735</v>
+        <v>0.70851394814011426</v>
       </c>
       <c r="D24" s="236">
-        <v>0.70503793335831855</v>
+        <v>0.70503793335772724</v>
       </c>
       <c r="E24" s="236">
-        <v>0.65240887904835321</v>
+        <v>0.65240887905039213</v>
       </c>
       <c r="F24" s="236">
-        <v>0.56517561467640354</v>
+        <v>0.56517561467708388</v>
       </c>
       <c r="G24" s="236">
-        <v>0.521339860232343</v>
+        <v>0.52133986023269474</v>
       </c>
       <c r="H24" s="236">
-        <v>0.50397946519859671</v>
+        <v>0.50397946519868075</v>
       </c>
       <c r="I24" s="236">
-        <v>0.59729502253327771</v>
+        <v>0.59729502253417055</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -13498,31 +13501,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>35.444692813636195</v>
+        <v>35.4446928136881</v>
       </c>
       <c r="C50" s="246">
-        <v>47.123982284947</v>
+        <v>47.1239822850036</v>
       </c>
       <c r="D50" s="246">
-        <v>102.660833648683</v>
+        <v>102.660833648742</v>
       </c>
       <c r="E50" s="246">
-        <v>208.291985861227</v>
+        <v>208.291985861168</v>
       </c>
       <c r="F50" s="246">
-        <v>175.94411226293897</v>
+        <v>175.944112263134</v>
       </c>
       <c r="G50" s="246">
-        <v>321.398590187195</v>
+        <v>321.398590187882</v>
       </c>
       <c r="H50" s="246">
-        <v>409.898296677801</v>
+        <v>409.898296677497</v>
       </c>
       <c r="I50" s="246">
-        <v>226.413356007113</v>
+        <v>226.413356006439</v>
       </c>
       <c r="J50" s="246">
-        <v>14.824150256459006</v>
+        <v>14.824150256446274</v>
       </c>
       <c r="K50" s="246">
         <v>1542</v>
@@ -13533,31 +13536,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>35.444692813636195</v>
+        <v>35.4446928136881</v>
       </c>
       <c r="C51" s="248">
-        <v>47.123982284947</v>
+        <v>47.1239822850036</v>
       </c>
       <c r="D51" s="248">
-        <v>102.660833648683</v>
+        <v>102.660833648742</v>
       </c>
       <c r="E51" s="248">
-        <v>208.291985861227</v>
+        <v>208.291985861168</v>
       </c>
       <c r="F51" s="248">
-        <v>175.94411226293897</v>
+        <v>175.944112263134</v>
       </c>
       <c r="G51" s="248">
-        <v>321.398590187195</v>
+        <v>321.398590187882</v>
       </c>
       <c r="H51" s="248">
-        <v>409.898296677801</v>
+        <v>409.898296677497</v>
       </c>
       <c r="I51" s="248">
-        <v>226.413356007113</v>
+        <v>226.413356006439</v>
       </c>
       <c r="J51" s="248">
-        <v>14.824150256459006</v>
+        <v>14.824150256446274</v>
       </c>
       <c r="K51" s="248">
         <v>1542</v>
@@ -13638,31 +13641,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>35.444692813636195</v>
+        <v>35.4446928136881</v>
       </c>
       <c r="C54" s="248">
-        <v>47.123982284947</v>
+        <v>47.1239822850036</v>
       </c>
       <c r="D54" s="248">
-        <v>102.660833648683</v>
+        <v>102.660833648742</v>
       </c>
       <c r="E54" s="248">
-        <v>208.291985861227</v>
+        <v>208.291985861168</v>
       </c>
       <c r="F54" s="248">
-        <v>175.94411226293897</v>
+        <v>175.944112263134</v>
       </c>
       <c r="G54" s="248">
-        <v>534.39859018719494</v>
+        <v>534.39859018788206</v>
       </c>
       <c r="H54" s="248">
-        <v>504.898296677801</v>
+        <v>504.898296677497</v>
       </c>
       <c r="I54" s="248">
-        <v>226.413356007113</v>
+        <v>226.413356006439</v>
       </c>
       <c r="J54" s="248">
-        <v>14.824150256459006</v>
+        <v>14.824150256446274</v>
       </c>
       <c r="K54" s="248">
         <v>1850</v>
@@ -13673,31 +13676,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>35.444692813636195</v>
+        <v>35.4446928136881</v>
       </c>
       <c r="C55" s="248">
-        <v>47.123982284947</v>
+        <v>47.1239822850036</v>
       </c>
       <c r="D55" s="248">
-        <v>102.660833648683</v>
+        <v>102.660833648742</v>
       </c>
       <c r="E55" s="248">
-        <v>208.291985861227</v>
+        <v>208.291985861168</v>
       </c>
       <c r="F55" s="248">
-        <v>175.94411226293897</v>
+        <v>175.944112263134</v>
       </c>
       <c r="G55" s="248">
-        <v>3303.3985901872043</v>
+        <v>3303.3985901878909</v>
       </c>
       <c r="H55" s="248">
-        <v>1739.898296677801</v>
+        <v>1739.898296677497</v>
       </c>
       <c r="I55" s="248">
-        <v>226.413356007113</v>
+        <v>226.413356006439</v>
       </c>
       <c r="J55" s="248">
-        <v>14.824150256449684</v>
+        <v>14.824150256436951</v>
       </c>
       <c r="K55" s="248">
         <v>5854</v>
@@ -13813,7 +13816,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="246">
-        <v>380.05219228638</v>
+        <v>380.052192286381</v>
       </c>
       <c r="C59" s="246">
         <v>382.565733824596</v>
@@ -13837,7 +13840,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="246">
-        <v>18.42909842937479</v>
+        <v>18.42909842937388</v>
       </c>
       <c r="K59" s="246">
         <v>4751</v>
@@ -13857,22 +13860,22 @@
         <v>317.223205896817</v>
       </c>
       <c r="E60" s="246">
-        <v>494.17742787987305</v>
+        <v>494.177427880001</v>
       </c>
       <c r="F60" s="246">
-        <v>343.949066301183</v>
+        <v>343.949066301057</v>
       </c>
       <c r="G60" s="246">
-        <v>399.68790222877703</v>
+        <v>399.687902228776</v>
       </c>
       <c r="H60" s="246">
-        <v>278.13799432392096</v>
+        <v>278.137994323922</v>
       </c>
       <c r="I60" s="246">
         <v>0</v>
       </c>
       <c r="J60" s="246">
-        <v>34.849417094366345</v>
+        <v>34.849417094364071</v>
       </c>
       <c r="K60" s="246">
         <v>2246</v>
@@ -13883,31 +13886,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>2646.75646190745</v>
+        <v>2646.75646190816</v>
       </c>
       <c r="C61" s="246">
-        <v>2702.68248131814</v>
+        <v>2702.6824813202</v>
       </c>
       <c r="D61" s="246">
-        <v>6305.47948571923</v>
+        <v>6305.47948572093</v>
       </c>
       <c r="E61" s="246">
-        <v>11588.3951331458</v>
+        <v>11588.395133142101</v>
       </c>
       <c r="F61" s="246">
-        <v>7201.5258122795294</v>
+        <v>7201.5258122786008</v>
       </c>
       <c r="G61" s="246">
-        <v>10222.7165420717</v>
+        <v>10222.7165420779</v>
       </c>
       <c r="H61" s="246">
-        <v>8737.06377785692</v>
+        <v>8737.06377785372</v>
       </c>
       <c r="I61" s="246">
-        <v>1487.6311065531302</v>
+        <v>1487.63110655034</v>
       </c>
       <c r="J61" s="246">
-        <v>406.74919914810016</v>
+        <v>406.74919914804923</v>
       </c>
       <c r="K61" s="246">
         <v>51299</v>
@@ -13927,22 +13930,22 @@
         <v>87.4270545192028</v>
       </c>
       <c r="E62" s="246">
-        <v>136.195827185058</v>
+        <v>136.195827185094</v>
       </c>
       <c r="F62" s="246">
-        <v>94.792730205001</v>
+        <v>94.79273020496619</v>
       </c>
       <c r="G62" s="246">
-        <v>110.15441294729</v>
+        <v>110.154412947289</v>
       </c>
       <c r="H62" s="246">
-        <v>76.65512844457119</v>
+        <v>76.6551284445715</v>
       </c>
       <c r="I62" s="246">
         <v>0</v>
       </c>
       <c r="J62" s="246">
-        <v>9.6045365901209152</v>
+        <v>9.6045365901205741</v>
       </c>
       <c r="K62" s="246">
         <v>618.999999999999</v>
@@ -13953,31 +13956,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>2701.1134669699286</v>
+        <v>2701.1134669706385</v>
       </c>
       <c r="C63" s="248">
-        <v>2752.4957863644167</v>
+        <v>2752.4957863664768</v>
       </c>
       <c r="D63" s="248">
-        <v>6392.9065402384322</v>
+        <v>6392.906540240132</v>
       </c>
       <c r="E63" s="248">
-        <v>11724.590960330857</v>
+        <v>11724.590960327196</v>
       </c>
       <c r="F63" s="248">
-        <v>7296.3185424845315</v>
+        <v>7296.3185424835665</v>
       </c>
       <c r="G63" s="248">
-        <v>10332.870955018991</v>
+        <v>10332.87095502519</v>
       </c>
       <c r="H63" s="248">
-        <v>8813.71890630149</v>
+        <v>8813.71890629829</v>
       </c>
       <c r="I63" s="248">
-        <v>1487.6311065531302</v>
+        <v>1487.63110655034</v>
       </c>
       <c r="J63" s="248">
-        <v>416.35373573822289</v>
+        <v>416.35373573817196</v>
       </c>
       <c r="K63" s="248">
         <v>51918</v>
@@ -13988,31 +13991,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>2898.3442155488087</v>
+        <v>2898.3442155495181</v>
       </c>
       <c r="C64" s="248">
-        <v>2933.2400240605994</v>
+        <v>2933.24002406266</v>
       </c>
       <c r="D64" s="248">
-        <v>6710.12974613525</v>
+        <v>6710.1297461369495</v>
       </c>
       <c r="E64" s="248">
-        <v>12218.76838821073</v>
+        <v>12218.768388207196</v>
       </c>
       <c r="F64" s="248">
-        <v>7640.2676087857144</v>
+        <v>7640.267608784623</v>
       </c>
       <c r="G64" s="248">
-        <v>10732.558857247766</v>
+        <v>10732.558857253967</v>
       </c>
       <c r="H64" s="248">
-        <v>9091.8569006254111</v>
+        <v>9091.8569006222133</v>
       </c>
       <c r="I64" s="248">
-        <v>1487.6311065531302</v>
+        <v>1487.63110655034</v>
       </c>
       <c r="J64" s="248">
-        <v>451.20315283258242</v>
+        <v>451.20315283253149</v>
       </c>
       <c r="K64" s="248">
         <v>54164</v>
@@ -14128,31 +14131,31 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>3953.2904712141508</v>
+        <v>3953.2904712148616</v>
       </c>
       <c r="C68" s="248">
-        <v>3995.0602834535825</v>
+        <v>3995.0602834556425</v>
       </c>
       <c r="D68" s="248">
-        <v>8854.69004710167</v>
+        <v>8854.69004710337</v>
       </c>
       <c r="E68" s="248">
-        <v>16593.690313159455</v>
+        <v>16593.690313155919</v>
       </c>
       <c r="F68" s="248">
-        <v>15377.730860124802</v>
+        <v>15377.730860123713</v>
       </c>
       <c r="G68" s="248">
-        <v>10732.558857247766</v>
+        <v>10732.558857253967</v>
       </c>
       <c r="H68" s="248">
-        <v>9091.8569006254111</v>
+        <v>9091.8569006222133</v>
       </c>
       <c r="I68" s="248">
-        <v>1487.6311065531302</v>
+        <v>1487.63110655034</v>
       </c>
       <c r="J68" s="248">
-        <v>550.49116052003228</v>
+        <v>550.49116051997407</v>
       </c>
       <c r="K68" s="248">
         <v>70637</v>
@@ -14268,7 +14271,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>282.213076872188</v>
+        <v>282.213076872189</v>
       </c>
       <c r="C72" s="246">
         <v>271.503762058543</v>
@@ -14292,7 +14295,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>119.949360740864</v>
+        <v>119.94936074086309</v>
       </c>
       <c r="K72" s="246">
         <v>3535</v>
@@ -14303,7 +14306,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="248">
-        <v>723.91728237221707</v>
+        <v>723.9172823722181</v>
       </c>
       <c r="C73" s="248">
         <v>682.465883810886</v>
@@ -14373,31 +14376,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>4874.817279658525</v>
+        <v>4874.8172796592371</v>
       </c>
       <c r="C75" s="248">
-        <v>4876.4988175510634</v>
+        <v>4876.4988175531234</v>
       </c>
       <c r="D75" s="248">
-        <v>10506.257300123789</v>
+        <v>10506.257300125488</v>
       </c>
       <c r="E75" s="248">
-        <v>19507.891355531468</v>
+        <v>19507.891355527932</v>
       </c>
       <c r="F75" s="248">
-        <v>17865.880609923734</v>
+        <v>17865.880609922646</v>
       </c>
       <c r="G75" s="248">
-        <v>18610.403084713089</v>
+        <v>18610.403084719292</v>
       </c>
       <c r="H75" s="248">
-        <v>9091.8569006254111</v>
+        <v>9091.8569006222133</v>
       </c>
       <c r="I75" s="248">
-        <v>1487.6311065531302</v>
+        <v>1487.63110655034</v>
       </c>
       <c r="J75" s="248">
-        <v>816.76354531978723</v>
+        <v>816.763545319729</v>
       </c>
       <c r="K75" s="248">
         <v>87638</v>
@@ -14583,31 +14586,31 @@
         <v>44</v>
       </c>
       <c r="B81" s="248">
-        <v>13816.261972472161</v>
+        <v>13816.261972472925</v>
       </c>
       <c r="C81" s="248">
-        <v>4923.6227998360109</v>
+        <v>4923.6227998381264</v>
       </c>
       <c r="D81" s="248">
-        <v>10608.918133772471</v>
+        <v>10608.918133774228</v>
       </c>
       <c r="E81" s="248">
-        <v>19716.183341392694</v>
+        <v>19716.1833413891</v>
       </c>
       <c r="F81" s="248">
-        <v>18041.824722186673</v>
+        <v>18041.824722185782</v>
       </c>
       <c r="G81" s="248">
-        <v>21913.801674900293</v>
+        <v>21913.801674907187</v>
       </c>
       <c r="H81" s="248">
-        <v>10831.755197303213</v>
+        <v>10831.75519729971</v>
       </c>
       <c r="I81" s="248">
-        <v>1714.0444625602429</v>
+        <v>1714.0444625567791</v>
       </c>
       <c r="J81" s="248">
-        <v>3014.587695576236</v>
+        <v>3014.5876955761632</v>
       </c>
       <c r="K81" s="248">
         <v>104581</v>
@@ -14633,7 +14636,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="246">
-        <v>5178.96025074878</v>
+        <v>5178.9602507487707</v>
       </c>
       <c r="C84" s="246">
         <v>7535.60187482751</v>
@@ -14654,10 +14657,10 @@
         <v>1442.82268372713</v>
       </c>
       <c r="I84" s="246">
-        <v>326.220715447211</v>
+        <v>326.22071544724804</v>
       </c>
       <c r="J84" s="246">
-        <v>-508.33001055115892</v>
+        <v>-508.330010551188</v>
       </c>
       <c r="K84" s="246">
         <v>40901</v>
@@ -14738,13 +14741,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="246">
-        <v>758.650987399222</v>
+        <v>758.65098739921893</v>
       </c>
       <c r="C87" s="246">
-        <v>693.931396633247</v>
+        <v>693.93139663324507</v>
       </c>
       <c r="D87" s="246">
-        <v>1215.3176159675402</v>
+        <v>1215.31761596753</v>
       </c>
       <c r="E87" s="246">
         <v>1867.53</v>
@@ -14759,10 +14762,10 @@
         <v>1243.4412710643</v>
       </c>
       <c r="I87" s="246">
-        <v>251.205238935698</v>
+        <v>251.205238935701</v>
       </c>
       <c r="J87" s="246">
-        <v>-7.2759576141834259E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
       <c r="K87" s="246">
         <v>8893</v>
@@ -14808,13 +14811,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="248">
-        <v>9155.8069512557722</v>
+        <v>9155.8069512557613</v>
       </c>
       <c r="C89" s="248">
-        <v>11155.388185391132</v>
+        <v>11155.38818539113</v>
       </c>
       <c r="D89" s="248">
-        <v>19396.305722720794</v>
+        <v>19396.305722720786</v>
       </c>
       <c r="E89" s="248">
         <v>17222.51279721436</v>
@@ -14829,10 +14832,10 @@
         <v>9720.01154807203</v>
       </c>
       <c r="I89" s="248">
-        <v>3987.8195811023083</v>
+        <v>3987.8195811023484</v>
       </c>
       <c r="J89" s="248">
-        <v>-508.33001055114437</v>
+        <v>-508.33001055117347</v>
       </c>
       <c r="K89" s="248">
         <v>91750</v>
@@ -14913,13 +14916,13 @@
         <v>82</v>
       </c>
       <c r="B92" s="248">
-        <v>9155.8069512557722</v>
+        <v>9155.8069512557613</v>
       </c>
       <c r="C92" s="248">
-        <v>11155.388185391132</v>
+        <v>11155.38818539113</v>
       </c>
       <c r="D92" s="248">
-        <v>19396.305722720794</v>
+        <v>19396.305722720786</v>
       </c>
       <c r="E92" s="248">
         <v>17222.51279721436</v>
@@ -14934,10 +14937,10 @@
         <v>9720.01154807203</v>
       </c>
       <c r="I92" s="248">
-        <v>3987.8195811023083</v>
+        <v>3987.8195811023484</v>
       </c>
       <c r="J92" s="248">
-        <v>-137.33001055114437</v>
+        <v>-137.33001055117347</v>
       </c>
       <c r="K92" s="248">
         <v>92121</v>
@@ -14963,31 +14966,31 @@
         <v>90</v>
       </c>
       <c r="B95" s="248">
-        <v>4660.4550212163886</v>
+        <v>4660.4550212171634</v>
       </c>
       <c r="C95" s="248">
-        <v>-6231.7653855551207</v>
+        <v>-6231.7653855530034</v>
       </c>
       <c r="D95" s="248">
-        <v>-8787.3875889483224</v>
+        <v>-8787.387588946558</v>
       </c>
       <c r="E95" s="248">
-        <v>2493.670544178337</v>
+        <v>2493.6705441747417</v>
       </c>
       <c r="F95" s="248">
-        <v>7508.0040219804441</v>
+        <v>7508.0040219795537</v>
       </c>
       <c r="G95" s="248">
-        <v>10827.137150311764</v>
+        <v>10827.137150318657</v>
       </c>
       <c r="H95" s="248">
-        <v>1111.7436492311824</v>
+        <v>1111.7436492276788</v>
       </c>
       <c r="I95" s="248">
-        <v>-2273.7751185420652</v>
+        <v>-2273.7751185455695</v>
       </c>
       <c r="J95" s="248">
-        <v>3151.9177061273913</v>
+        <v>3151.9177061273349</v>
       </c>
       <c r="K95" s="248">
         <v>12460</v>
@@ -15177,31 +15180,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>13717.058862712871</v>
+        <v>13717.058862717249</v>
       </c>
       <c r="C9" s="231">
-        <v>4975.2202661090887</v>
+        <v>4975.220266101991</v>
       </c>
       <c r="D9" s="231">
-        <v>10026.166083410528</v>
+        <v>10026.166083417978</v>
       </c>
       <c r="E9" s="231">
-        <v>18802.282915937983</v>
+        <v>18802.282915941178</v>
       </c>
       <c r="F9" s="231">
-        <v>17767.434187479485</v>
+        <v>17767.434187480958</v>
       </c>
       <c r="G9" s="231">
-        <v>21770.271438064974</v>
+        <v>21770.27143807201</v>
       </c>
       <c r="H9" s="231">
-        <v>11947.848786813673</v>
+        <v>11947.848786811022</v>
       </c>
       <c r="I9" s="231">
-        <v>2519.2276149919908</v>
+        <v>2519.2276149784461</v>
       </c>
       <c r="J9" s="231">
-        <v>3055.4898444794089</v>
+        <v>3055.4898444791615</v>
       </c>
       <c r="K9" s="231">
         <v>104581</v>
@@ -15227,28 +15230,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>13717.058862712871</v>
+        <v>13717.058862717249</v>
       </c>
       <c r="C11" s="231">
-        <v>18692.27912882196</v>
+        <v>18692.279128819238</v>
       </c>
       <c r="D11" s="231">
-        <v>28718.445212232487</v>
+        <v>28718.445212237217</v>
       </c>
       <c r="E11" s="231">
-        <v>47520.728128170471</v>
+        <v>47520.728128178394</v>
       </c>
       <c r="F11" s="231">
-        <v>65288.162315649955</v>
+        <v>65288.162315659356</v>
       </c>
       <c r="G11" s="231">
-        <v>87058.433753714926</v>
+        <v>87058.43375373137</v>
       </c>
       <c r="H11" s="231">
-        <v>99006.2825405286</v>
+        <v>99006.2825405424</v>
       </c>
       <c r="I11" s="231">
-        <v>101525.51015552059</v>
+        <v>101525.51015552084</v>
       </c>
       <c r="J11" s="231">
         <v>104581</v>
@@ -15262,13 +15265,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="231">
-        <v>9123.4090642306237</v>
+        <v>9123.40906423062</v>
       </c>
       <c r="C12" s="231">
-        <v>11461.649099839642</v>
+        <v>11461.64909983964</v>
       </c>
       <c r="D12" s="231">
-        <v>19948.293772930596</v>
+        <v>19948.293772930585</v>
       </c>
       <c r="E12" s="231">
         <v>16998.986562761507</v>
@@ -15277,16 +15280,16 @@
         <v>10379.76447422634</v>
       </c>
       <c r="G12" s="231">
-        <v>10953.46633610589</v>
+        <v>10953.466336105841</v>
       </c>
       <c r="H12" s="231">
-        <v>9587.67865067568</v>
+        <v>9587.6786506754615</v>
       </c>
       <c r="I12" s="231">
-        <v>3917.7138817261703</v>
+        <v>3917.7138817262608</v>
       </c>
       <c r="J12" s="231">
-        <v>-249.96184249644284</v>
+        <v>-249.96184249623912</v>
       </c>
       <c r="K12" s="231">
         <v>92121</v>
@@ -15332,28 +15335,28 @@
         <v>25</v>
       </c>
       <c r="B14" s="231">
-        <v>9123.4090642306237</v>
+        <v>9123.40906423062</v>
       </c>
       <c r="C14" s="231">
-        <v>20585.058164070266</v>
+        <v>20585.058164070258</v>
       </c>
       <c r="D14" s="231">
-        <v>40533.351937000858</v>
+        <v>40533.351937000843</v>
       </c>
       <c r="E14" s="231">
-        <v>57532.338499762365</v>
+        <v>57532.338499762351</v>
       </c>
       <c r="F14" s="231">
-        <v>67912.1029739887</v>
+        <v>67912.102973988687</v>
       </c>
       <c r="G14" s="231">
-        <v>78865.5693100946</v>
+        <v>78865.569310094521</v>
       </c>
       <c r="H14" s="231">
-        <v>88453.24796077027</v>
+        <v>88453.247960769979</v>
       </c>
       <c r="I14" s="231">
-        <v>92370.961842496443</v>
+        <v>92370.961842496239</v>
       </c>
       <c r="J14" s="231">
         <v>104581</v>
@@ -15365,31 +15368,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>4593.6497984822472</v>
+        <v>4593.6497984866292</v>
       </c>
       <c r="C15" s="231">
-        <v>-6486.4288337305534</v>
+        <v>-6486.4288337376493</v>
       </c>
       <c r="D15" s="231">
-        <v>-9922.1276895200681</v>
+        <v>-9922.1276895126066</v>
       </c>
       <c r="E15" s="231">
-        <v>1803.2963531764763</v>
+        <v>1803.2963531796704</v>
       </c>
       <c r="F15" s="231">
-        <v>7387.6697132531444</v>
+        <v>7387.6697132546178</v>
       </c>
       <c r="G15" s="231">
-        <v>10816.805101959084</v>
+        <v>10816.805101966169</v>
       </c>
       <c r="H15" s="231">
-        <v>2360.1701361379928</v>
+        <v>2360.1701361355608</v>
       </c>
       <c r="I15" s="231">
-        <v>-1398.4862667341795</v>
+        <v>-1398.4862667478146</v>
       </c>
       <c r="J15" s="231">
-        <v>-9154.5483130241482</v>
+        <v>-9154.5483130246</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -15398,31 +15401,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.043924324671615757</v>
+        <v>0.043924324671657654</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.062023014063076018</v>
+        <v>-0.062023014063143866</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.094875050817261913</v>
+        <v>-0.094875050817190568</v>
       </c>
       <c r="E16" s="236">
-        <v>0.017243058999019671</v>
+        <v>0.017243058999050213</v>
       </c>
       <c r="F16" s="237">
-        <v>0.070640649001760786</v>
+        <v>0.070640649001774872</v>
       </c>
       <c r="G16" s="236">
-        <v>0.10342992610473303</v>
+        <v>0.10342992610480076</v>
       </c>
       <c r="H16" s="236">
-        <v>0.022567867357722652</v>
+        <v>0.0225678673576994</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.013372278585347047</v>
+        <v>-0.013372278585477427</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.087535482669166956</v>
+        <v>-0.087535482669171258</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -15431,28 +15434,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>4593.6497984822472</v>
+        <v>4593.6497984866292</v>
       </c>
       <c r="C17" s="231">
-        <v>-1892.7790352483062</v>
+        <v>-1892.77903525102</v>
       </c>
       <c r="D17" s="231">
-        <v>-11814.906724768371</v>
+        <v>-11814.906724763627</v>
       </c>
       <c r="E17" s="231">
-        <v>-10011.610371591894</v>
+        <v>-10011.610371583956</v>
       </c>
       <c r="F17" s="231">
-        <v>-2623.9406583387463</v>
+        <v>-2623.9406583293312</v>
       </c>
       <c r="G17" s="231">
-        <v>8192.8644436203322</v>
+        <v>8192.8644436368486</v>
       </c>
       <c r="H17" s="231">
-        <v>10553.034579758329</v>
+        <v>10553.034579772415</v>
       </c>
       <c r="I17" s="231">
-        <v>9154.5483130241482</v>
+        <v>9154.5483130246</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -15464,28 +15467,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.043924324671615757</v>
+        <v>0.043924324671657654</v>
       </c>
       <c r="C18" s="236">
-        <v>-0.018098689391460268</v>
+        <v>-0.01809868939148622</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.11297374020872214</v>
+        <v>-0.11297374020867679</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.095730681209702476</v>
+        <v>-0.095730681209626578</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.025090032207941655</v>
+        <v>-0.02509003220785163</v>
       </c>
       <c r="G18" s="236">
-        <v>0.078339893896791316</v>
+        <v>0.078339893896949245</v>
       </c>
       <c r="H18" s="236">
-        <v>0.100907761254514</v>
+        <v>0.10090776125464869</v>
       </c>
       <c r="I18" s="236">
-        <v>0.087535482669166956</v>
+        <v>0.087535482669171258</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -15497,31 +15500,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.5035014615854703</v>
+        <v>1.503501461585951</v>
       </c>
       <c r="C19" s="236">
-        <v>0.43407543040021146</v>
+        <v>0.43407543039959223</v>
       </c>
       <c r="D19" s="236">
-        <v>0.50260770156773094</v>
+        <v>0.50260770156810475</v>
       </c>
       <c r="E19" s="236">
-        <v>1.1060825800713809</v>
+        <v>1.106082580071569</v>
       </c>
       <c r="F19" s="237">
-        <v>1.711737701910022</v>
+        <v>1.7117377019101641</v>
       </c>
       <c r="G19" s="236">
-        <v>1.9875234715702437</v>
+        <v>1.9875234715708947</v>
       </c>
       <c r="H19" s="236">
-        <v>1.2461670047704052</v>
+        <v>1.2461670047701572</v>
       </c>
       <c r="I19" s="236">
-        <v>0.64303511972701866</v>
+        <v>0.64303511972354654</v>
       </c>
       <c r="J19" s="236">
-        <v>0.25024408646927021</v>
+        <v>0.25024408646924579</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -15530,28 +15533,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.5035014615854703</v>
+        <v>1.503501461585951</v>
       </c>
       <c r="C20" s="236">
-        <v>0.908050828899186</v>
+        <v>0.90805082889905409</v>
       </c>
       <c r="D20" s="236">
-        <v>0.70851394813999735</v>
+        <v>0.70851394814011426</v>
       </c>
       <c r="E20" s="236">
-        <v>0.82598290574207678</v>
+        <v>0.82598290574221467</v>
       </c>
       <c r="F20" s="237">
-        <v>0.96136269466808078</v>
+        <v>0.96136269466821933</v>
       </c>
       <c r="G20" s="236">
-        <v>1.103883919374328</v>
+        <v>1.1038839193745373</v>
       </c>
       <c r="H20" s="236">
-        <v>1.1193063547472975</v>
+        <v>1.1193063547474571</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0991063439247688</v>
+        <v>1.0991063439247739</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -15594,28 +15597,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.099049520976917924</v>
+        <v>-0.0990495209768734</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.11297374020872214</v>
+        <v>-0.11297374020867679</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.11475858979764077</v>
+        <v>-0.11475858979787076</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.13553029511872952</v>
+        <v>-0.13553029511793446</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.16967526349227832</v>
+        <v>-0.16967526349201276</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.18685469719715037</v>
+        <v>-0.18685469719701306</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.19368149608888582</v>
+        <v>-0.19368149608885293</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.157180957395564</v>
+        <v>-0.1571809573952154</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -15625,28 +15628,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.73912490765977656</v>
+        <v>0.73912490765989358</v>
       </c>
       <c r="C24" s="236">
-        <v>0.70851394813999735</v>
+        <v>0.70851394814011426</v>
       </c>
       <c r="D24" s="236">
-        <v>0.70503793335831855</v>
+        <v>0.70503793335772724</v>
       </c>
       <c r="E24" s="236">
-        <v>0.65240887904835321</v>
+        <v>0.65240887905039213</v>
       </c>
       <c r="F24" s="236">
-        <v>0.56517561467640354</v>
+        <v>0.56517561467708388</v>
       </c>
       <c r="G24" s="236">
-        <v>0.521339860232343</v>
+        <v>0.52133986023269474</v>
       </c>
       <c r="H24" s="236">
-        <v>0.50397946519859671</v>
+        <v>0.50397946519868075</v>
       </c>
       <c r="I24" s="236">
-        <v>0.59729502253327771</v>
+        <v>0.59729502253417055</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -15982,31 +15985,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>24.8447526519064</v>
+        <v>24.8447526521213</v>
       </c>
       <c r="C50" s="246">
-        <v>33.6716817376746</v>
+        <v>33.671681738097</v>
       </c>
       <c r="D50" s="246">
-        <v>78.1018308436595</v>
+        <v>78.1018308449615</v>
       </c>
       <c r="E50" s="246">
-        <v>159.127480070073</v>
+        <v>159.127480072008</v>
       </c>
       <c r="F50" s="246">
-        <v>141.554984909496</v>
+        <v>141.554984910962</v>
       </c>
       <c r="G50" s="246">
-        <v>275.89389719411497</v>
+        <v>275.893897196055</v>
       </c>
       <c r="H50" s="246">
-        <v>452.242494999412</v>
+        <v>452.242494995586</v>
       </c>
       <c r="I50" s="246">
-        <v>359.532860013741</v>
+        <v>359.532860010316</v>
       </c>
       <c r="J50" s="246">
-        <v>17.030017579922514</v>
+        <v>17.030017579893183</v>
       </c>
       <c r="K50" s="246">
         <v>1542</v>
@@ -16017,31 +16020,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>24.8447526519064</v>
+        <v>24.8447526521213</v>
       </c>
       <c r="C51" s="248">
-        <v>33.6716817376746</v>
+        <v>33.671681738097</v>
       </c>
       <c r="D51" s="248">
-        <v>78.1018308436595</v>
+        <v>78.1018308449615</v>
       </c>
       <c r="E51" s="248">
-        <v>159.127480070073</v>
+        <v>159.127480072008</v>
       </c>
       <c r="F51" s="248">
-        <v>141.554984909496</v>
+        <v>141.554984910962</v>
       </c>
       <c r="G51" s="248">
-        <v>275.89389719411497</v>
+        <v>275.893897196055</v>
       </c>
       <c r="H51" s="248">
-        <v>452.242494999412</v>
+        <v>452.242494995586</v>
       </c>
       <c r="I51" s="248">
-        <v>359.532860013741</v>
+        <v>359.532860010316</v>
       </c>
       <c r="J51" s="248">
-        <v>17.030017579922514</v>
+        <v>17.030017579893183</v>
       </c>
       <c r="K51" s="248">
         <v>1542</v>
@@ -16122,31 +16125,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>24.8447526519064</v>
+        <v>24.8447526521213</v>
       </c>
       <c r="C54" s="248">
-        <v>33.6716817376746</v>
+        <v>33.671681738097</v>
       </c>
       <c r="D54" s="248">
-        <v>78.1018308436595</v>
+        <v>78.1018308449615</v>
       </c>
       <c r="E54" s="248">
-        <v>159.127480070073</v>
+        <v>159.127480072008</v>
       </c>
       <c r="F54" s="248">
-        <v>141.554984909496</v>
+        <v>141.554984910962</v>
       </c>
       <c r="G54" s="248">
-        <v>488.89389719411497</v>
+        <v>488.893897196055</v>
       </c>
       <c r="H54" s="248">
-        <v>547.242494999412</v>
+        <v>547.242494995586</v>
       </c>
       <c r="I54" s="248">
-        <v>359.532860013741</v>
+        <v>359.532860010316</v>
       </c>
       <c r="J54" s="248">
-        <v>17.030017579922514</v>
+        <v>17.030017579893183</v>
       </c>
       <c r="K54" s="248">
         <v>1850</v>
@@ -16157,31 +16160,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>24.8447526519064</v>
+        <v>24.8447526521213</v>
       </c>
       <c r="C55" s="248">
-        <v>33.6716817376746</v>
+        <v>33.671681738097</v>
       </c>
       <c r="D55" s="248">
-        <v>78.1018308436595</v>
+        <v>78.1018308449615</v>
       </c>
       <c r="E55" s="248">
-        <v>159.127480070073</v>
+        <v>159.127480072008</v>
       </c>
       <c r="F55" s="248">
-        <v>141.554984909496</v>
+        <v>141.554984910962</v>
       </c>
       <c r="G55" s="248">
-        <v>3257.8938971941238</v>
+        <v>3257.8938971960638</v>
       </c>
       <c r="H55" s="248">
-        <v>1782.242494999412</v>
+        <v>1782.2424949955862</v>
       </c>
       <c r="I55" s="248">
-        <v>359.532860013741</v>
+        <v>359.532860010316</v>
       </c>
       <c r="J55" s="248">
-        <v>17.030017579913874</v>
+        <v>17.03001757988477</v>
       </c>
       <c r="K55" s="248">
         <v>5854</v>
@@ -16297,7 +16300,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="246">
-        <v>380.05219228638</v>
+        <v>380.052192286381</v>
       </c>
       <c r="C59" s="246">
         <v>382.565733824596</v>
@@ -16321,7 +16324,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="246">
-        <v>18.42909842937479</v>
+        <v>18.42909842937388</v>
       </c>
       <c r="K59" s="246">
         <v>4751</v>
@@ -16341,16 +16344,16 @@
         <v>317.223205896817</v>
       </c>
       <c r="E60" s="246">
-        <v>491.735245905095</v>
+        <v>491.73524590522</v>
       </c>
       <c r="F60" s="246">
-        <v>342.877451075142</v>
+        <v>342.877451075022</v>
       </c>
       <c r="G60" s="246">
-        <v>399.844995044938</v>
+        <v>399.84499504493505</v>
       </c>
       <c r="H60" s="246">
-        <v>281.425120976613</v>
+        <v>281.42512097661097</v>
       </c>
       <c r="I60" s="246">
         <v>0</v>
@@ -16367,31 +16370,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>2558.15329230989</v>
+        <v>2558.15329231405</v>
       </c>
       <c r="C61" s="246">
-        <v>2767.73224813849</v>
+        <v>2767.73224813097</v>
       </c>
       <c r="D61" s="246">
-        <v>5747.28643816231</v>
+        <v>5747.2864381684594</v>
       </c>
       <c r="E61" s="246">
-        <v>10726.774463418898</v>
+        <v>10726.77446342</v>
       </c>
       <c r="F61" s="246">
-        <v>6962.89135845321</v>
+        <v>6962.8913584533693</v>
       </c>
       <c r="G61" s="246">
-        <v>10124.4906104653</v>
+        <v>10124.490610470399</v>
       </c>
       <c r="H61" s="246">
-        <v>9806.62010677508</v>
+        <v>9806.62010677626</v>
       </c>
       <c r="I61" s="246">
-        <v>2159.69475497825</v>
+        <v>2159.69475496813</v>
       </c>
       <c r="J61" s="246">
-        <v>445.35672729856742</v>
+        <v>445.35672729836369</v>
       </c>
       <c r="K61" s="246">
         <v>51299</v>
@@ -16411,22 +16414,22 @@
         <v>87.4270545192028</v>
       </c>
       <c r="E62" s="246">
-        <v>135.522759223176</v>
+        <v>135.522759223211</v>
       </c>
       <c r="F62" s="246">
-        <v>94.4973919036122</v>
+        <v>94.4973919035789</v>
       </c>
       <c r="G62" s="246">
         <v>110.19770789528701</v>
       </c>
       <c r="H62" s="246">
-        <v>77.5610640625659</v>
+        <v>77.5610640625654</v>
       </c>
       <c r="I62" s="246">
         <v>0</v>
       </c>
       <c r="J62" s="246">
-        <v>9.6237122874000534</v>
+        <v>9.6237122873988028</v>
       </c>
       <c r="K62" s="246">
         <v>618.999999999999</v>
@@ -16437,31 +16440,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>2612.5102973723688</v>
+        <v>2612.5102973765283</v>
       </c>
       <c r="C63" s="248">
-        <v>2817.545553184767</v>
+        <v>2817.5455531772468</v>
       </c>
       <c r="D63" s="248">
-        <v>5834.7134926815124</v>
+        <v>5834.7134926876624</v>
       </c>
       <c r="E63" s="248">
-        <v>10862.297222642075</v>
+        <v>10862.297222643212</v>
       </c>
       <c r="F63" s="248">
-        <v>7057.3887503568221</v>
+        <v>7057.3887503569485</v>
       </c>
       <c r="G63" s="248">
-        <v>10234.688318360586</v>
+        <v>10234.688318365686</v>
       </c>
       <c r="H63" s="248">
-        <v>9884.1811708376463</v>
+        <v>9884.181170838825</v>
       </c>
       <c r="I63" s="248">
-        <v>2159.69475497825</v>
+        <v>2159.69475496813</v>
       </c>
       <c r="J63" s="248">
-        <v>454.98043958596827</v>
+        <v>454.98043958575727</v>
       </c>
       <c r="K63" s="248">
         <v>51918</v>
@@ -16472,31 +16475,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>2809.7410459512485</v>
+        <v>2809.7410459554085</v>
       </c>
       <c r="C64" s="248">
-        <v>2998.2897908809496</v>
+        <v>2998.28979087343</v>
       </c>
       <c r="D64" s="248">
-        <v>6151.93669857833</v>
+        <v>6151.936698584479</v>
       </c>
       <c r="E64" s="248">
-        <v>11354.032468547171</v>
+        <v>11354.032468548432</v>
       </c>
       <c r="F64" s="248">
-        <v>7400.2662014319649</v>
+        <v>7400.2662014319712</v>
       </c>
       <c r="G64" s="248">
-        <v>10634.533313405524</v>
+        <v>10634.53331341062</v>
       </c>
       <c r="H64" s="248">
-        <v>10165.60629181426</v>
+        <v>10165.606291815435</v>
       </c>
       <c r="I64" s="248">
-        <v>2159.69475497825</v>
+        <v>2159.69475496813</v>
       </c>
       <c r="J64" s="248">
-        <v>489.89943441230571</v>
+        <v>489.89943441209471</v>
       </c>
       <c r="K64" s="248">
         <v>54164</v>
@@ -16612,31 +16615,31 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>3864.687301616591</v>
+        <v>3864.6873016207514</v>
       </c>
       <c r="C68" s="248">
-        <v>4060.1100502739323</v>
+        <v>4060.1100502664126</v>
       </c>
       <c r="D68" s="248">
-        <v>8296.49699954475</v>
+        <v>8296.4969995509</v>
       </c>
       <c r="E68" s="248">
-        <v>15728.954393495895</v>
+        <v>15728.954393497157</v>
       </c>
       <c r="F68" s="248">
-        <v>15137.729452771053</v>
+        <v>15137.72945277106</v>
       </c>
       <c r="G68" s="248">
-        <v>10634.533313405524</v>
+        <v>10634.53331341062</v>
       </c>
       <c r="H68" s="248">
-        <v>10165.60629181426</v>
+        <v>10165.606291815435</v>
       </c>
       <c r="I68" s="248">
-        <v>2159.69475497825</v>
+        <v>2159.69475496813</v>
       </c>
       <c r="J68" s="248">
-        <v>589.1874420997483</v>
+        <v>589.18744209953</v>
       </c>
       <c r="K68" s="248">
         <v>70637</v>
@@ -16752,7 +16755,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>282.213076872188</v>
+        <v>282.213076872189</v>
       </c>
       <c r="C72" s="246">
         <v>271.503762058543</v>
@@ -16776,7 +16779,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>119.949360740864</v>
+        <v>119.94936074086309</v>
       </c>
       <c r="K72" s="246">
         <v>3535</v>
@@ -16787,7 +16790,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="248">
-        <v>723.91728237221707</v>
+        <v>723.9172823722181</v>
       </c>
       <c r="C73" s="248">
         <v>682.465883810886</v>
@@ -16857,31 +16860,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>4786.214110060966</v>
+        <v>4786.2141100651279</v>
       </c>
       <c r="C75" s="248">
-        <v>4941.5485843714141</v>
+        <v>4941.5485843638935</v>
       </c>
       <c r="D75" s="248">
-        <v>9948.0642525668682</v>
+        <v>9948.0642525730163</v>
       </c>
       <c r="E75" s="248">
-        <v>18643.15543586791</v>
+        <v>18643.155435869172</v>
       </c>
       <c r="F75" s="248">
-        <v>17625.879202569988</v>
+        <v>17625.879202569995</v>
       </c>
       <c r="G75" s="248">
-        <v>18512.37754087085</v>
+        <v>18512.377540875947</v>
       </c>
       <c r="H75" s="248">
-        <v>10165.60629181426</v>
+        <v>10165.606291815435</v>
       </c>
       <c r="I75" s="248">
-        <v>2159.69475497825</v>
+        <v>2159.69475496813</v>
       </c>
       <c r="J75" s="248">
-        <v>855.45982689950324</v>
+        <v>855.459826899285</v>
       </c>
       <c r="K75" s="248">
         <v>87638</v>
@@ -17067,31 +17070,31 @@
         <v>44</v>
       </c>
       <c r="B81" s="248">
-        <v>13717.058862712871</v>
+        <v>13717.058862717249</v>
       </c>
       <c r="C81" s="248">
-        <v>4975.2202661090887</v>
+        <v>4975.220266101991</v>
       </c>
       <c r="D81" s="248">
-        <v>10026.166083410528</v>
+        <v>10026.166083417978</v>
       </c>
       <c r="E81" s="248">
-        <v>18802.282915937983</v>
+        <v>18802.282915941178</v>
       </c>
       <c r="F81" s="248">
-        <v>17767.434187479485</v>
+        <v>17767.434187480958</v>
       </c>
       <c r="G81" s="248">
-        <v>21770.271438064974</v>
+        <v>21770.27143807201</v>
       </c>
       <c r="H81" s="248">
-        <v>11947.848786813673</v>
+        <v>11947.848786811022</v>
       </c>
       <c r="I81" s="248">
-        <v>2519.2276149919908</v>
+        <v>2519.2276149784461</v>
       </c>
       <c r="J81" s="248">
-        <v>3055.4898444794089</v>
+        <v>3055.4898444791615</v>
       </c>
       <c r="K81" s="248">
         <v>104581</v>
@@ -17132,16 +17135,16 @@
         <v>3545.4594742263403</v>
       </c>
       <c r="G84" s="246">
-        <v>2445.0490661058902</v>
+        <v>2445.0490661058398</v>
       </c>
       <c r="H84" s="246">
-        <v>1310.48978633078</v>
+        <v>1310.48978633056</v>
       </c>
       <c r="I84" s="246">
-        <v>256.115016071073</v>
+        <v>256.11501607116</v>
       </c>
       <c r="J84" s="246">
-        <v>-620.96184249644284</v>
+        <v>-620.96184249626822</v>
       </c>
       <c r="K84" s="246">
         <v>40901</v>
@@ -17222,13 +17225,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="246">
-        <v>758.650987399222</v>
+        <v>758.65098739921893</v>
       </c>
       <c r="C87" s="246">
-        <v>693.931396633247</v>
+        <v>693.93139663324507</v>
       </c>
       <c r="D87" s="246">
-        <v>1215.3176159675402</v>
+        <v>1215.31761596753</v>
       </c>
       <c r="E87" s="246">
         <v>1867.53</v>
@@ -17243,10 +17246,10 @@
         <v>1243.4412710643</v>
       </c>
       <c r="I87" s="246">
-        <v>251.205238935698</v>
+        <v>251.205238935701</v>
       </c>
       <c r="J87" s="246">
-        <v>-7.2759576141834259E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
       <c r="K87" s="246">
         <v>8893</v>
@@ -17292,13 +17295,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="248">
-        <v>9123.4090642306237</v>
+        <v>9123.40906423062</v>
       </c>
       <c r="C89" s="248">
-        <v>11461.649099839642</v>
+        <v>11461.64909983964</v>
       </c>
       <c r="D89" s="248">
-        <v>19948.293772930596</v>
+        <v>19948.293772930585</v>
       </c>
       <c r="E89" s="248">
         <v>16998.986562761507</v>
@@ -17307,16 +17310,16 @@
         <v>10379.76447422634</v>
       </c>
       <c r="G89" s="248">
-        <v>10953.46633610589</v>
+        <v>10953.466336105841</v>
       </c>
       <c r="H89" s="248">
-        <v>9587.67865067568</v>
+        <v>9587.6786506754615</v>
       </c>
       <c r="I89" s="248">
-        <v>3917.7138817261703</v>
+        <v>3917.7138817262608</v>
       </c>
       <c r="J89" s="248">
-        <v>-620.96184249644284</v>
+        <v>-620.96184249623911</v>
       </c>
       <c r="K89" s="248">
         <v>91750</v>
@@ -17397,13 +17400,13 @@
         <v>82</v>
       </c>
       <c r="B92" s="248">
-        <v>9123.4090642306237</v>
+        <v>9123.40906423062</v>
       </c>
       <c r="C92" s="248">
-        <v>11461.649099839642</v>
+        <v>11461.64909983964</v>
       </c>
       <c r="D92" s="248">
-        <v>19948.293772930596</v>
+        <v>19948.293772930585</v>
       </c>
       <c r="E92" s="248">
         <v>16998.986562761507</v>
@@ -17412,16 +17415,16 @@
         <v>10379.76447422634</v>
       </c>
       <c r="G92" s="248">
-        <v>10953.46633610589</v>
+        <v>10953.466336105841</v>
       </c>
       <c r="H92" s="248">
-        <v>9587.67865067568</v>
+        <v>9587.6786506754615</v>
       </c>
       <c r="I92" s="248">
-        <v>3917.7138817261703</v>
+        <v>3917.7138817262608</v>
       </c>
       <c r="J92" s="248">
-        <v>-249.96184249644284</v>
+        <v>-249.96184249623912</v>
       </c>
       <c r="K92" s="248">
         <v>92121</v>
@@ -17447,31 +17450,31 @@
         <v>90</v>
       </c>
       <c r="B95" s="248">
-        <v>4593.6497984822463</v>
+        <v>4593.6497984866273</v>
       </c>
       <c r="C95" s="248">
-        <v>-6486.4288337305543</v>
+        <v>-6486.42883373765</v>
       </c>
       <c r="D95" s="248">
-        <v>-9922.1276895200681</v>
+        <v>-9922.1276895126066</v>
       </c>
       <c r="E95" s="248">
-        <v>1803.2963531764747</v>
+        <v>1803.2963531796709</v>
       </c>
       <c r="F95" s="248">
-        <v>7387.6697132531444</v>
+        <v>7387.669713254616</v>
       </c>
       <c r="G95" s="248">
-        <v>10816.805101959084</v>
+        <v>10816.805101966171</v>
       </c>
       <c r="H95" s="248">
-        <v>2360.1701361379924</v>
+        <v>2360.1701361355613</v>
       </c>
       <c r="I95" s="248">
-        <v>-1398.4862667341795</v>
+        <v>-1398.4862667478146</v>
       </c>
       <c r="J95" s="248">
-        <v>3305.451686975859</v>
+        <v>3305.4516869754261</v>
       </c>
       <c r="K95" s="248">
         <v>12460</v>
@@ -17661,31 +17664,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>12442.944613965543</v>
+        <v>12442.944613976277</v>
       </c>
       <c r="C9" s="231">
-        <v>4475.5449098597255</v>
+        <v>4475.5449098813488</v>
       </c>
       <c r="D9" s="231">
-        <v>9685.1076464763628</v>
+        <v>9685.1076465271453</v>
       </c>
       <c r="E9" s="231">
-        <v>18083.042003560415</v>
+        <v>18083.042003613049</v>
       </c>
       <c r="F9" s="231">
-        <v>17568.526425020355</v>
+        <v>17568.526425036162</v>
       </c>
       <c r="G9" s="231">
-        <v>21795.057750284428</v>
+        <v>21795.057750298653</v>
       </c>
       <c r="H9" s="231">
-        <v>13401.904871302761</v>
+        <v>13401.904871228489</v>
       </c>
       <c r="I9" s="231">
-        <v>4007.2920357348012</v>
+        <v>4007.2920356469722</v>
       </c>
       <c r="J9" s="231">
-        <v>3121.5797437956062</v>
+        <v>3121.57974379191</v>
       </c>
       <c r="K9" s="231">
         <v>104581</v>
@@ -17711,28 +17714,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>12442.944613965543</v>
+        <v>12442.944613976277</v>
       </c>
       <c r="C11" s="231">
-        <v>16918.489523825268</v>
+        <v>16918.489523857625</v>
       </c>
       <c r="D11" s="231">
-        <v>26603.597170301633</v>
+        <v>26603.597170384768</v>
       </c>
       <c r="E11" s="231">
-        <v>44686.639173862044</v>
+        <v>44686.639173997813</v>
       </c>
       <c r="F11" s="231">
-        <v>62255.1655988824</v>
+        <v>62255.165599033979</v>
       </c>
       <c r="G11" s="231">
-        <v>84050.22334916683</v>
+        <v>84050.223349332635</v>
       </c>
       <c r="H11" s="231">
-        <v>97452.128220469589</v>
+        <v>97452.128220561121</v>
       </c>
       <c r="I11" s="231">
-        <v>101459.42025620439</v>
+        <v>101459.42025620809</v>
       </c>
       <c r="J11" s="231">
         <v>104581</v>
@@ -17746,13 +17749,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="231">
-        <v>9132.6100745705626</v>
+        <v>9132.6100745705589</v>
       </c>
       <c r="C12" s="231">
-        <v>11563.091479925231</v>
+        <v>11563.09147992523</v>
       </c>
       <c r="D12" s="231">
-        <v>20081.789409617697</v>
+        <v>20081.789409617686</v>
       </c>
       <c r="E12" s="231">
         <v>17012.04440932599</v>
@@ -17761,16 +17764,16 @@
         <v>10363.448132168051</v>
       </c>
       <c r="G12" s="231">
-        <v>10948.19066739062</v>
+        <v>10948.1906673906</v>
       </c>
       <c r="H12" s="231">
-        <v>9622.40752581571</v>
+        <v>9622.40752581553</v>
       </c>
       <c r="I12" s="231">
-        <v>3940.0638605881304</v>
+        <v>3940.0638605881477</v>
       </c>
       <c r="J12" s="231">
-        <v>-542.645559401979</v>
+        <v>-542.64555940180435</v>
       </c>
       <c r="K12" s="231">
         <v>92121</v>
@@ -17816,28 +17819,28 @@
         <v>25</v>
       </c>
       <c r="B14" s="231">
-        <v>9132.6100745705626</v>
+        <v>9132.6100745705589</v>
       </c>
       <c r="C14" s="231">
-        <v>20695.701554495794</v>
+        <v>20695.70155449579</v>
       </c>
       <c r="D14" s="231">
-        <v>40777.490964113487</v>
+        <v>40777.490964113473</v>
       </c>
       <c r="E14" s="231">
-        <v>57789.535373439474</v>
+        <v>57789.535373439459</v>
       </c>
       <c r="F14" s="231">
-        <v>68152.983505607524</v>
+        <v>68152.98350560751</v>
       </c>
       <c r="G14" s="231">
-        <v>79101.174172998144</v>
+        <v>79101.174172998115</v>
       </c>
       <c r="H14" s="231">
-        <v>88723.581698813854</v>
+        <v>88723.58169881365</v>
       </c>
       <c r="I14" s="231">
-        <v>92663.645559401979</v>
+        <v>92663.6455594018</v>
       </c>
       <c r="J14" s="231">
         <v>104581</v>
@@ -17849,31 +17852,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>3310.3345393949803</v>
+        <v>3310.3345394057178</v>
       </c>
       <c r="C15" s="231">
-        <v>-7087.5465700655059</v>
+        <v>-7087.5465700438808</v>
       </c>
       <c r="D15" s="231">
-        <v>-10396.681763141334</v>
+        <v>-10396.681763090541</v>
       </c>
       <c r="E15" s="231">
-        <v>1070.9975942344245</v>
+        <v>1070.9975942870588</v>
       </c>
       <c r="F15" s="231">
-        <v>7205.078292852304</v>
+        <v>7205.078292868111</v>
       </c>
       <c r="G15" s="231">
-        <v>10846.867082893808</v>
+        <v>10846.867082908053</v>
       </c>
       <c r="H15" s="231">
-        <v>3779.4973454870506</v>
+        <v>3779.4973454129595</v>
       </c>
       <c r="I15" s="231">
-        <v>67.228175146670765</v>
+        <v>67.22817505882449</v>
       </c>
       <c r="J15" s="231">
-        <v>-8795.7746968024148</v>
+        <v>-8795.7746968062856</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -17882,31 +17885,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.0316533073827462</v>
+        <v>0.031653307382848869</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.067770881613921322</v>
+        <v>-0.067770881613714543</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.09941272088755447</v>
+        <v>-0.099412720887068776</v>
       </c>
       <c r="E16" s="236">
-        <v>0.010240842927820775</v>
+        <v>0.010240842928324064</v>
       </c>
       <c r="F16" s="237">
-        <v>0.06889471598906402</v>
+        <v>0.068894715989215163</v>
       </c>
       <c r="G16" s="236">
-        <v>0.10371737775402615</v>
+        <v>0.10371737775416236</v>
       </c>
       <c r="H16" s="236">
-        <v>0.036139426334487627</v>
+        <v>0.036139426333779173</v>
       </c>
       <c r="I16" s="236">
-        <v>0.00064283354669271442</v>
+        <v>0.00064283354585273128</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.084104901433361856</v>
+        <v>-0.084104901433398854</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -17915,28 +17918,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>3310.3345393949803</v>
+        <v>3310.3345394057178</v>
       </c>
       <c r="C17" s="231">
-        <v>-3777.2120306705256</v>
+        <v>-3777.2120306381657</v>
       </c>
       <c r="D17" s="231">
-        <v>-14173.893793811854</v>
+        <v>-14173.893793728705</v>
       </c>
       <c r="E17" s="231">
-        <v>-13102.89619957743</v>
+        <v>-13102.896199441646</v>
       </c>
       <c r="F17" s="231">
-        <v>-5897.8179067251258</v>
+        <v>-5897.8179065735312</v>
       </c>
       <c r="G17" s="231">
-        <v>4949.0491761686862</v>
+        <v>4949.04917633452</v>
       </c>
       <c r="H17" s="231">
-        <v>8728.546521655735</v>
+        <v>8728.54652174747</v>
       </c>
       <c r="I17" s="231">
-        <v>8795.7746968024148</v>
+        <v>8795.7746968062856</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -17948,28 +17951,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.0316533073827462</v>
+        <v>0.031653307382848869</v>
       </c>
       <c r="C18" s="236">
-        <v>-0.036117574231175127</v>
+        <v>-0.0361175742308657</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.13553029511872952</v>
+        <v>-0.13553029511793446</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.12528945219090878</v>
+        <v>-0.12528945218961041</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.05639473620184475</v>
+        <v>-0.056394736200395208</v>
       </c>
       <c r="G18" s="236">
-        <v>0.047322641552181431</v>
+        <v>0.047322641553767128</v>
       </c>
       <c r="H18" s="236">
-        <v>0.083462067886669045</v>
+        <v>0.083462067887546218</v>
       </c>
       <c r="I18" s="236">
-        <v>0.084104901433361856</v>
+        <v>0.084104901433398854</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -17981,31 +17984,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.3624740914552447</v>
+        <v>1.3624740914564208</v>
       </c>
       <c r="C19" s="236">
-        <v>0.38705435459277932</v>
+        <v>0.38705435459464937</v>
       </c>
       <c r="D19" s="236">
-        <v>0.48228309982365963</v>
+        <v>0.48228309982618867</v>
       </c>
       <c r="E19" s="236">
-        <v>1.0629552550219834</v>
+        <v>1.0629552550250774</v>
       </c>
       <c r="F19" s="237">
-        <v>1.6952394802351358</v>
+        <v>1.695239480236661</v>
       </c>
       <c r="G19" s="236">
-        <v>1.9907451753833072</v>
+        <v>1.9907451753846104</v>
       </c>
       <c r="H19" s="236">
-        <v>1.3927808436035507</v>
+        <v>1.3927808435958582</v>
       </c>
       <c r="I19" s="236">
-        <v>1.0170627120588436</v>
+        <v>1.0170627120365479</v>
       </c>
       <c r="J19" s="236">
-        <v>0.26193563003895715</v>
+        <v>0.26193563003864317</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -18014,28 +18017,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.3624740914552447</v>
+        <v>1.3624740914564208</v>
       </c>
       <c r="C20" s="236">
-        <v>0.81748808946029716</v>
+        <v>0.81748808946186069</v>
       </c>
       <c r="D20" s="236">
-        <v>0.65240887904835321</v>
+        <v>0.65240887905039213</v>
       </c>
       <c r="E20" s="236">
-        <v>0.77326524404624952</v>
+        <v>0.77326524404859909</v>
       </c>
       <c r="F20" s="237">
-        <v>0.91346207306918759</v>
+        <v>0.913462073071412</v>
       </c>
       <c r="G20" s="236">
-        <v>1.0625660646369783</v>
+        <v>1.0625660646390749</v>
       </c>
       <c r="H20" s="236">
-        <v>1.0983791045686835</v>
+        <v>1.0983791045697176</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0949215265998129</v>
+        <v>1.0949215265998549</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -18078,28 +18081,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.099049520976917924</v>
+        <v>-0.0990495209768734</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.11297374020872214</v>
+        <v>-0.11297374020867679</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.11475858979764077</v>
+        <v>-0.11475858979787076</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.13553029511872952</v>
+        <v>-0.13553029511793446</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.16967526349227832</v>
+        <v>-0.16967526349201276</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.18685469719715037</v>
+        <v>-0.18685469719701306</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.19368149608888582</v>
+        <v>-0.19368149608885293</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.157180957395564</v>
+        <v>-0.1571809573952154</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -18109,28 +18112,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.73912490765977656</v>
+        <v>0.73912490765989358</v>
       </c>
       <c r="C24" s="236">
-        <v>0.70851394813999735</v>
+        <v>0.70851394814011426</v>
       </c>
       <c r="D24" s="236">
-        <v>0.70503793335831855</v>
+        <v>0.70503793335772724</v>
       </c>
       <c r="E24" s="236">
-        <v>0.65240887904835321</v>
+        <v>0.65240887905039213</v>
       </c>
       <c r="F24" s="236">
-        <v>0.56517561467640354</v>
+        <v>0.56517561467708388</v>
       </c>
       <c r="G24" s="236">
-        <v>0.521339860232343</v>
+        <v>0.52133986023269474</v>
       </c>
       <c r="H24" s="236">
-        <v>0.50397946519859671</v>
+        <v>0.50397946519868075</v>
       </c>
       <c r="I24" s="236">
-        <v>0.59729502253327771</v>
+        <v>0.59729502253417055</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -18466,31 +18469,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>17.8681841191991</v>
+        <v>17.8681841192201</v>
       </c>
       <c r="C50" s="246">
-        <v>22.739790115222497</v>
+        <v>22.7397901152556</v>
       </c>
       <c r="D50" s="246">
-        <v>52.3534697175039</v>
+        <v>52.353469717576196</v>
       </c>
       <c r="E50" s="246">
-        <v>112.02230489959899</v>
+        <v>112.02230489968001</v>
       </c>
       <c r="F50" s="246">
-        <v>105.716836510925</v>
+        <v>105.716836511002</v>
       </c>
       <c r="G50" s="246">
-        <v>222.25669672223398</v>
+        <v>222.256696722558</v>
       </c>
       <c r="H50" s="246">
-        <v>469.451627931858</v>
+        <v>469.45162793218503</v>
       </c>
       <c r="I50" s="246">
-        <v>521.014756693351</v>
+        <v>521.014756692422</v>
       </c>
       <c r="J50" s="246">
-        <v>18.576333290107414</v>
+        <v>18.576333290101047</v>
       </c>
       <c r="K50" s="246">
         <v>1542</v>
@@ -18501,31 +18504,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>17.8681841191991</v>
+        <v>17.8681841192201</v>
       </c>
       <c r="C51" s="248">
-        <v>22.739790115222497</v>
+        <v>22.7397901152556</v>
       </c>
       <c r="D51" s="248">
-        <v>52.3534697175039</v>
+        <v>52.353469717576196</v>
       </c>
       <c r="E51" s="248">
-        <v>112.02230489959899</v>
+        <v>112.02230489968001</v>
       </c>
       <c r="F51" s="248">
-        <v>105.716836510925</v>
+        <v>105.716836511002</v>
       </c>
       <c r="G51" s="248">
-        <v>222.25669672223398</v>
+        <v>222.256696722558</v>
       </c>
       <c r="H51" s="248">
-        <v>469.451627931858</v>
+        <v>469.45162793218503</v>
       </c>
       <c r="I51" s="248">
-        <v>521.014756693351</v>
+        <v>521.014756692422</v>
       </c>
       <c r="J51" s="248">
-        <v>18.576333290107414</v>
+        <v>18.576333290101047</v>
       </c>
       <c r="K51" s="248">
         <v>1542</v>
@@ -18606,31 +18609,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>17.8681841191991</v>
+        <v>17.8681841192201</v>
       </c>
       <c r="C54" s="248">
-        <v>22.739790115222497</v>
+        <v>22.7397901152556</v>
       </c>
       <c r="D54" s="248">
-        <v>52.3534697175039</v>
+        <v>52.353469717576196</v>
       </c>
       <c r="E54" s="248">
-        <v>112.02230489959899</v>
+        <v>112.02230489968001</v>
       </c>
       <c r="F54" s="248">
-        <v>105.716836510925</v>
+        <v>105.716836511002</v>
       </c>
       <c r="G54" s="248">
-        <v>435.25669672223404</v>
+        <v>435.256696722558</v>
       </c>
       <c r="H54" s="248">
-        <v>564.451627931858</v>
+        <v>564.451627932185</v>
       </c>
       <c r="I54" s="248">
-        <v>521.014756693351</v>
+        <v>521.014756692422</v>
       </c>
       <c r="J54" s="248">
-        <v>18.576333290107414</v>
+        <v>18.576333290101047</v>
       </c>
       <c r="K54" s="248">
         <v>1850</v>
@@ -18641,31 +18644,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>17.8681841191991</v>
+        <v>17.8681841192201</v>
       </c>
       <c r="C55" s="248">
-        <v>22.739790115222497</v>
+        <v>22.7397901152556</v>
       </c>
       <c r="D55" s="248">
-        <v>52.3534697175039</v>
+        <v>52.353469717576196</v>
       </c>
       <c r="E55" s="248">
-        <v>112.02230489959899</v>
+        <v>112.02230489968001</v>
       </c>
       <c r="F55" s="248">
-        <v>105.716836510925</v>
+        <v>105.716836511002</v>
       </c>
       <c r="G55" s="248">
-        <v>3204.2566967222429</v>
+        <v>3204.2566967225671</v>
       </c>
       <c r="H55" s="248">
-        <v>1799.451627931858</v>
+        <v>1799.4516279321852</v>
       </c>
       <c r="I55" s="248">
-        <v>521.014756693351</v>
+        <v>521.014756692422</v>
       </c>
       <c r="J55" s="248">
-        <v>18.576333290098773</v>
+        <v>18.576333290091497</v>
       </c>
       <c r="K55" s="248">
         <v>5854</v>
@@ -18781,7 +18784,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="246">
-        <v>380.05219228638</v>
+        <v>380.052192286381</v>
       </c>
       <c r="C59" s="246">
         <v>382.565733824596</v>
@@ -18805,7 +18808,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="246">
-        <v>18.42909842937479</v>
+        <v>18.42909842937388</v>
       </c>
       <c r="K59" s="246">
         <v>4751</v>
@@ -18825,22 +18828,22 @@
         <v>317.223205896817</v>
       </c>
       <c r="E60" s="246">
-        <v>483.51839001325</v>
+        <v>483.518390013366</v>
       </c>
       <c r="F60" s="246">
-        <v>339.94685457449805</v>
+        <v>339.94685457438203</v>
       </c>
       <c r="G60" s="246">
-        <v>401.41045944532505</v>
+        <v>401.410459445324</v>
       </c>
       <c r="H60" s="246">
-        <v>290.79300616900696</v>
+        <v>290.793006169008</v>
       </c>
       <c r="I60" s="246">
         <v>0</v>
       </c>
       <c r="J60" s="246">
-        <v>35.133097626039671</v>
+        <v>35.133097626040126</v>
       </c>
       <c r="K60" s="246">
         <v>2246</v>
@@ -18851,31 +18854,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>1291.0156120952702</v>
+        <v>1291.0156121059802</v>
       </c>
       <c r="C61" s="246">
-        <v>2278.98878351158</v>
+        <v>2278.9887835331697</v>
       </c>
       <c r="D61" s="246">
-        <v>5431.9763623543</v>
+        <v>5431.9763624050092</v>
       </c>
       <c r="E61" s="246">
-        <v>10065.1201563677</v>
+        <v>10065.1201564201</v>
       </c>
       <c r="F61" s="246">
-        <v>6803.56001642041</v>
+        <v>6803.56001643629</v>
       </c>
       <c r="G61" s="246">
-        <v>10200.9172150947</v>
+        <v>10200.917215108599</v>
       </c>
       <c r="H61" s="246">
-        <v>11231.5173739701</v>
+        <v>11231.5173738955</v>
       </c>
       <c r="I61" s="246">
-        <v>3486.27727904145</v>
+        <v>3486.27727895455</v>
       </c>
       <c r="J61" s="246">
-        <v>509.62720114448894</v>
+        <v>509.6272011408</v>
       </c>
       <c r="K61" s="246">
         <v>51299</v>
@@ -18895,22 +18898,22 @@
         <v>87.4270545192028</v>
       </c>
       <c r="E62" s="246">
-        <v>133.25818495912802</v>
+        <v>133.25818495916</v>
       </c>
       <c r="F62" s="246">
-        <v>93.6897163764975</v>
+        <v>93.68971637646581</v>
       </c>
       <c r="G62" s="246">
         <v>110.62915155683699</v>
       </c>
       <c r="H62" s="246">
-        <v>80.1428632317965</v>
+        <v>80.142863231796909</v>
       </c>
       <c r="I62" s="246">
         <v>0</v>
       </c>
       <c r="J62" s="246">
-        <v>9.6827192477821882</v>
+        <v>9.6827192477813924</v>
       </c>
       <c r="K62" s="246">
         <v>618.999999999999</v>
@@ -18921,31 +18924,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>1345.3726171577487</v>
+        <v>1345.3726171684587</v>
       </c>
       <c r="C63" s="248">
-        <v>2328.8020885578567</v>
+        <v>2328.8020885794467</v>
       </c>
       <c r="D63" s="248">
-        <v>5519.4034168735025</v>
+        <v>5519.4034169242123</v>
       </c>
       <c r="E63" s="248">
-        <v>10198.378341326828</v>
+        <v>10198.378341379261</v>
       </c>
       <c r="F63" s="248">
-        <v>6897.2497327969077</v>
+        <v>6897.2497328127556</v>
       </c>
       <c r="G63" s="248">
-        <v>10311.546366651537</v>
+        <v>10311.546366665436</v>
       </c>
       <c r="H63" s="248">
-        <v>11311.660237201897</v>
+        <v>11311.660237127297</v>
       </c>
       <c r="I63" s="248">
-        <v>3486.27727904145</v>
+        <v>3486.27727895455</v>
       </c>
       <c r="J63" s="248">
-        <v>519.3099203922684</v>
+        <v>519.30992038857948</v>
       </c>
       <c r="K63" s="248">
         <v>51918</v>
@@ -18956,31 +18959,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>1542.6033657366286</v>
+        <v>1542.6033657473386</v>
       </c>
       <c r="C64" s="248">
-        <v>2509.5463262540397</v>
+        <v>2509.5463262756293</v>
       </c>
       <c r="D64" s="248">
-        <v>5836.62662277032</v>
+        <v>5836.6266228210288</v>
       </c>
       <c r="E64" s="248">
-        <v>10681.896731340079</v>
+        <v>10681.896731392626</v>
       </c>
       <c r="F64" s="248">
-        <v>7237.1965873714053</v>
+        <v>7237.1965873871377</v>
       </c>
       <c r="G64" s="248">
-        <v>10712.956826096863</v>
+        <v>10712.95682611076</v>
       </c>
       <c r="H64" s="248">
-        <v>11602.453243370903</v>
+        <v>11602.453243296304</v>
       </c>
       <c r="I64" s="248">
-        <v>3486.27727904145</v>
+        <v>3486.27727895455</v>
       </c>
       <c r="J64" s="248">
-        <v>554.4430180183117</v>
+        <v>554.44301801462279</v>
       </c>
       <c r="K64" s="248">
         <v>54164</v>
@@ -19096,31 +19099,31 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>2597.5496214019709</v>
+        <v>2597.549621412682</v>
       </c>
       <c r="C68" s="248">
-        <v>3571.3665856470225</v>
+        <v>3571.3665856686121</v>
       </c>
       <c r="D68" s="248">
-        <v>7981.18692373674</v>
+        <v>7981.18692378745</v>
       </c>
       <c r="E68" s="248">
-        <v>15056.818656288802</v>
+        <v>15056.818656341351</v>
       </c>
       <c r="F68" s="248">
-        <v>14974.659838710495</v>
+        <v>14974.659838726226</v>
       </c>
       <c r="G68" s="248">
-        <v>10712.956826096863</v>
+        <v>10712.95682611076</v>
       </c>
       <c r="H68" s="248">
-        <v>11602.453243370903</v>
+        <v>11602.453243296304</v>
       </c>
       <c r="I68" s="248">
-        <v>3486.27727904145</v>
+        <v>3486.27727895455</v>
       </c>
       <c r="J68" s="248">
-        <v>653.73102570575429</v>
+        <v>653.7310257020581</v>
       </c>
       <c r="K68" s="248">
         <v>70637</v>
@@ -19236,7 +19239,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>282.213076872188</v>
+        <v>282.213076872189</v>
       </c>
       <c r="C72" s="246">
         <v>271.503762058543</v>
@@ -19260,7 +19263,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>119.949360740864</v>
+        <v>119.94936074086309</v>
       </c>
       <c r="K72" s="246">
         <v>3535</v>
@@ -19271,7 +19274,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="248">
-        <v>723.91728237221707</v>
+        <v>723.9172823722181</v>
       </c>
       <c r="C73" s="248">
         <v>682.465883810886</v>
@@ -19341,31 +19344,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>3519.076429846345</v>
+        <v>3519.0764298570571</v>
       </c>
       <c r="C75" s="248">
-        <v>4452.8051197445029</v>
+        <v>4452.8051197660925</v>
       </c>
       <c r="D75" s="248">
-        <v>9632.7541767588573</v>
+        <v>9632.7541768095671</v>
       </c>
       <c r="E75" s="248">
-        <v>17971.019698660817</v>
+        <v>17971.019698713368</v>
       </c>
       <c r="F75" s="248">
-        <v>17462.80958850943</v>
+        <v>17462.809588525161</v>
       </c>
       <c r="G75" s="248">
-        <v>18590.801053562187</v>
+        <v>18590.801053576084</v>
       </c>
       <c r="H75" s="248">
-        <v>11602.453243370903</v>
+        <v>11602.453243296304</v>
       </c>
       <c r="I75" s="248">
-        <v>3486.27727904145</v>
+        <v>3486.27727895455</v>
       </c>
       <c r="J75" s="248">
-        <v>920.00341050550924</v>
+        <v>920.003410501813</v>
       </c>
       <c r="K75" s="248">
         <v>87638</v>
@@ -19551,31 +19554,31 @@
         <v>44</v>
       </c>
       <c r="B81" s="248">
-        <v>12442.944613965543</v>
+        <v>12442.944613976277</v>
       </c>
       <c r="C81" s="248">
-        <v>4475.5449098597255</v>
+        <v>4475.5449098813488</v>
       </c>
       <c r="D81" s="248">
-        <v>9685.1076464763628</v>
+        <v>9685.1076465271453</v>
       </c>
       <c r="E81" s="248">
-        <v>18083.042003560415</v>
+        <v>18083.042003613049</v>
       </c>
       <c r="F81" s="248">
-        <v>17568.526425020355</v>
+        <v>17568.526425036162</v>
       </c>
       <c r="G81" s="248">
-        <v>21795.057750284428</v>
+        <v>21795.057750298653</v>
       </c>
       <c r="H81" s="248">
-        <v>13401.904871302761</v>
+        <v>13401.904871228489</v>
       </c>
       <c r="I81" s="248">
-        <v>4007.2920357348012</v>
+        <v>4007.2920356469722</v>
       </c>
       <c r="J81" s="248">
-        <v>3121.5797437956062</v>
+        <v>3121.57974379191</v>
       </c>
       <c r="K81" s="248">
         <v>104581</v>
@@ -19616,16 +19619,16 @@
         <v>3529.1431321680498</v>
       </c>
       <c r="G84" s="246">
-        <v>2439.7733973906197</v>
+        <v>2439.7733973905997</v>
       </c>
       <c r="H84" s="246">
-        <v>1345.21866147081</v>
+        <v>1345.21866147063</v>
       </c>
       <c r="I84" s="246">
-        <v>278.46499493303304</v>
+        <v>278.46499493304697</v>
       </c>
       <c r="J84" s="246">
-        <v>-913.64555940198625</v>
+        <v>-913.64555940179707</v>
       </c>
       <c r="K84" s="246">
         <v>40901</v>
@@ -19706,13 +19709,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="246">
-        <v>758.650987399222</v>
+        <v>758.65098739921893</v>
       </c>
       <c r="C87" s="246">
-        <v>693.931396633247</v>
+        <v>693.93139663324507</v>
       </c>
       <c r="D87" s="246">
-        <v>1215.3176159675402</v>
+        <v>1215.31761596753</v>
       </c>
       <c r="E87" s="246">
         <v>1867.53</v>
@@ -19727,10 +19730,10 @@
         <v>1243.4412710643</v>
       </c>
       <c r="I87" s="246">
-        <v>251.205238935698</v>
+        <v>251.205238935701</v>
       </c>
       <c r="J87" s="246">
-        <v>-7.2759576141834259E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
       <c r="K87" s="246">
         <v>8893</v>
@@ -19776,13 +19779,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="248">
-        <v>9132.6100745705626</v>
+        <v>9132.6100745705589</v>
       </c>
       <c r="C89" s="248">
-        <v>11563.091479925231</v>
+        <v>11563.09147992523</v>
       </c>
       <c r="D89" s="248">
-        <v>20081.789409617697</v>
+        <v>20081.789409617686</v>
       </c>
       <c r="E89" s="248">
         <v>17012.04440932599</v>
@@ -19791,16 +19794,16 @@
         <v>10363.448132168051</v>
       </c>
       <c r="G89" s="248">
-        <v>10948.19066739062</v>
+        <v>10948.1906673906</v>
       </c>
       <c r="H89" s="248">
-        <v>9622.40752581571</v>
+        <v>9622.40752581553</v>
       </c>
       <c r="I89" s="248">
-        <v>3940.0638605881304</v>
+        <v>3940.0638605881477</v>
       </c>
       <c r="J89" s="248">
-        <v>-913.645559401979</v>
+        <v>-913.64555940180435</v>
       </c>
       <c r="K89" s="248">
         <v>91750</v>
@@ -19881,13 +19884,13 @@
         <v>82</v>
       </c>
       <c r="B92" s="248">
-        <v>9132.6100745705626</v>
+        <v>9132.6100745705589</v>
       </c>
       <c r="C92" s="248">
-        <v>11563.091479925231</v>
+        <v>11563.09147992523</v>
       </c>
       <c r="D92" s="248">
-        <v>20081.789409617697</v>
+        <v>20081.789409617686</v>
       </c>
       <c r="E92" s="248">
         <v>17012.04440932599</v>
@@ -19896,16 +19899,16 @@
         <v>10363.448132168051</v>
       </c>
       <c r="G92" s="248">
-        <v>10948.19066739062</v>
+        <v>10948.1906673906</v>
       </c>
       <c r="H92" s="248">
-        <v>9622.40752581571</v>
+        <v>9622.40752581553</v>
       </c>
       <c r="I92" s="248">
-        <v>3940.0638605881304</v>
+        <v>3940.0638605881477</v>
       </c>
       <c r="J92" s="248">
-        <v>-542.645559401979</v>
+        <v>-542.64555940180435</v>
       </c>
       <c r="K92" s="248">
         <v>92121</v>
@@ -19931,31 +19934,31 @@
         <v>90</v>
       </c>
       <c r="B95" s="248">
-        <v>3310.3345393949803</v>
+        <v>3310.3345394057183</v>
       </c>
       <c r="C95" s="248">
-        <v>-7087.5465700655068</v>
+        <v>-7087.5465700438817</v>
       </c>
       <c r="D95" s="248">
-        <v>-10396.681763141334</v>
+        <v>-10396.681763090539</v>
       </c>
       <c r="E95" s="248">
-        <v>1070.9975942344256</v>
+        <v>1070.9975942870565</v>
       </c>
       <c r="F95" s="248">
-        <v>7205.0782928523049</v>
+        <v>7205.078292868111</v>
       </c>
       <c r="G95" s="248">
-        <v>10846.867082893808</v>
+        <v>10846.867082908053</v>
       </c>
       <c r="H95" s="248">
-        <v>3779.4973454870506</v>
+        <v>3779.4973454129604</v>
       </c>
       <c r="I95" s="248">
-        <v>67.228175146670552</v>
+        <v>67.228175058824476</v>
       </c>
       <c r="J95" s="248">
-        <v>3664.2253031976015</v>
+        <v>3664.225303193698</v>
       </c>
       <c r="K95" s="248">
         <v>12460</v>
@@ -20145,31 +20148,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>11942.651713819065</v>
+        <v>11942.651713824034</v>
       </c>
       <c r="C9" s="231">
-        <v>3552.8748696486305</v>
+        <v>3552.87486965691</v>
       </c>
       <c r="D9" s="231">
-        <v>7568.80357031661</v>
+        <v>7568.8035703311234</v>
       </c>
       <c r="E9" s="231">
-        <v>14791.601972601413</v>
+        <v>14791.601972608029</v>
       </c>
       <c r="F9" s="231">
-        <v>16036.257699290904</v>
+        <v>16036.257699293037</v>
       </c>
       <c r="G9" s="231">
-        <v>21227.083186487162</v>
+        <v>21227.083186506261</v>
       </c>
       <c r="H9" s="231">
-        <v>16762.242637104308</v>
+        <v>16762.242637102914</v>
       </c>
       <c r="I9" s="231">
-        <v>9387.1000062250368</v>
+        <v>9387.1000061720879</v>
       </c>
       <c r="J9" s="231">
-        <v>3312.3843445068633</v>
+        <v>3312.3843445056118</v>
       </c>
       <c r="K9" s="231">
         <v>104581</v>
@@ -20195,28 +20198,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>11942.651713819065</v>
+        <v>11942.651713824034</v>
       </c>
       <c r="C11" s="231">
-        <v>15495.526583467696</v>
+        <v>15495.526583480943</v>
       </c>
       <c r="D11" s="231">
-        <v>23064.330153784307</v>
+        <v>23064.330153812065</v>
       </c>
       <c r="E11" s="231">
-        <v>37855.93212638572</v>
+        <v>37855.932126420092</v>
       </c>
       <c r="F11" s="231">
-        <v>53892.189825676622</v>
+        <v>53892.189825713125</v>
       </c>
       <c r="G11" s="231">
-        <v>75119.273012163787</v>
+        <v>75119.27301221939</v>
       </c>
       <c r="H11" s="231">
-        <v>91881.5156492681</v>
+        <v>91881.5156493223</v>
       </c>
       <c r="I11" s="231">
-        <v>101268.61565549314</v>
+        <v>101268.61565549439</v>
       </c>
       <c r="J11" s="231">
         <v>104581</v>
@@ -20230,13 +20233,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="231">
-        <v>9150.9988655210836</v>
+        <v>9150.99886552108</v>
       </c>
       <c r="C12" s="231">
-        <v>11570.348850409784</v>
+        <v>11570.348850409782</v>
       </c>
       <c r="D12" s="231">
-        <v>20087.791169139397</v>
+        <v>20087.791169139386</v>
       </c>
       <c r="E12" s="231">
         <v>17039.238801350737</v>
@@ -20245,16 +20248,16 @@
         <v>10376.580625120851</v>
       </c>
       <c r="G12" s="231">
-        <v>10966.44532729853</v>
+        <v>10966.445327298508</v>
       </c>
       <c r="H12" s="231">
-        <v>9662.47198374294</v>
+        <v>9662.47198374276</v>
       </c>
       <c r="I12" s="231">
-        <v>3962.5600206796616</v>
+        <v>3962.5600206796753</v>
       </c>
       <c r="J12" s="231">
-        <v>-695.43564326298656</v>
+        <v>-695.43564326278283</v>
       </c>
       <c r="K12" s="231">
         <v>92121</v>
@@ -20300,28 +20303,28 @@
         <v>25</v>
       </c>
       <c r="B14" s="231">
-        <v>9150.9988655210836</v>
+        <v>9150.99886552108</v>
       </c>
       <c r="C14" s="231">
-        <v>20721.347715930868</v>
+        <v>20721.34771593086</v>
       </c>
       <c r="D14" s="231">
-        <v>40809.138885070264</v>
+        <v>40809.13888507025</v>
       </c>
       <c r="E14" s="231">
-        <v>57848.377686421</v>
+        <v>57848.377686420987</v>
       </c>
       <c r="F14" s="231">
-        <v>68224.95831154185</v>
+        <v>68224.958311541835</v>
       </c>
       <c r="G14" s="231">
-        <v>79191.403638840377</v>
+        <v>79191.403638840347</v>
       </c>
       <c r="H14" s="231">
-        <v>88853.87562258332</v>
+        <v>88853.8756225831</v>
       </c>
       <c r="I14" s="231">
-        <v>92816.435643262987</v>
+        <v>92816.435643262783</v>
       </c>
       <c r="J14" s="231">
         <v>104581</v>
@@ -20333,31 +20336,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>2791.6528482979811</v>
+        <v>2791.6528483029542</v>
       </c>
       <c r="C15" s="231">
-        <v>-8017.4739807611531</v>
+        <v>-8017.4739807528722</v>
       </c>
       <c r="D15" s="231">
-        <v>-12518.987598822787</v>
+        <v>-12518.987598808262</v>
       </c>
       <c r="E15" s="231">
-        <v>-2247.6368287493242</v>
+        <v>-2247.6368287427085</v>
       </c>
       <c r="F15" s="231">
-        <v>5659.6770741700529</v>
+        <v>5659.6770741721866</v>
       </c>
       <c r="G15" s="231">
-        <v>10260.637859188631</v>
+        <v>10260.637859207753</v>
       </c>
       <c r="H15" s="231">
-        <v>7099.7706533613673</v>
+        <v>7099.770653360154</v>
       </c>
       <c r="I15" s="231">
-        <v>5424.5399855453752</v>
+        <v>5424.5399854924126</v>
       </c>
       <c r="J15" s="231">
-        <v>-8452.18001223015</v>
+        <v>-8452.1800122316054</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -20366,31 +20369,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.026693690520247282</v>
+        <v>0.026693690520294834</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.0766628161975995</v>
+        <v>-0.076662816197520314</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.11970613781492609</v>
+        <v>-0.11970613781478721</v>
       </c>
       <c r="E16" s="236">
-        <v>-0.021491827662284014</v>
+        <v>-0.021491827662220752</v>
       </c>
       <c r="F16" s="237">
-        <v>0.0541176415808804</v>
+        <v>0.0541176415809008</v>
       </c>
       <c r="G16" s="236">
-        <v>0.098111873659542659</v>
+        <v>0.0981118736597255</v>
       </c>
       <c r="H16" s="236">
-        <v>0.067887767886722891</v>
+        <v>0.0678877678867113</v>
       </c>
       <c r="I16" s="236">
-        <v>0.051869268658220662</v>
+        <v>0.05186926865771424</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.080819460630804349</v>
+        <v>-0.080819460630818268</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -20399,28 +20402,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>2791.6528482979811</v>
+        <v>2791.6528483029542</v>
       </c>
       <c r="C17" s="231">
-        <v>-5225.821132463172</v>
+        <v>-5225.8211324499171</v>
       </c>
       <c r="D17" s="231">
-        <v>-17744.808731285957</v>
+        <v>-17744.808731258185</v>
       </c>
       <c r="E17" s="231">
-        <v>-19992.445560035281</v>
+        <v>-19992.445560000895</v>
       </c>
       <c r="F17" s="231">
-        <v>-14332.768485865228</v>
+        <v>-14332.76848582871</v>
       </c>
       <c r="G17" s="231">
-        <v>-4072.1306266765896</v>
+        <v>-4072.1306266209576</v>
       </c>
       <c r="H17" s="231">
-        <v>3027.6400266847777</v>
+        <v>3027.6400267392019</v>
       </c>
       <c r="I17" s="231">
-        <v>8452.18001223015</v>
+        <v>8452.1800122316054</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -20432,28 +20435,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.026693690520247282</v>
+        <v>0.026693690520294834</v>
       </c>
       <c r="C18" s="236">
-        <v>-0.049969125677352212</v>
+        <v>-0.049969125677225473</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.16967526349227832</v>
+        <v>-0.16967526349201276</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.19116709115456232</v>
+        <v>-0.1911670911542335</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.13704944957368193</v>
+        <v>-0.13704944957333273</v>
       </c>
       <c r="G18" s="236">
-        <v>-0.038937575914139183</v>
+        <v>-0.038937575913607227</v>
       </c>
       <c r="H18" s="236">
-        <v>0.028950191972583719</v>
+        <v>0.028950191973104122</v>
       </c>
       <c r="I18" s="236">
-        <v>0.080819460630804349</v>
+        <v>0.080819460630818268</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -20465,31 +20468,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.3050653692916852</v>
+        <v>1.3050653692922287</v>
       </c>
       <c r="C19" s="236">
-        <v>0.30706722118605778</v>
+        <v>0.30706722118677343</v>
       </c>
       <c r="D19" s="236">
-        <v>0.37678625323148823</v>
+        <v>0.376786253232211</v>
       </c>
       <c r="E19" s="236">
-        <v>0.86809053767289479</v>
+        <v>0.868090537673283</v>
       </c>
       <c r="F19" s="237">
-        <v>1.5454279476678898</v>
+        <v>1.5454279476680952</v>
       </c>
       <c r="G19" s="236">
-        <v>1.9356393574175812</v>
+        <v>1.9356393574193265</v>
       </c>
       <c r="H19" s="236">
-        <v>1.734777877266469</v>
+        <v>1.7347778772663574</v>
       </c>
       <c r="I19" s="236">
-        <v>2.3689483458259271</v>
+        <v>2.3689483458125569</v>
       </c>
       <c r="J19" s="236">
-        <v>0.28155605631159786</v>
+        <v>0.28155605631148656</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -20498,28 +20501,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.3050653692916852</v>
+        <v>1.3050653692922287</v>
       </c>
       <c r="C20" s="236">
-        <v>0.74780495920902457</v>
+        <v>0.74780495920966417</v>
       </c>
       <c r="D20" s="236">
-        <v>0.56517561467640354</v>
+        <v>0.56517561467708388</v>
       </c>
       <c r="E20" s="236">
-        <v>0.65439920081409308</v>
+        <v>0.65439920081468739</v>
       </c>
       <c r="F20" s="237">
-        <v>0.7899189850667816</v>
+        <v>0.78991898506731673</v>
       </c>
       <c r="G20" s="236">
-        <v>0.94857862798785686</v>
+        <v>0.94857862798855952</v>
       </c>
       <c r="H20" s="236">
-        <v>1.0340743721697072</v>
+        <v>1.0340743721703198</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0910633979171085</v>
+        <v>1.0910633979171245</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -20562,28 +20565,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.099049520976917924</v>
+        <v>-0.0990495209768734</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.11297374020872214</v>
+        <v>-0.11297374020867679</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.11475858979764077</v>
+        <v>-0.11475858979787076</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.13553029511872952</v>
+        <v>-0.13553029511793446</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.16967526349227832</v>
+        <v>-0.16967526349201276</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.18685469719715037</v>
+        <v>-0.18685469719701306</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.19368149608888582</v>
+        <v>-0.19368149608885293</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.157180957395564</v>
+        <v>-0.1571809573952154</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -20593,28 +20596,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.73912490765977656</v>
+        <v>0.73912490765989358</v>
       </c>
       <c r="C24" s="236">
-        <v>0.70851394813999735</v>
+        <v>0.70851394814011426</v>
       </c>
       <c r="D24" s="236">
-        <v>0.70503793335831855</v>
+        <v>0.70503793335772724</v>
       </c>
       <c r="E24" s="236">
-        <v>0.65240887904835321</v>
+        <v>0.65240887905039213</v>
       </c>
       <c r="F24" s="236">
-        <v>0.56517561467640354</v>
+        <v>0.56517561467708388</v>
       </c>
       <c r="G24" s="236">
-        <v>0.521339860232343</v>
+        <v>0.52133986023269474</v>
       </c>
       <c r="H24" s="236">
-        <v>0.50397946519859671</v>
+        <v>0.50397946519868075</v>
       </c>
       <c r="I24" s="236">
-        <v>0.59729502253327771</v>
+        <v>0.59729502253417055</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -20950,31 +20953,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>16.8736904502409</v>
+        <v>16.873690450253402</v>
       </c>
       <c r="C50" s="246">
-        <v>21.0529029724171</v>
+        <v>21.052902972437202</v>
       </c>
       <c r="D50" s="246">
-        <v>48.2415839379913</v>
+        <v>48.2415839380348</v>
       </c>
       <c r="E50" s="246">
-        <v>103.60501589276801</v>
+        <v>103.605015892814</v>
       </c>
       <c r="F50" s="246">
-        <v>98.9267976296017</v>
+        <v>98.926797629648192</v>
       </c>
       <c r="G50" s="246">
-        <v>209.49207215843398</v>
+        <v>209.492072158652</v>
       </c>
       <c r="H50" s="246">
-        <v>461.180489883787</v>
+        <v>461.180489884093</v>
       </c>
       <c r="I50" s="246">
-        <v>563.67314941575489</v>
+        <v>563.67314941506709</v>
       </c>
       <c r="J50" s="246">
-        <v>18.954297659005078</v>
+        <v>18.954297659000531</v>
       </c>
       <c r="K50" s="246">
         <v>1542</v>
@@ -20985,31 +20988,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>16.8736904502409</v>
+        <v>16.873690450253402</v>
       </c>
       <c r="C51" s="248">
-        <v>21.0529029724171</v>
+        <v>21.052902972437202</v>
       </c>
       <c r="D51" s="248">
-        <v>48.2415839379913</v>
+        <v>48.2415839380348</v>
       </c>
       <c r="E51" s="248">
-        <v>103.60501589276801</v>
+        <v>103.605015892814</v>
       </c>
       <c r="F51" s="248">
-        <v>98.9267976296017</v>
+        <v>98.926797629648192</v>
       </c>
       <c r="G51" s="248">
-        <v>209.49207215843398</v>
+        <v>209.492072158652</v>
       </c>
       <c r="H51" s="248">
-        <v>461.180489883787</v>
+        <v>461.180489884093</v>
       </c>
       <c r="I51" s="248">
-        <v>563.67314941575489</v>
+        <v>563.67314941506709</v>
       </c>
       <c r="J51" s="248">
-        <v>18.954297659005078</v>
+        <v>18.954297659000531</v>
       </c>
       <c r="K51" s="248">
         <v>1542</v>
@@ -21090,31 +21093,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>16.8736904502409</v>
+        <v>16.873690450253402</v>
       </c>
       <c r="C54" s="248">
-        <v>21.0529029724171</v>
+        <v>21.052902972437202</v>
       </c>
       <c r="D54" s="248">
-        <v>48.2415839379913</v>
+        <v>48.2415839380348</v>
       </c>
       <c r="E54" s="248">
-        <v>103.60501589276801</v>
+        <v>103.605015892814</v>
       </c>
       <c r="F54" s="248">
-        <v>98.9267976296017</v>
+        <v>98.926797629648192</v>
       </c>
       <c r="G54" s="248">
-        <v>422.492072158434</v>
+        <v>422.49207215865204</v>
       </c>
       <c r="H54" s="248">
-        <v>556.180489883787</v>
+        <v>556.18048988409294</v>
       </c>
       <c r="I54" s="248">
-        <v>563.67314941575489</v>
+        <v>563.67314941506709</v>
       </c>
       <c r="J54" s="248">
-        <v>18.954297659005078</v>
+        <v>18.954297659000076</v>
       </c>
       <c r="K54" s="248">
         <v>1850</v>
@@ -21125,31 +21128,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>16.8736904502409</v>
+        <v>16.873690450253402</v>
       </c>
       <c r="C55" s="248">
-        <v>21.0529029724171</v>
+        <v>21.052902972437202</v>
       </c>
       <c r="D55" s="248">
-        <v>48.2415839379913</v>
+        <v>48.2415839380348</v>
       </c>
       <c r="E55" s="248">
-        <v>103.60501589276801</v>
+        <v>103.605015892814</v>
       </c>
       <c r="F55" s="248">
-        <v>98.9267976296017</v>
+        <v>98.926797629648192</v>
       </c>
       <c r="G55" s="248">
-        <v>3191.4920721584426</v>
+        <v>3191.4920721586609</v>
       </c>
       <c r="H55" s="248">
-        <v>1791.180489883787</v>
+        <v>1791.1804898840931</v>
       </c>
       <c r="I55" s="248">
-        <v>563.67314941575489</v>
+        <v>563.67314941506709</v>
       </c>
       <c r="J55" s="248">
-        <v>18.954297658996438</v>
+        <v>18.954297658990981</v>
       </c>
       <c r="K55" s="248">
         <v>5854</v>
@@ -21265,7 +21268,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="246">
-        <v>380.05219228638</v>
+        <v>380.052192286381</v>
       </c>
       <c r="C59" s="246">
         <v>382.565733824596</v>
@@ -21289,7 +21292,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="246">
-        <v>18.42909842937479</v>
+        <v>18.42909842937388</v>
       </c>
       <c r="K59" s="246">
         <v>4751</v>
@@ -21309,22 +21312,22 @@
         <v>317.223205896817</v>
       </c>
       <c r="E60" s="246">
-        <v>479.617519724639</v>
+        <v>479.617519724749</v>
       </c>
       <c r="F60" s="246">
-        <v>338.50559752073696</v>
+        <v>338.505597520626</v>
       </c>
       <c r="G60" s="246">
         <v>402.073063152025</v>
       </c>
       <c r="H60" s="246">
-        <v>295.369609720051</v>
+        <v>295.36960972005295</v>
       </c>
       <c r="I60" s="246">
         <v>0</v>
       </c>
       <c r="J60" s="246">
-        <v>35.236017710667966</v>
+        <v>35.236017710667056</v>
       </c>
       <c r="K60" s="246">
         <v>2246</v>
@@ -21335,31 +21338,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>791.717205617747</v>
+        <v>791.717205622704</v>
       </c>
       <c r="C61" s="246">
-        <v>1358.00563044329</v>
+        <v>1358.00563045155</v>
       </c>
       <c r="D61" s="246">
-        <v>3319.78417197406</v>
+        <v>3319.78417198853</v>
       </c>
       <c r="E61" s="246">
-        <v>6787.07336872402</v>
+        <v>6787.07336873045</v>
       </c>
       <c r="F61" s="246">
-        <v>5279.91979861014</v>
+        <v>5279.91979861237</v>
       </c>
       <c r="G61" s="246">
-        <v>9644.86205786493</v>
+        <v>9644.86205788381</v>
       </c>
       <c r="H61" s="246">
-        <v>14594.2883574396</v>
+        <v>14594.2883574379</v>
       </c>
       <c r="I61" s="246">
-        <v>8823.4268568092812</v>
+        <v>8823.42685675702</v>
       </c>
       <c r="J61" s="246">
-        <v>699.92255251693132</v>
+        <v>699.9225525156653</v>
       </c>
       <c r="K61" s="246">
         <v>51299</v>
@@ -21379,16 +21382,16 @@
         <v>87.4270545192028</v>
       </c>
       <c r="E62" s="246">
-        <v>132.183100939248</v>
+        <v>132.183100939278</v>
       </c>
       <c r="F62" s="246">
-        <v>93.292504392402307</v>
+        <v>93.29250439237191</v>
       </c>
       <c r="G62" s="246">
         <v>110.811765846439</v>
       </c>
       <c r="H62" s="246">
-        <v>81.404180060868811</v>
+        <v>81.4041800608692</v>
       </c>
       <c r="I62" s="246">
         <v>0</v>
@@ -21405,31 +21408,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>846.07421068022552</v>
+        <v>846.07421068518249</v>
       </c>
       <c r="C63" s="248">
-        <v>1407.8189354895665</v>
+        <v>1407.8189354978265</v>
       </c>
       <c r="D63" s="248">
-        <v>3407.2112264932625</v>
+        <v>3407.2112265077326</v>
       </c>
       <c r="E63" s="248">
-        <v>6919.256469663268</v>
+        <v>6919.2564696697273</v>
       </c>
       <c r="F63" s="248">
-        <v>5373.2123030025423</v>
+        <v>5373.2123030047414</v>
       </c>
       <c r="G63" s="248">
-        <v>9755.67382371137</v>
+        <v>9755.6738237302488</v>
       </c>
       <c r="H63" s="248">
-        <v>14675.692537500469</v>
+        <v>14675.692537498768</v>
       </c>
       <c r="I63" s="248">
-        <v>8823.4268568092812</v>
+        <v>8823.42685675702</v>
       </c>
       <c r="J63" s="248">
-        <v>709.63363665001816</v>
+        <v>709.63363664875942</v>
       </c>
       <c r="K63" s="248">
         <v>51918</v>
@@ -21440,31 +21443,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>1043.3049592591055</v>
+        <v>1043.3049592640625</v>
       </c>
       <c r="C64" s="248">
-        <v>1588.5631731857495</v>
+        <v>1588.5631731940093</v>
       </c>
       <c r="D64" s="248">
-        <v>3724.43443239008</v>
+        <v>3724.4344324045496</v>
       </c>
       <c r="E64" s="248">
-        <v>7398.8739893879074</v>
+        <v>7398.8739893944767</v>
       </c>
       <c r="F64" s="248">
-        <v>5711.7179005232792</v>
+        <v>5711.7179005253674</v>
       </c>
       <c r="G64" s="248">
-        <v>10157.746886863393</v>
+        <v>10157.746886882274</v>
       </c>
       <c r="H64" s="248">
-        <v>14971.06214722052</v>
+        <v>14971.062147218821</v>
       </c>
       <c r="I64" s="248">
-        <v>8823.4268568092812</v>
+        <v>8823.42685675702</v>
       </c>
       <c r="J64" s="248">
-        <v>744.8696543606784</v>
+        <v>744.86965435941966</v>
       </c>
       <c r="K64" s="248">
         <v>54164</v>
@@ -21580,31 +21583,31 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>2098.2512149244476</v>
+        <v>2098.2512149294057</v>
       </c>
       <c r="C68" s="248">
-        <v>2650.3834325787325</v>
+        <v>2650.3834325869921</v>
       </c>
       <c r="D68" s="248">
-        <v>5868.9947333565</v>
+        <v>5868.99473337097</v>
       </c>
       <c r="E68" s="248">
-        <v>11773.795914336633</v>
+        <v>11773.7959143432</v>
       </c>
       <c r="F68" s="248">
-        <v>13449.181151862367</v>
+        <v>13449.181151864455</v>
       </c>
       <c r="G68" s="248">
-        <v>10157.746886863393</v>
+        <v>10157.746886882274</v>
       </c>
       <c r="H68" s="248">
-        <v>14971.06214722052</v>
+        <v>14971.062147218821</v>
       </c>
       <c r="I68" s="248">
-        <v>8823.4268568092812</v>
+        <v>8823.42685675702</v>
       </c>
       <c r="J68" s="248">
-        <v>844.157662048121</v>
+        <v>844.157662046855</v>
       </c>
       <c r="K68" s="248">
         <v>70637</v>
@@ -21720,7 +21723,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>282.213076872188</v>
+        <v>282.213076872189</v>
       </c>
       <c r="C72" s="246">
         <v>271.503762058543</v>
@@ -21744,7 +21747,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>119.949360740864</v>
+        <v>119.94936074086309</v>
       </c>
       <c r="K72" s="246">
         <v>3535</v>
@@ -21755,7 +21758,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="248">
-        <v>723.91728237221707</v>
+        <v>723.9172823722181</v>
       </c>
       <c r="C73" s="248">
         <v>682.465883810886</v>
@@ -21825,31 +21828,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>3019.7780233688218</v>
+        <v>3019.7780233737808</v>
       </c>
       <c r="C75" s="248">
-        <v>3531.8219666762134</v>
+        <v>3531.8219666844734</v>
       </c>
       <c r="D75" s="248">
-        <v>7520.5619863786187</v>
+        <v>7520.5619863930888</v>
       </c>
       <c r="E75" s="248">
-        <v>14687.996956708645</v>
+        <v>14687.996956715213</v>
       </c>
       <c r="F75" s="248">
-        <v>15937.3309016613</v>
+        <v>15937.330901663388</v>
       </c>
       <c r="G75" s="248">
-        <v>18035.591114328719</v>
+        <v>18035.5911143476</v>
       </c>
       <c r="H75" s="248">
-        <v>14971.06214722052</v>
+        <v>14971.062147218821</v>
       </c>
       <c r="I75" s="248">
-        <v>8823.4268568092812</v>
+        <v>8823.42685675702</v>
       </c>
       <c r="J75" s="248">
-        <v>1110.4300468478759</v>
+        <v>1110.43004684661</v>
       </c>
       <c r="K75" s="248">
         <v>87638</v>
@@ -22035,31 +22038,31 @@
         <v>44</v>
       </c>
       <c r="B81" s="248">
-        <v>11942.651713819065</v>
+        <v>11942.651713824034</v>
       </c>
       <c r="C81" s="248">
-        <v>3552.8748696486305</v>
+        <v>3552.87486965691</v>
       </c>
       <c r="D81" s="248">
-        <v>7568.80357031661</v>
+        <v>7568.8035703311234</v>
       </c>
       <c r="E81" s="248">
-        <v>14791.601972601413</v>
+        <v>14791.601972608029</v>
       </c>
       <c r="F81" s="248">
-        <v>16036.257699290904</v>
+        <v>16036.257699293037</v>
       </c>
       <c r="G81" s="248">
-        <v>21227.083186487162</v>
+        <v>21227.083186506261</v>
       </c>
       <c r="H81" s="248">
-        <v>16762.242637104308</v>
+        <v>16762.242637102914</v>
       </c>
       <c r="I81" s="248">
-        <v>9387.1000062250368</v>
+        <v>9387.1000061720879</v>
       </c>
       <c r="J81" s="248">
-        <v>3312.3843445068633</v>
+        <v>3312.3843445056118</v>
       </c>
       <c r="K81" s="248">
         <v>104581</v>
@@ -22100,16 +22103,16 @@
         <v>3542.27562512085</v>
       </c>
       <c r="G84" s="246">
-        <v>2458.02805729853</v>
+        <v>2458.02805729851</v>
       </c>
       <c r="H84" s="246">
-        <v>1385.28311939804</v>
+        <v>1385.28311939786</v>
       </c>
       <c r="I84" s="246">
-        <v>300.961155024564</v>
+        <v>300.961155024575</v>
       </c>
       <c r="J84" s="246">
-        <v>-1066.4356432629647</v>
+        <v>-1066.4356432627828</v>
       </c>
       <c r="K84" s="246">
         <v>40901</v>
@@ -22190,13 +22193,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="246">
-        <v>758.650987399222</v>
+        <v>758.65098739921893</v>
       </c>
       <c r="C87" s="246">
-        <v>693.931396633247</v>
+        <v>693.93139663324507</v>
       </c>
       <c r="D87" s="246">
-        <v>1215.3176159675402</v>
+        <v>1215.31761596753</v>
       </c>
       <c r="E87" s="246">
         <v>1867.53</v>
@@ -22211,10 +22214,10 @@
         <v>1243.4412710643</v>
       </c>
       <c r="I87" s="246">
-        <v>251.205238935698</v>
+        <v>251.205238935701</v>
       </c>
       <c r="J87" s="246">
-        <v>-7.2759576141834259E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
       <c r="K87" s="246">
         <v>8893</v>
@@ -22260,13 +22263,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="248">
-        <v>9150.9988655210836</v>
+        <v>9150.99886552108</v>
       </c>
       <c r="C89" s="248">
-        <v>11570.348850409784</v>
+        <v>11570.348850409782</v>
       </c>
       <c r="D89" s="248">
-        <v>20087.791169139397</v>
+        <v>20087.791169139386</v>
       </c>
       <c r="E89" s="248">
         <v>17039.238801350737</v>
@@ -22275,16 +22278,16 @@
         <v>10376.580625120851</v>
       </c>
       <c r="G89" s="248">
-        <v>10966.44532729853</v>
+        <v>10966.445327298508</v>
       </c>
       <c r="H89" s="248">
-        <v>9662.47198374294</v>
+        <v>9662.47198374276</v>
       </c>
       <c r="I89" s="248">
-        <v>3962.5600206796616</v>
+        <v>3962.5600206796753</v>
       </c>
       <c r="J89" s="248">
-        <v>-1066.4356432629866</v>
+        <v>-1066.4356432627828</v>
       </c>
       <c r="K89" s="248">
         <v>91750</v>
@@ -22365,13 +22368,13 @@
         <v>82</v>
       </c>
       <c r="B92" s="248">
-        <v>9150.9988655210836</v>
+        <v>9150.99886552108</v>
       </c>
       <c r="C92" s="248">
-        <v>11570.348850409784</v>
+        <v>11570.348850409782</v>
       </c>
       <c r="D92" s="248">
-        <v>20087.791169139397</v>
+        <v>20087.791169139386</v>
       </c>
       <c r="E92" s="248">
         <v>17039.238801350737</v>
@@ -22380,16 +22383,16 @@
         <v>10376.580625120851</v>
       </c>
       <c r="G92" s="248">
-        <v>10966.44532729853</v>
+        <v>10966.445327298508</v>
       </c>
       <c r="H92" s="248">
-        <v>9662.47198374294</v>
+        <v>9662.47198374276</v>
       </c>
       <c r="I92" s="248">
-        <v>3962.5600206796616</v>
+        <v>3962.5600206796753</v>
       </c>
       <c r="J92" s="248">
-        <v>-695.43564326298656</v>
+        <v>-695.43564326278283</v>
       </c>
       <c r="K92" s="248">
         <v>92121</v>
@@ -22415,31 +22418,31 @@
         <v>90</v>
       </c>
       <c r="B95" s="248">
-        <v>2791.6528482979797</v>
+        <v>2791.6528483029529</v>
       </c>
       <c r="C95" s="248">
-        <v>-8017.4739807611541</v>
+        <v>-8017.4739807528713</v>
       </c>
       <c r="D95" s="248">
-        <v>-12518.987598822787</v>
+        <v>-12518.987598808262</v>
       </c>
       <c r="E95" s="248">
-        <v>-2247.6368287493251</v>
+        <v>-2247.6368287427108</v>
       </c>
       <c r="F95" s="248">
-        <v>5659.6770741700529</v>
+        <v>5659.6770741721875</v>
       </c>
       <c r="G95" s="248">
-        <v>10260.637859188631</v>
+        <v>10260.637859207751</v>
       </c>
       <c r="H95" s="248">
-        <v>7099.7706533613673</v>
+        <v>7099.770653360154</v>
       </c>
       <c r="I95" s="248">
-        <v>5424.5399855453743</v>
+        <v>5424.5399854924117</v>
       </c>
       <c r="J95" s="248">
-        <v>4007.8199877698589</v>
+        <v>4007.8199877683874</v>
       </c>
       <c r="K95" s="248">
         <v>12460</v>
@@ -22629,31 +22632,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>11692.741089056388</v>
+        <v>11692.741089058838</v>
       </c>
       <c r="C9" s="231">
-        <v>3094.6885146159689</v>
+        <v>3094.6885146201375</v>
       </c>
       <c r="D9" s="231">
-        <v>6496.4345252245466</v>
+        <v>6496.4345252322855</v>
       </c>
       <c r="E9" s="231">
-        <v>12857.643277070336</v>
+        <v>12857.643277075013</v>
       </c>
       <c r="F9" s="231">
-        <v>14832.494728366926</v>
+        <v>14832.494728369222</v>
       </c>
       <c r="G9" s="231">
-        <v>19772.644971482634</v>
+        <v>19772.644971500278</v>
       </c>
       <c r="H9" s="231">
-        <v>17532.093938904294</v>
+        <v>17532.093938914866</v>
       </c>
       <c r="I9" s="231">
-        <v>14856.811942927741</v>
+        <v>14856.81194287898</v>
       </c>
       <c r="J9" s="231">
-        <v>3445.447012351171</v>
+        <v>3445.4470123503706</v>
       </c>
       <c r="K9" s="231">
         <v>104581</v>
@@ -22679,28 +22682,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>11692.741089056388</v>
+        <v>11692.741089058838</v>
       </c>
       <c r="C11" s="231">
-        <v>14787.429603672357</v>
+        <v>14787.429603678975</v>
       </c>
       <c r="D11" s="231">
-        <v>21283.864128896905</v>
+        <v>21283.86412891126</v>
       </c>
       <c r="E11" s="231">
-        <v>34141.507405967241</v>
+        <v>34141.507405986275</v>
       </c>
       <c r="F11" s="231">
-        <v>48974.002134334165</v>
+        <v>48974.0021343555</v>
       </c>
       <c r="G11" s="231">
-        <v>68746.6471058168</v>
+        <v>68746.64710585578</v>
       </c>
       <c r="H11" s="231">
-        <v>86278.741044721086</v>
+        <v>86278.74104477065</v>
       </c>
       <c r="I11" s="231">
-        <v>101135.55298764883</v>
+        <v>101135.55298764963</v>
       </c>
       <c r="J11" s="231">
         <v>104581</v>
@@ -22714,13 +22717,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="231">
-        <v>9155.1662034873734</v>
+        <v>9155.16620348737</v>
       </c>
       <c r="C12" s="231">
-        <v>11575.825423205923</v>
+        <v>11575.825423205921</v>
       </c>
       <c r="D12" s="231">
-        <v>20094.323589778793</v>
+        <v>20094.323589778785</v>
       </c>
       <c r="E12" s="231">
         <v>17072.330600364978</v>
@@ -22729,16 +22732,16 @@
         <v>10393.474254214591</v>
       </c>
       <c r="G12" s="231">
-        <v>10988.036922281639</v>
+        <v>10988.036922281619</v>
       </c>
       <c r="H12" s="231">
-        <v>9706.0596748807711</v>
+        <v>9706.059674880591</v>
       </c>
       <c r="I12" s="231">
-        <v>3987.8007797983564</v>
+        <v>3987.800779798371</v>
       </c>
       <c r="J12" s="231">
-        <v>-852.017448012426</v>
+        <v>-852.01744801223686</v>
       </c>
       <c r="K12" s="231">
         <v>92121</v>
@@ -22784,28 +22787,28 @@
         <v>25</v>
       </c>
       <c r="B14" s="231">
-        <v>9155.1662034873734</v>
+        <v>9155.16620348737</v>
       </c>
       <c r="C14" s="231">
-        <v>20730.991626693296</v>
+        <v>20730.991626693292</v>
       </c>
       <c r="D14" s="231">
-        <v>40825.315216472089</v>
+        <v>40825.315216472081</v>
       </c>
       <c r="E14" s="231">
-        <v>57897.645816837066</v>
+        <v>57897.645816837059</v>
       </c>
       <c r="F14" s="231">
-        <v>68291.120071051657</v>
+        <v>68291.120071051642</v>
       </c>
       <c r="G14" s="231">
-        <v>79279.1569933333</v>
+        <v>79279.156993333265</v>
       </c>
       <c r="H14" s="231">
-        <v>88985.216668214067</v>
+        <v>88985.216668213863</v>
       </c>
       <c r="I14" s="231">
-        <v>92973.017448012426</v>
+        <v>92973.017448012237</v>
       </c>
       <c r="J14" s="231">
         <v>104581</v>
@@ -22817,31 +22820,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>2537.5748855690144</v>
+        <v>2537.5748855714683</v>
       </c>
       <c r="C15" s="231">
-        <v>-8481.1369085899532</v>
+        <v>-8481.1369085857841</v>
       </c>
       <c r="D15" s="231">
-        <v>-13597.889064554245</v>
+        <v>-13597.8890645465</v>
       </c>
       <c r="E15" s="231">
-        <v>-4214.6873232946418</v>
+        <v>-4214.6873232899652</v>
       </c>
       <c r="F15" s="231">
-        <v>4439.0204741523357</v>
+        <v>4439.0204741546313</v>
       </c>
       <c r="G15" s="231">
-        <v>8784.6080492009951</v>
+        <v>8784.60804921866</v>
       </c>
       <c r="H15" s="231">
-        <v>7826.0342640235231</v>
+        <v>7826.0342640342751</v>
       </c>
       <c r="I15" s="231">
-        <v>10869.011163129384</v>
+        <v>10869.01116308061</v>
       </c>
       <c r="J15" s="231">
-        <v>-8162.535539636403</v>
+        <v>-8162.5355396373925</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -22850,31 +22853,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.024264205597278803</v>
+        <v>0.024264205597302264</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.08109634549860828</v>
+        <v>-0.081096345498568409</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.13002255729582091</v>
+        <v>-0.13002255729574683</v>
       </c>
       <c r="E16" s="236">
-        <v>-0.040300698246284149</v>
+        <v>-0.040300698246239428</v>
       </c>
       <c r="F16" s="237">
-        <v>0.042445764279862838</v>
+        <v>0.042445764279884786</v>
       </c>
       <c r="G16" s="236">
-        <v>0.083998126325058986</v>
+        <v>0.0839981263252279</v>
       </c>
       <c r="H16" s="236">
-        <v>0.0748322760733166</v>
+        <v>0.074832276073419413</v>
       </c>
       <c r="I16" s="236">
-        <v>0.1039291187034871</v>
+        <v>0.1039291187030207</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.078049889938290928</v>
+        <v>-0.078049889938300379</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -22883,28 +22886,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>2537.5748855690144</v>
+        <v>2537.5748855714683</v>
       </c>
       <c r="C17" s="231">
-        <v>-5943.5620230209388</v>
+        <v>-5943.5620230143177</v>
       </c>
       <c r="D17" s="231">
-        <v>-19541.451087575184</v>
+        <v>-19541.451087560821</v>
       </c>
       <c r="E17" s="231">
-        <v>-23756.138410869826</v>
+        <v>-23756.138410850785</v>
       </c>
       <c r="F17" s="231">
-        <v>-19317.117936717492</v>
+        <v>-19317.117936696144</v>
       </c>
       <c r="G17" s="231">
-        <v>-10532.509887516499</v>
+        <v>-10532.509887477485</v>
       </c>
       <c r="H17" s="231">
-        <v>-2706.475623492981</v>
+        <v>-2706.4756234432134</v>
       </c>
       <c r="I17" s="231">
-        <v>8162.535539636403</v>
+        <v>8162.5355396373925</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -22916,28 +22919,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.024264205597278803</v>
+        <v>0.024264205597302264</v>
       </c>
       <c r="C18" s="236">
-        <v>-0.056832139901329487</v>
+        <v>-0.056832139901266177</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.18685469719715037</v>
+        <v>-0.18685469719701306</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.22715539544343455</v>
+        <v>-0.22715539544325247</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.1847096311635717</v>
+        <v>-0.18470963116336758</v>
       </c>
       <c r="G18" s="236">
-        <v>-0.10071150483851271</v>
+        <v>-0.10071150483813968</v>
       </c>
       <c r="H18" s="236">
-        <v>-0.025879228765196171</v>
+        <v>-0.025879228764720298</v>
       </c>
       <c r="I18" s="236">
-        <v>0.078049889938290928</v>
+        <v>0.078049889938300379</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -22949,31 +22952,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.2771740926562758</v>
+        <v>1.277174092656544</v>
       </c>
       <c r="C19" s="236">
-        <v>0.26734063459630986</v>
+        <v>0.26734063459667007</v>
       </c>
       <c r="D19" s="236">
-        <v>0.32329699958295849</v>
+        <v>0.32329699958334374</v>
       </c>
       <c r="E19" s="236">
-        <v>0.75312759447122357</v>
+        <v>0.75312759447149746</v>
       </c>
       <c r="F19" s="237">
-        <v>1.4270968846006713</v>
+        <v>1.427096884600892</v>
       </c>
       <c r="G19" s="236">
-        <v>1.7994701975734617</v>
+        <v>1.7994701975750709</v>
       </c>
       <c r="H19" s="236">
-        <v>1.806303950951101</v>
+        <v>1.8063039509522236</v>
       </c>
       <c r="I19" s="236">
-        <v>3.7255652333963827</v>
+        <v>3.7255652333841414</v>
       </c>
       <c r="J19" s="236">
-        <v>0.29681703921593378</v>
+        <v>0.29681703921586</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -22982,28 +22985,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.2771740926562758</v>
+        <v>1.277174092656544</v>
       </c>
       <c r="C20" s="236">
-        <v>0.713300640410853</v>
+        <v>0.71330064041117225</v>
       </c>
       <c r="D20" s="236">
-        <v>0.521339860232343</v>
+        <v>0.52133986023269474</v>
       </c>
       <c r="E20" s="236">
-        <v>0.5896873167170924</v>
+        <v>0.58968731671742125</v>
       </c>
       <c r="F20" s="237">
-        <v>0.71713572838431228</v>
+        <v>0.71713572838462492</v>
       </c>
       <c r="G20" s="236">
-        <v>0.86714654535993374</v>
+        <v>0.86714654536042568</v>
       </c>
       <c r="H20" s="236">
-        <v>0.96958510947291143</v>
+        <v>0.96958510947347065</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0877946716551459</v>
+        <v>1.0877946716551568</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -23046,28 +23049,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.099049520976917924</v>
+        <v>-0.0990495209768734</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.11297374020872214</v>
+        <v>-0.11297374020867679</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.11475858979764077</v>
+        <v>-0.11475858979787076</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.13553029511872952</v>
+        <v>-0.13553029511793446</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.16967526349227832</v>
+        <v>-0.16967526349201276</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.18685469719715037</v>
+        <v>-0.18685469719701306</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.19368149608888582</v>
+        <v>-0.19368149608885293</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.157180957395564</v>
+        <v>-0.1571809573952154</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -23077,28 +23080,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.73912490765977656</v>
+        <v>0.73912490765989358</v>
       </c>
       <c r="C24" s="236">
-        <v>0.70851394813999735</v>
+        <v>0.70851394814011426</v>
       </c>
       <c r="D24" s="236">
-        <v>0.70503793335831855</v>
+        <v>0.70503793335772724</v>
       </c>
       <c r="E24" s="236">
-        <v>0.65240887904835321</v>
+        <v>0.65240887905039213</v>
       </c>
       <c r="F24" s="236">
-        <v>0.56517561467640354</v>
+        <v>0.56517561467708388</v>
       </c>
       <c r="G24" s="236">
-        <v>0.521339860232343</v>
+        <v>0.52133986023269474</v>
       </c>
       <c r="H24" s="236">
-        <v>0.50397946519859671</v>
+        <v>0.50397946519868075</v>
       </c>
       <c r="I24" s="236">
-        <v>0.59729502253327771</v>
+        <v>0.59729502253417055</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -23434,31 +23437,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>16.212953284797102</v>
+        <v>16.2129532848053</v>
       </c>
       <c r="C50" s="246">
-        <v>19.9182754220259</v>
+        <v>19.9182754220388</v>
       </c>
       <c r="D50" s="246">
-        <v>45.4511833739381</v>
+        <v>45.4511833739661</v>
       </c>
       <c r="E50" s="246">
-        <v>97.7719576769939</v>
+        <v>97.771957677021589</v>
       </c>
       <c r="F50" s="246">
-        <v>94.1502882618718</v>
+        <v>94.1502882618969</v>
       </c>
       <c r="G50" s="246">
-        <v>199.944913169374</v>
+        <v>199.944913169459</v>
       </c>
       <c r="H50" s="246">
-        <v>452.066176383317</v>
+        <v>452.066176383592</v>
       </c>
       <c r="I50" s="246">
-        <v>597.258803984341</v>
+        <v>597.258803983881</v>
       </c>
       <c r="J50" s="246">
-        <v>19.225448443341065</v>
+        <v>19.225448443339246</v>
       </c>
       <c r="K50" s="246">
         <v>1542</v>
@@ -23469,31 +23472,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>16.212953284797102</v>
+        <v>16.2129532848053</v>
       </c>
       <c r="C51" s="248">
-        <v>19.9182754220259</v>
+        <v>19.9182754220388</v>
       </c>
       <c r="D51" s="248">
-        <v>45.4511833739381</v>
+        <v>45.4511833739661</v>
       </c>
       <c r="E51" s="248">
-        <v>97.7719576769939</v>
+        <v>97.771957677021589</v>
       </c>
       <c r="F51" s="248">
-        <v>94.1502882618718</v>
+        <v>94.1502882618969</v>
       </c>
       <c r="G51" s="248">
-        <v>199.944913169374</v>
+        <v>199.944913169459</v>
       </c>
       <c r="H51" s="248">
-        <v>452.066176383317</v>
+        <v>452.066176383592</v>
       </c>
       <c r="I51" s="248">
-        <v>597.258803984341</v>
+        <v>597.258803983881</v>
       </c>
       <c r="J51" s="248">
-        <v>19.225448443341065</v>
+        <v>19.225448443339246</v>
       </c>
       <c r="K51" s="248">
         <v>1542</v>
@@ -23574,31 +23577,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>16.212953284797102</v>
+        <v>16.2129532848053</v>
       </c>
       <c r="C54" s="248">
-        <v>19.9182754220259</v>
+        <v>19.9182754220388</v>
       </c>
       <c r="D54" s="248">
-        <v>45.4511833739381</v>
+        <v>45.4511833739661</v>
       </c>
       <c r="E54" s="248">
-        <v>97.7719576769939</v>
+        <v>97.771957677021589</v>
       </c>
       <c r="F54" s="248">
-        <v>94.1502882618718</v>
+        <v>94.1502882618969</v>
       </c>
       <c r="G54" s="248">
-        <v>412.944913169374</v>
+        <v>412.94491316945897</v>
       </c>
       <c r="H54" s="248">
-        <v>547.06617638331693</v>
+        <v>547.06617638359194</v>
       </c>
       <c r="I54" s="248">
-        <v>597.258803984341</v>
+        <v>597.258803983881</v>
       </c>
       <c r="J54" s="248">
-        <v>19.22544844334152</v>
+        <v>19.225448443339246</v>
       </c>
       <c r="K54" s="248">
         <v>1850</v>
@@ -23609,31 +23612,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>16.212953284797102</v>
+        <v>16.2129532848053</v>
       </c>
       <c r="C55" s="248">
-        <v>19.9182754220259</v>
+        <v>19.9182754220388</v>
       </c>
       <c r="D55" s="248">
-        <v>45.4511833739381</v>
+        <v>45.4511833739661</v>
       </c>
       <c r="E55" s="248">
-        <v>97.7719576769939</v>
+        <v>97.771957677021589</v>
       </c>
       <c r="F55" s="248">
-        <v>94.1502882618718</v>
+        <v>94.1502882618969</v>
       </c>
       <c r="G55" s="248">
-        <v>3181.9449131693832</v>
+        <v>3181.9449131694678</v>
       </c>
       <c r="H55" s="248">
-        <v>1782.066176383317</v>
+        <v>1782.0661763835919</v>
       </c>
       <c r="I55" s="248">
-        <v>597.258803984341</v>
+        <v>597.258803983881</v>
       </c>
       <c r="J55" s="248">
-        <v>19.225448443331516</v>
+        <v>19.225448443330606</v>
       </c>
       <c r="K55" s="248">
         <v>5854</v>
@@ -23749,7 +23752,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="246">
-        <v>380.05219228638</v>
+        <v>380.052192286381</v>
       </c>
       <c r="C59" s="246">
         <v>382.565733824596</v>
@@ -23773,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="246">
-        <v>18.42909842937479</v>
+        <v>18.42909842937388</v>
       </c>
       <c r="K59" s="246">
         <v>4751</v>
@@ -23793,13 +23796,13 @@
         <v>317.223205896817</v>
       </c>
       <c r="E60" s="246">
-        <v>475.852400525382</v>
+        <v>475.85240052549096</v>
       </c>
       <c r="F60" s="246">
-        <v>337.082609064764</v>
+        <v>337.082609064656</v>
       </c>
       <c r="G60" s="246">
-        <v>402.65957074572003</v>
+        <v>402.659570745721</v>
       </c>
       <c r="H60" s="246">
         <v>299.871044874779</v>
@@ -23808,7 +23811,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="246">
-        <v>35.33618261747506</v>
+        <v>35.336182617473241</v>
       </c>
       <c r="K60" s="246">
         <v>2246</v>
@@ -23819,31 +23822,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>542.4673180205159</v>
+        <v>542.467318022957</v>
       </c>
       <c r="C61" s="246">
-        <v>900.95390296101891</v>
+        <v>900.953902965175</v>
       </c>
       <c r="D61" s="246">
-        <v>2250.2055274460504</v>
+        <v>2250.20552745376</v>
       </c>
       <c r="E61" s="246">
-        <v>4863.7505214825705</v>
+        <v>4863.75052148708</v>
       </c>
       <c r="F61" s="246">
-        <v>4082.74850264889</v>
+        <v>4082.7485026513</v>
       </c>
       <c r="G61" s="246">
-        <v>8199.22285213622</v>
+        <v>8199.22285215378</v>
       </c>
       <c r="H61" s="246">
-        <v>15367.5119372466</v>
+        <v>15367.5119372569</v>
       </c>
       <c r="I61" s="246">
-        <v>14259.5531389434</v>
+        <v>14259.5531388951</v>
       </c>
       <c r="J61" s="246">
-        <v>832.58629911472963</v>
+        <v>832.58629911394382</v>
       </c>
       <c r="K61" s="246">
         <v>51299</v>
@@ -23863,22 +23866,22 @@
         <v>87.4270545192028</v>
       </c>
       <c r="E62" s="246">
-        <v>131.145430064653</v>
+        <v>131.14543006468298</v>
       </c>
       <c r="F62" s="246">
-        <v>92.9003272533789</v>
+        <v>92.900327253348991</v>
       </c>
       <c r="G62" s="246">
         <v>110.97340796598401</v>
       </c>
       <c r="H62" s="246">
-        <v>82.644780399594</v>
+        <v>82.6447803995937</v>
       </c>
       <c r="I62" s="246">
         <v>0</v>
       </c>
       <c r="J62" s="246">
-        <v>9.7386896884312364</v>
+        <v>9.73868968843135</v>
       </c>
       <c r="K62" s="246">
         <v>618.999999999999</v>
@@ -23889,31 +23892,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>596.8243230829944</v>
+        <v>596.82432308543548</v>
       </c>
       <c r="C63" s="248">
-        <v>950.76720800729549</v>
+        <v>950.76720801145154</v>
       </c>
       <c r="D63" s="248">
-        <v>2337.6325819652529</v>
+        <v>2337.6325819729632</v>
       </c>
       <c r="E63" s="248">
-        <v>4994.8959515472234</v>
+        <v>4994.8959515517627</v>
       </c>
       <c r="F63" s="248">
-        <v>4175.6488299022685</v>
+        <v>4175.6488299046487</v>
       </c>
       <c r="G63" s="248">
-        <v>8310.1962601022042</v>
+        <v>8310.1962601197647</v>
       </c>
       <c r="H63" s="248">
-        <v>15450.156717646194</v>
+        <v>15450.156717656495</v>
       </c>
       <c r="I63" s="248">
-        <v>14259.5531389434</v>
+        <v>14259.5531388951</v>
       </c>
       <c r="J63" s="248">
-        <v>842.32498880315688</v>
+        <v>842.32498880237836</v>
       </c>
       <c r="K63" s="248">
         <v>51918</v>
@@ -23924,31 +23927,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>794.05507166187442</v>
+        <v>794.05507166431539</v>
       </c>
       <c r="C64" s="248">
-        <v>1131.5114457034786</v>
+        <v>1131.5114457076345</v>
       </c>
       <c r="D64" s="248">
-        <v>2654.85578786207</v>
+        <v>2654.85578786978</v>
       </c>
       <c r="E64" s="248">
-        <v>5470.7483520726046</v>
+        <v>5470.748352077253</v>
       </c>
       <c r="F64" s="248">
-        <v>4512.7314389670337</v>
+        <v>4512.7314389693047</v>
       </c>
       <c r="G64" s="248">
-        <v>8712.8558308479242</v>
+        <v>8712.8558308654865</v>
       </c>
       <c r="H64" s="248">
-        <v>15750.027762520975</v>
+        <v>15750.027762531276</v>
       </c>
       <c r="I64" s="248">
-        <v>14259.5531389434</v>
+        <v>14259.5531388951</v>
       </c>
       <c r="J64" s="248">
-        <v>877.6611714206374</v>
+        <v>877.6611714198516</v>
       </c>
       <c r="K64" s="248">
         <v>54164</v>
@@ -24064,31 +24067,31 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>1849.0013273272166</v>
+        <v>1849.0013273296588</v>
       </c>
       <c r="C68" s="248">
-        <v>2193.3317050964615</v>
+        <v>2193.3317051006175</v>
       </c>
       <c r="D68" s="248">
-        <v>4799.4160888284905</v>
+        <v>4799.4160888362</v>
       </c>
       <c r="E68" s="248">
-        <v>9845.67027702133</v>
+        <v>9845.67027702598</v>
       </c>
       <c r="F68" s="248">
-        <v>12250.194690306122</v>
+        <v>12250.194690308392</v>
       </c>
       <c r="G68" s="248">
-        <v>8712.8558308479242</v>
+        <v>8712.8558308654865</v>
       </c>
       <c r="H68" s="248">
-        <v>15750.027762520975</v>
+        <v>15750.027762531276</v>
       </c>
       <c r="I68" s="248">
-        <v>14259.5531389434</v>
+        <v>14259.5531388951</v>
       </c>
       <c r="J68" s="248">
-        <v>976.94917910808</v>
+        <v>976.94917910729419</v>
       </c>
       <c r="K68" s="248">
         <v>70637</v>
@@ -24204,7 +24207,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>282.213076872188</v>
+        <v>282.213076872189</v>
       </c>
       <c r="C72" s="246">
         <v>271.503762058543</v>
@@ -24228,7 +24231,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>119.949360740864</v>
+        <v>119.94936074086309</v>
       </c>
       <c r="K72" s="246">
         <v>3535</v>
@@ -24239,7 +24242,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="248">
-        <v>723.91728237221707</v>
+        <v>723.9172823722181</v>
       </c>
       <c r="C73" s="248">
         <v>682.465883810886</v>
@@ -24309,31 +24312,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>2770.5281357715903</v>
+        <v>2770.5281357740337</v>
       </c>
       <c r="C75" s="248">
-        <v>3074.7702391939429</v>
+        <v>3074.7702391980984</v>
       </c>
       <c r="D75" s="248">
-        <v>6450.9833418506087</v>
+        <v>6450.9833418583194</v>
       </c>
       <c r="E75" s="248">
-        <v>12759.871319393342</v>
+        <v>12759.871319397991</v>
       </c>
       <c r="F75" s="248">
-        <v>14738.344440105055</v>
+        <v>14738.344440107325</v>
       </c>
       <c r="G75" s="248">
-        <v>16590.70005831325</v>
+        <v>16590.700058330811</v>
       </c>
       <c r="H75" s="248">
-        <v>15750.027762520975</v>
+        <v>15750.027762531276</v>
       </c>
       <c r="I75" s="248">
-        <v>14259.5531389434</v>
+        <v>14259.5531388951</v>
       </c>
       <c r="J75" s="248">
-        <v>1243.2215639078349</v>
+        <v>1243.2215639070491</v>
       </c>
       <c r="K75" s="248">
         <v>87638</v>
@@ -24519,31 +24522,31 @@
         <v>44</v>
       </c>
       <c r="B81" s="248">
-        <v>11692.741089056388</v>
+        <v>11692.741089058838</v>
       </c>
       <c r="C81" s="248">
-        <v>3094.6885146159689</v>
+        <v>3094.6885146201375</v>
       </c>
       <c r="D81" s="248">
-        <v>6496.4345252245466</v>
+        <v>6496.4345252322855</v>
       </c>
       <c r="E81" s="248">
-        <v>12857.643277070336</v>
+        <v>12857.643277075013</v>
       </c>
       <c r="F81" s="248">
-        <v>14832.494728366926</v>
+        <v>14832.494728369222</v>
       </c>
       <c r="G81" s="248">
-        <v>19772.644971482634</v>
+        <v>19772.644971500278</v>
       </c>
       <c r="H81" s="248">
-        <v>17532.093938904294</v>
+        <v>17532.093938914866</v>
       </c>
       <c r="I81" s="248">
-        <v>14856.811942927741</v>
+        <v>14856.81194287898</v>
       </c>
       <c r="J81" s="248">
-        <v>3445.447012351171</v>
+        <v>3445.4470123503706</v>
       </c>
       <c r="K81" s="248">
         <v>104581</v>
@@ -24584,16 +24587,16 @@
         <v>3559.1692542145897</v>
       </c>
       <c r="G84" s="246">
-        <v>2479.61965228164</v>
+        <v>2479.61965228162</v>
       </c>
       <c r="H84" s="246">
-        <v>1428.87081053587</v>
+        <v>1428.87081053569</v>
       </c>
       <c r="I84" s="246">
-        <v>326.201914143259</v>
+        <v>326.20191414327</v>
       </c>
       <c r="J84" s="246">
-        <v>-1223.0174480124188</v>
+        <v>-1223.0174480122296</v>
       </c>
       <c r="K84" s="246">
         <v>40901</v>
@@ -24674,13 +24677,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="246">
-        <v>758.650987399222</v>
+        <v>758.65098739921893</v>
       </c>
       <c r="C87" s="246">
-        <v>693.931396633247</v>
+        <v>693.93139663324507</v>
       </c>
       <c r="D87" s="246">
-        <v>1215.3176159675402</v>
+        <v>1215.31761596753</v>
       </c>
       <c r="E87" s="246">
         <v>1867.53</v>
@@ -24695,10 +24698,10 @@
         <v>1243.4412710643</v>
       </c>
       <c r="I87" s="246">
-        <v>251.205238935698</v>
+        <v>251.205238935701</v>
       </c>
       <c r="J87" s="246">
-        <v>-7.2759576141834259E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
       <c r="K87" s="246">
         <v>8893</v>
@@ -24744,13 +24747,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="248">
-        <v>9155.1662034873734</v>
+        <v>9155.16620348737</v>
       </c>
       <c r="C89" s="248">
-        <v>11575.825423205923</v>
+        <v>11575.825423205921</v>
       </c>
       <c r="D89" s="248">
-        <v>20094.323589778793</v>
+        <v>20094.323589778785</v>
       </c>
       <c r="E89" s="248">
         <v>17072.330600364978</v>
@@ -24759,16 +24762,16 @@
         <v>10393.474254214591</v>
       </c>
       <c r="G89" s="248">
-        <v>10988.036922281639</v>
+        <v>10988.036922281619</v>
       </c>
       <c r="H89" s="248">
-        <v>9706.0596748807711</v>
+        <v>9706.059674880591</v>
       </c>
       <c r="I89" s="248">
-        <v>3987.8007797983564</v>
+        <v>3987.800779798371</v>
       </c>
       <c r="J89" s="248">
-        <v>-1223.017448012426</v>
+        <v>-1223.0174480122369</v>
       </c>
       <c r="K89" s="248">
         <v>91750</v>
@@ -24849,13 +24852,13 @@
         <v>82</v>
       </c>
       <c r="B92" s="248">
-        <v>9155.1662034873734</v>
+        <v>9155.16620348737</v>
       </c>
       <c r="C92" s="248">
-        <v>11575.825423205923</v>
+        <v>11575.825423205921</v>
       </c>
       <c r="D92" s="248">
-        <v>20094.323589778793</v>
+        <v>20094.323589778785</v>
       </c>
       <c r="E92" s="248">
         <v>17072.330600364978</v>
@@ -24864,16 +24867,16 @@
         <v>10393.474254214591</v>
       </c>
       <c r="G92" s="248">
-        <v>10988.036922281639</v>
+        <v>10988.036922281619</v>
       </c>
       <c r="H92" s="248">
-        <v>9706.0596748807711</v>
+        <v>9706.059674880591</v>
       </c>
       <c r="I92" s="248">
-        <v>3987.8007797983564</v>
+        <v>3987.800779798371</v>
       </c>
       <c r="J92" s="248">
-        <v>-852.017448012426</v>
+        <v>-852.01744801223686</v>
       </c>
       <c r="K92" s="248">
         <v>92121</v>
@@ -24899,31 +24902,31 @@
         <v>90</v>
       </c>
       <c r="B95" s="248">
-        <v>2537.5748855690135</v>
+        <v>2537.5748855714687</v>
       </c>
       <c r="C95" s="248">
-        <v>-8481.1369085899551</v>
+        <v>-8481.1369085857823</v>
       </c>
       <c r="D95" s="248">
-        <v>-13597.889064554245</v>
+        <v>-13597.8890645465</v>
       </c>
       <c r="E95" s="248">
-        <v>-4214.6873232946436</v>
+        <v>-4214.6873232899661</v>
       </c>
       <c r="F95" s="248">
-        <v>4439.0204741523357</v>
+        <v>4439.02047415463</v>
       </c>
       <c r="G95" s="248">
-        <v>8784.6080492009951</v>
+        <v>8784.6080492186575</v>
       </c>
       <c r="H95" s="248">
-        <v>7826.0342640235222</v>
+        <v>7826.0342640342751</v>
       </c>
       <c r="I95" s="248">
-        <v>10869.011163129384</v>
+        <v>10869.01116308061</v>
       </c>
       <c r="J95" s="248">
-        <v>4297.4644603635979</v>
+        <v>4297.4644603626093</v>
       </c>
       <c r="K95" s="248">
         <v>12460</v>
@@ -25113,31 +25116,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>11593.443562440223</v>
+        <v>11593.443562440825</v>
       </c>
       <c r="C9" s="231">
-        <v>2914.5508203046475</v>
+        <v>2914.5508203056606</v>
       </c>
       <c r="D9" s="231">
-        <v>6072.4195970581013</v>
+        <v>6072.419597059913</v>
       </c>
       <c r="E9" s="231">
-        <v>12095.545361063791</v>
+        <v>12095.545361064616</v>
       </c>
       <c r="F9" s="231">
-        <v>14330.499621348983</v>
+        <v>14330.49962134932</v>
       </c>
       <c r="G9" s="231">
-        <v>19096.164403568186</v>
+        <v>19096.164403574716</v>
       </c>
       <c r="H9" s="231">
-        <v>17605.373572767523</v>
+        <v>17605.373572786328</v>
       </c>
       <c r="I9" s="231">
-        <v>17374.54106331505</v>
+        <v>17374.541063285556</v>
       </c>
       <c r="J9" s="231">
-        <v>3498.4619981334981</v>
+        <v>3498.4619981330761</v>
       </c>
       <c r="K9" s="231">
         <v>104581</v>
@@ -25163,28 +25166,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>11593.443562440223</v>
+        <v>11593.443562440825</v>
       </c>
       <c r="C11" s="231">
-        <v>14507.99438274487</v>
+        <v>14507.994382746485</v>
       </c>
       <c r="D11" s="231">
-        <v>20580.413979802972</v>
+        <v>20580.4139798064</v>
       </c>
       <c r="E11" s="231">
-        <v>32675.959340866764</v>
+        <v>32675.959340871013</v>
       </c>
       <c r="F11" s="231">
-        <v>47006.458962215751</v>
+        <v>47006.458962220335</v>
       </c>
       <c r="G11" s="231">
-        <v>66102.623365783933</v>
+        <v>66102.623365795051</v>
       </c>
       <c r="H11" s="231">
-        <v>83707.996938551456</v>
+        <v>83707.996938581375</v>
       </c>
       <c r="I11" s="231">
-        <v>101082.5380018665</v>
+        <v>101082.53800186692</v>
       </c>
       <c r="J11" s="231">
         <v>104581</v>
@@ -25198,13 +25201,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="231">
-        <v>9155.6365430364949</v>
+        <v>9155.6365430364913</v>
       </c>
       <c r="C12" s="231">
-        <v>11580.336448116754</v>
+        <v>11580.336448116752</v>
       </c>
       <c r="D12" s="231">
-        <v>20099.845531121497</v>
+        <v>20099.845531121486</v>
       </c>
       <c r="E12" s="231">
         <v>17107.490413115142</v>
@@ -25213,16 +25216,16 @@
         <v>10411.7288153171</v>
       </c>
       <c r="G12" s="231">
-        <v>11011.002059161641</v>
+        <v>11011.00205916163</v>
       </c>
       <c r="H12" s="231">
-        <v>9751.66037269986</v>
+        <v>9751.6603726996709</v>
       </c>
       <c r="I12" s="231">
-        <v>4015.5086479956581</v>
+        <v>4015.5086479956735</v>
       </c>
       <c r="J12" s="231">
-        <v>-1012.2088305641228</v>
+        <v>-1012.2088305639336</v>
       </c>
       <c r="K12" s="231">
         <v>92121</v>
@@ -25268,28 +25271,28 @@
         <v>25</v>
       </c>
       <c r="B14" s="231">
-        <v>9155.6365430364949</v>
+        <v>9155.6365430364913</v>
       </c>
       <c r="C14" s="231">
-        <v>20735.972991153249</v>
+        <v>20735.972991153241</v>
       </c>
       <c r="D14" s="231">
-        <v>40835.818522274742</v>
+        <v>40835.818522274727</v>
       </c>
       <c r="E14" s="231">
-        <v>57943.308935389883</v>
+        <v>57943.308935389869</v>
       </c>
       <c r="F14" s="231">
-        <v>68355.037750706979</v>
+        <v>68355.037750706964</v>
       </c>
       <c r="G14" s="231">
-        <v>79366.039809868613</v>
+        <v>79366.0398098686</v>
       </c>
       <c r="H14" s="231">
-        <v>89117.700182568471</v>
+        <v>89117.700182568267</v>
       </c>
       <c r="I14" s="231">
-        <v>93133.208830564123</v>
+        <v>93133.208830563934</v>
       </c>
       <c r="J14" s="231">
         <v>104581</v>
@@ -25301,31 +25304,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>2437.8070194037282</v>
+        <v>2437.8070194043339</v>
       </c>
       <c r="C15" s="231">
-        <v>-8665.7856278121071</v>
+        <v>-8665.7856278110921</v>
       </c>
       <c r="D15" s="231">
-        <v>-14027.425934063394</v>
+        <v>-14027.425934061572</v>
       </c>
       <c r="E15" s="231">
-        <v>-5011.945052051351</v>
+        <v>-5011.9450520505252</v>
       </c>
       <c r="F15" s="231">
-        <v>3918.7708060318837</v>
+        <v>3918.77080603222</v>
       </c>
       <c r="G15" s="231">
-        <v>8085.1623444065444</v>
+        <v>8085.1623444130855</v>
       </c>
       <c r="H15" s="231">
-        <v>7853.7132000676629</v>
+        <v>7853.7132000866568</v>
       </c>
       <c r="I15" s="231">
-        <v>13359.032415319391</v>
+        <v>13359.032415289883</v>
       </c>
       <c r="J15" s="231">
-        <v>-7949.3291713023791</v>
+        <v>-7949.32917130299</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -25334,31 +25337,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.023310228620913243</v>
+        <v>0.023310228620919041</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.082861950333350282</v>
+        <v>-0.082861950333340581</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.13412977437644882</v>
+        <v>-0.13412977437643142</v>
       </c>
       <c r="E16" s="236">
-        <v>-0.047924049799211624</v>
+        <v>-0.047924049799203727</v>
       </c>
       <c r="F16" s="237">
-        <v>0.037471154473870817</v>
+        <v>0.03747115447387403</v>
       </c>
       <c r="G16" s="236">
-        <v>0.0773100500512191</v>
+        <v>0.077310050051281637</v>
       </c>
       <c r="H16" s="236">
-        <v>0.075096941127620345</v>
+        <v>0.075096941127801964</v>
       </c>
       <c r="I16" s="236">
-        <v>0.12773861805987122</v>
+        <v>0.12773861805958905</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.076011217824484167</v>
+        <v>-0.07601121782449001</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -25367,28 +25370,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>2437.8070194037282</v>
+        <v>2437.8070194043339</v>
       </c>
       <c r="C17" s="231">
-        <v>-6227.9786084083789</v>
+        <v>-6227.9786084067564</v>
       </c>
       <c r="D17" s="231">
-        <v>-20255.40454247177</v>
+        <v>-20255.404542468328</v>
       </c>
       <c r="E17" s="231">
-        <v>-25267.349594523119</v>
+        <v>-25267.349594518855</v>
       </c>
       <c r="F17" s="231">
-        <v>-21348.578788491228</v>
+        <v>-21348.578788486629</v>
       </c>
       <c r="G17" s="231">
-        <v>-13263.41644408468</v>
+        <v>-13263.416444073548</v>
       </c>
       <c r="H17" s="231">
-        <v>-5409.7032440170151</v>
+        <v>-5409.7032439868926</v>
       </c>
       <c r="I17" s="231">
-        <v>7949.3291713023791</v>
+        <v>7949.32917130299</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -25400,28 +25403,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.023310228620913243</v>
+        <v>0.023310228620919041</v>
       </c>
       <c r="C18" s="236">
-        <v>-0.059551721712437049</v>
+        <v>-0.059551721712421533</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.19368149608888582</v>
+        <v>-0.19368149608885293</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.24160554588809746</v>
+        <v>-0.24160554588805666</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.20413439141422657</v>
+        <v>-0.20413439141418258</v>
       </c>
       <c r="G18" s="236">
-        <v>-0.12682434136300741</v>
+        <v>-0.126824341362901</v>
       </c>
       <c r="H18" s="236">
-        <v>-0.051727400235387071</v>
+        <v>-0.051727400235099044</v>
       </c>
       <c r="I18" s="236">
-        <v>0.076011217824484167</v>
+        <v>0.07601121782449001</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -25433,31 +25436,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.2662629745015219</v>
+        <v>1.2662629745015881</v>
       </c>
       <c r="C19" s="236">
-        <v>0.25168101405021137</v>
+        <v>0.25168101405029891</v>
       </c>
       <c r="D19" s="236">
-        <v>0.30211274945650207</v>
+        <v>0.30211274945659239</v>
       </c>
       <c r="E19" s="236">
-        <v>0.70703212855761488</v>
+        <v>0.70703212855766329</v>
       </c>
       <c r="F19" s="237">
-        <v>1.3763804143906273</v>
+        <v>1.3763804143906595</v>
       </c>
       <c r="G19" s="236">
-        <v>1.734280340786907</v>
+        <v>1.7342803407875018</v>
       </c>
       <c r="H19" s="236">
-        <v>1.8053718956470664</v>
+        <v>1.8053718956490297</v>
       </c>
       <c r="I19" s="236">
-        <v>4.3268593312549717</v>
+        <v>4.3268593312476105</v>
       </c>
       <c r="J19" s="236">
-        <v>0.305601486466135</v>
+        <v>0.30560148646609309</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -25466,28 +25469,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.2662629745015219</v>
+        <v>1.2662629745015881</v>
       </c>
       <c r="C20" s="236">
-        <v>0.69965341818946858</v>
+        <v>0.69965341818954674</v>
       </c>
       <c r="D20" s="236">
-        <v>0.50397946519859671</v>
+        <v>0.50397946519868075</v>
       </c>
       <c r="E20" s="236">
-        <v>0.56392981245345053</v>
+        <v>0.56392981245352414</v>
       </c>
       <c r="F20" s="237">
-        <v>0.687680974351149</v>
+        <v>0.68768097435121633</v>
       </c>
       <c r="G20" s="236">
-        <v>0.83288297518864651</v>
+        <v>0.83288297518878673</v>
       </c>
       <c r="H20" s="236">
-        <v>0.93929709549354867</v>
+        <v>0.93929709549388651</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0853544001234241</v>
+        <v>1.0853544001234308</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -25530,28 +25533,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.099049520976917924</v>
+        <v>-0.0990495209768734</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.11297374020872214</v>
+        <v>-0.11297374020867679</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.11475858979764077</v>
+        <v>-0.11475858979787076</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.13553029511872952</v>
+        <v>-0.13553029511793446</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.16967526349227832</v>
+        <v>-0.16967526349201276</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.18685469719715037</v>
+        <v>-0.18685469719701306</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.19368149608888582</v>
+        <v>-0.19368149608885293</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.157180957395564</v>
+        <v>-0.1571809573952154</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -25561,28 +25564,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.73912490765977656</v>
+        <v>0.73912490765989358</v>
       </c>
       <c r="C24" s="236">
-        <v>0.70851394813999735</v>
+        <v>0.70851394814011426</v>
       </c>
       <c r="D24" s="236">
-        <v>0.70503793335831855</v>
+        <v>0.70503793335772724</v>
       </c>
       <c r="E24" s="236">
-        <v>0.65240887904835321</v>
+        <v>0.65240887905039213</v>
       </c>
       <c r="F24" s="236">
-        <v>0.56517561467640354</v>
+        <v>0.56517561467708388</v>
       </c>
       <c r="G24" s="236">
-        <v>0.521339860232343</v>
+        <v>0.52133986023269474</v>
       </c>
       <c r="H24" s="236">
-        <v>0.50397946519859671</v>
+        <v>0.50397946519868075</v>
       </c>
       <c r="I24" s="236">
-        <v>0.59729502253327771</v>
+        <v>0.59729502253417055</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -25918,31 +25921,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>15.7074269646377</v>
+        <v>15.7074269646416</v>
       </c>
       <c r="C50" s="246">
-        <v>19.0406846443063</v>
+        <v>19.0406846443125</v>
       </c>
       <c r="D50" s="246">
-        <v>43.2575972985323</v>
+        <v>43.2575972985439</v>
       </c>
       <c r="E50" s="246">
-        <v>93.028476850919</v>
+        <v>93.0284768509254</v>
       </c>
       <c r="F50" s="246">
-        <v>90.120226975479</v>
+        <v>90.1202269754855</v>
       </c>
       <c r="G50" s="246">
-        <v>191.928203430021</v>
+        <v>191.92820343008</v>
       </c>
       <c r="H50" s="246">
-        <v>445.435396257558</v>
+        <v>445.435396257862</v>
       </c>
       <c r="I50" s="246">
-        <v>624.050019387449</v>
+        <v>624.05001938705493</v>
       </c>
       <c r="J50" s="246">
-        <v>19.431968191097894</v>
+        <v>19.431968191094256</v>
       </c>
       <c r="K50" s="246">
         <v>1542</v>
@@ -25953,31 +25956,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>15.7074269646377</v>
+        <v>15.7074269646416</v>
       </c>
       <c r="C51" s="248">
-        <v>19.0406846443063</v>
+        <v>19.0406846443125</v>
       </c>
       <c r="D51" s="248">
-        <v>43.2575972985323</v>
+        <v>43.2575972985439</v>
       </c>
       <c r="E51" s="248">
-        <v>93.028476850919</v>
+        <v>93.0284768509254</v>
       </c>
       <c r="F51" s="248">
-        <v>90.120226975479</v>
+        <v>90.1202269754855</v>
       </c>
       <c r="G51" s="248">
-        <v>191.928203430021</v>
+        <v>191.92820343008</v>
       </c>
       <c r="H51" s="248">
-        <v>445.435396257558</v>
+        <v>445.435396257862</v>
       </c>
       <c r="I51" s="248">
-        <v>624.050019387449</v>
+        <v>624.05001938705493</v>
       </c>
       <c r="J51" s="248">
-        <v>19.431968191097894</v>
+        <v>19.431968191094256</v>
       </c>
       <c r="K51" s="248">
         <v>1542</v>
@@ -26058,31 +26061,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>15.7074269646377</v>
+        <v>15.7074269646416</v>
       </c>
       <c r="C54" s="248">
-        <v>19.0406846443063</v>
+        <v>19.0406846443125</v>
       </c>
       <c r="D54" s="248">
-        <v>43.2575972985323</v>
+        <v>43.2575972985439</v>
       </c>
       <c r="E54" s="248">
-        <v>93.028476850919</v>
+        <v>93.0284768509254</v>
       </c>
       <c r="F54" s="248">
-        <v>90.120226975479</v>
+        <v>90.1202269754855</v>
       </c>
       <c r="G54" s="248">
-        <v>404.92820343002103</v>
+        <v>404.92820343008</v>
       </c>
       <c r="H54" s="248">
-        <v>540.43539625755807</v>
+        <v>540.435396257862</v>
       </c>
       <c r="I54" s="248">
-        <v>624.050019387449</v>
+        <v>624.05001938705493</v>
       </c>
       <c r="J54" s="248">
-        <v>19.43196819109744</v>
+        <v>19.431968191094256</v>
       </c>
       <c r="K54" s="248">
         <v>1850</v>
@@ -26093,31 +26096,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>15.7074269646377</v>
+        <v>15.7074269646416</v>
       </c>
       <c r="C55" s="248">
-        <v>19.0406846443063</v>
+        <v>19.0406846443125</v>
       </c>
       <c r="D55" s="248">
-        <v>43.2575972985323</v>
+        <v>43.2575972985439</v>
       </c>
       <c r="E55" s="248">
-        <v>93.028476850919</v>
+        <v>93.0284768509254</v>
       </c>
       <c r="F55" s="248">
-        <v>90.120226975479</v>
+        <v>90.1202269754855</v>
       </c>
       <c r="G55" s="248">
-        <v>3173.92820343003</v>
+        <v>3173.9282034300886</v>
       </c>
       <c r="H55" s="248">
-        <v>1775.4353962575578</v>
+        <v>1775.4353962578621</v>
       </c>
       <c r="I55" s="248">
-        <v>624.050019387449</v>
+        <v>624.05001938705493</v>
       </c>
       <c r="J55" s="248">
-        <v>19.431968191089254</v>
+        <v>19.431968191085616</v>
       </c>
       <c r="K55" s="248">
         <v>5854</v>
@@ -26233,7 +26236,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="246">
-        <v>380.05219228638</v>
+        <v>380.052192286381</v>
       </c>
       <c r="C59" s="246">
         <v>382.565733824596</v>
@@ -26257,7 +26260,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="246">
-        <v>18.42909842937479</v>
+        <v>18.42909842937388</v>
       </c>
       <c r="K59" s="246">
         <v>4751</v>
@@ -26277,13 +26280,13 @@
         <v>317.223205896817</v>
       </c>
       <c r="E60" s="246">
-        <v>472.220845512999</v>
+        <v>472.220845513104</v>
       </c>
       <c r="F60" s="246">
-        <v>335.67940654670696</v>
+        <v>335.679406546604</v>
       </c>
       <c r="G60" s="246">
-        <v>403.173033971417</v>
+        <v>403.17303397141603</v>
       </c>
       <c r="H60" s="246">
         <v>304.294923365594</v>
@@ -26292,7 +26295,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="246">
-        <v>35.43359843140297</v>
+        <v>35.433598431402061</v>
       </c>
       <c r="K60" s="246">
         <v>2246</v>
@@ -26303,31 +26306,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>443.675317724512</v>
+        <v>443.675317725106</v>
       </c>
       <c r="C61" s="246">
-        <v>721.69379942741807</v>
+        <v>721.693799428425</v>
       </c>
       <c r="D61" s="246">
-        <v>1828.38418535501</v>
+        <v>1828.38418535681</v>
       </c>
       <c r="E61" s="246">
-        <v>4111.02850175645</v>
+        <v>4111.02850175714</v>
       </c>
       <c r="F61" s="246">
-        <v>3586.57338354879</v>
+        <v>3586.57338354925</v>
       </c>
       <c r="G61" s="246">
-        <v>7530.1040197217608</v>
+        <v>7530.10401972823</v>
       </c>
       <c r="H61" s="246">
-        <v>15441.7792471055</v>
+        <v>15441.779247123999</v>
       </c>
       <c r="I61" s="246">
-        <v>16750.4910439276</v>
+        <v>16750.4910438985</v>
       </c>
       <c r="J61" s="246">
-        <v>885.27050143296219</v>
+        <v>885.27050143254746</v>
       </c>
       <c r="K61" s="246">
         <v>51299</v>
@@ -26347,10 +26350,10 @@
         <v>87.4270545192028</v>
       </c>
       <c r="E62" s="246">
-        <v>130.144569622683</v>
+        <v>130.144569622712</v>
       </c>
       <c r="F62" s="246">
-        <v>92.5136031399871</v>
+        <v>92.5136031399589</v>
       </c>
       <c r="G62" s="246">
         <v>111.114918979655</v>
@@ -26362,7 +26365,7 @@
         <v>0</v>
       </c>
       <c r="J62" s="246">
-        <v>9.7655375908459519</v>
+        <v>9.765537590845156</v>
       </c>
       <c r="K62" s="246">
         <v>618.999999999999</v>
@@ -26373,31 +26376,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>498.03232278699051</v>
+        <v>498.03232278758452</v>
       </c>
       <c r="C63" s="248">
-        <v>771.50710447369454</v>
+        <v>771.50710447470158</v>
       </c>
       <c r="D63" s="248">
-        <v>1915.8112398742128</v>
+        <v>1915.8112398760127</v>
       </c>
       <c r="E63" s="248">
-        <v>4241.1730713791339</v>
+        <v>4241.1730713798515</v>
       </c>
       <c r="F63" s="248">
-        <v>3679.0869866887774</v>
+        <v>3679.086986689209</v>
       </c>
       <c r="G63" s="248">
-        <v>7641.218938701415</v>
+        <v>7641.2189387078852</v>
       </c>
       <c r="H63" s="248">
-        <v>15525.64325314437</v>
+        <v>15525.643253162871</v>
       </c>
       <c r="I63" s="248">
-        <v>16750.4910439276</v>
+        <v>16750.4910438985</v>
       </c>
       <c r="J63" s="248">
-        <v>895.03603902380564</v>
+        <v>895.03603902338364</v>
       </c>
       <c r="K63" s="248">
         <v>51918</v>
@@ -26408,31 +26411,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>695.26307136587059</v>
+        <v>695.26307136646449</v>
       </c>
       <c r="C64" s="248">
-        <v>952.2513421698776</v>
+        <v>952.25134217088464</v>
       </c>
       <c r="D64" s="248">
-        <v>2233.03444577103</v>
+        <v>2233.0344457728297</v>
       </c>
       <c r="E64" s="248">
-        <v>4713.3939168921324</v>
+        <v>4713.3939168929555</v>
       </c>
       <c r="F64" s="248">
-        <v>4014.766393235484</v>
+        <v>4014.7663932358128</v>
       </c>
       <c r="G64" s="248">
-        <v>8044.3919726728318</v>
+        <v>8044.391972679301</v>
       </c>
       <c r="H64" s="248">
-        <v>15829.938176509966</v>
+        <v>15829.938176528465</v>
       </c>
       <c r="I64" s="248">
-        <v>16750.4910439276</v>
+        <v>16750.4910438985</v>
       </c>
       <c r="J64" s="248">
-        <v>930.4696374552077</v>
+        <v>930.469637454793</v>
       </c>
       <c r="K64" s="248">
         <v>54164</v>
@@ -26548,31 +26551,31 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>1750.2093270312128</v>
+        <v>1750.209327031808</v>
       </c>
       <c r="C68" s="248">
-        <v>2014.0716015628605</v>
+        <v>2014.0716015638673</v>
       </c>
       <c r="D68" s="248">
-        <v>4377.5947467374508</v>
+        <v>4377.5947467392507</v>
       </c>
       <c r="E68" s="248">
-        <v>9088.31584184086</v>
+        <v>9088.3158418416788</v>
       </c>
       <c r="F68" s="248">
-        <v>11752.229644574571</v>
+        <v>11752.229644574902</v>
       </c>
       <c r="G68" s="248">
-        <v>8044.3919726728318</v>
+        <v>8044.391972679301</v>
       </c>
       <c r="H68" s="248">
-        <v>15829.938176509966</v>
+        <v>15829.938176528465</v>
       </c>
       <c r="I68" s="248">
-        <v>16750.4910439276</v>
+        <v>16750.4910438985</v>
       </c>
       <c r="J68" s="248">
-        <v>1029.757645142643</v>
+        <v>1029.7576451422356</v>
       </c>
       <c r="K68" s="248">
         <v>70637</v>
@@ -26688,7 +26691,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>282.213076872188</v>
+        <v>282.213076872189</v>
       </c>
       <c r="C72" s="246">
         <v>271.503762058543</v>
@@ -26712,7 +26715,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>119.949360740864</v>
+        <v>119.94936074086309</v>
       </c>
       <c r="K72" s="246">
         <v>3535</v>
@@ -26723,7 +26726,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="248">
-        <v>723.91728237221707</v>
+        <v>723.9172823722181</v>
       </c>
       <c r="C73" s="248">
         <v>682.465883810886</v>
@@ -26793,31 +26796,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>2671.7361354755867</v>
+        <v>2671.7361354761829</v>
       </c>
       <c r="C75" s="248">
-        <v>2895.5101356603413</v>
+        <v>2895.5101356613482</v>
       </c>
       <c r="D75" s="248">
-        <v>6029.161999759569</v>
+        <v>6029.1619997613689</v>
       </c>
       <c r="E75" s="248">
-        <v>12002.516884212871</v>
+        <v>12002.516884213692</v>
       </c>
       <c r="F75" s="248">
-        <v>14240.379394373504</v>
+        <v>14240.379394373835</v>
       </c>
       <c r="G75" s="248">
-        <v>15922.236200138155</v>
+        <v>15922.236200144625</v>
       </c>
       <c r="H75" s="248">
-        <v>15829.938176509966</v>
+        <v>15829.938176528465</v>
       </c>
       <c r="I75" s="248">
-        <v>16750.4910439276</v>
+        <v>16750.4910438985</v>
       </c>
       <c r="J75" s="248">
-        <v>1296.0300299424125</v>
+        <v>1296.0300299419905</v>
       </c>
       <c r="K75" s="248">
         <v>87638</v>
@@ -27003,31 +27006,31 @@
         <v>44</v>
       </c>
       <c r="B81" s="248">
-        <v>11593.443562440223</v>
+        <v>11593.443562440825</v>
       </c>
       <c r="C81" s="248">
-        <v>2914.5508203046475</v>
+        <v>2914.5508203056606</v>
       </c>
       <c r="D81" s="248">
-        <v>6072.4195970581013</v>
+        <v>6072.419597059913</v>
       </c>
       <c r="E81" s="248">
-        <v>12095.545361063791</v>
+        <v>12095.545361064616</v>
       </c>
       <c r="F81" s="248">
-        <v>14330.499621348983</v>
+        <v>14330.49962134932</v>
       </c>
       <c r="G81" s="248">
-        <v>19096.164403568186</v>
+        <v>19096.164403574716</v>
       </c>
       <c r="H81" s="248">
-        <v>17605.373572767523</v>
+        <v>17605.373572786328</v>
       </c>
       <c r="I81" s="248">
-        <v>17374.54106331505</v>
+        <v>17374.541063285556</v>
       </c>
       <c r="J81" s="248">
-        <v>3498.4619981334981</v>
+        <v>3498.4619981330761</v>
       </c>
       <c r="K81" s="248">
         <v>104581</v>
@@ -27068,16 +27071,16 @@
         <v>3577.4238153171</v>
       </c>
       <c r="G84" s="246">
-        <v>2502.5847891616404</v>
+        <v>2502.58478916163</v>
       </c>
       <c r="H84" s="246">
-        <v>1474.47150835496</v>
+        <v>1474.47150835477</v>
       </c>
       <c r="I84" s="246">
-        <v>353.909782340561</v>
+        <v>353.909782340573</v>
       </c>
       <c r="J84" s="246">
-        <v>-1383.2088305641373</v>
+        <v>-1383.2088305639481</v>
       </c>
       <c r="K84" s="246">
         <v>40901</v>
@@ -27158,13 +27161,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="246">
-        <v>758.650987399222</v>
+        <v>758.65098739921893</v>
       </c>
       <c r="C87" s="246">
-        <v>693.931396633247</v>
+        <v>693.93139663324507</v>
       </c>
       <c r="D87" s="246">
-        <v>1215.3176159675402</v>
+        <v>1215.31761596753</v>
       </c>
       <c r="E87" s="246">
         <v>1867.53</v>
@@ -27179,10 +27182,10 @@
         <v>1243.4412710643</v>
       </c>
       <c r="I87" s="246">
-        <v>251.205238935698</v>
+        <v>251.205238935701</v>
       </c>
       <c r="J87" s="246">
-        <v>-7.2759576141834259E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
       <c r="K87" s="246">
         <v>8893</v>
@@ -27228,13 +27231,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="248">
-        <v>9155.6365430364949</v>
+        <v>9155.6365430364913</v>
       </c>
       <c r="C89" s="248">
-        <v>11580.336448116754</v>
+        <v>11580.336448116752</v>
       </c>
       <c r="D89" s="248">
-        <v>20099.845531121497</v>
+        <v>20099.845531121486</v>
       </c>
       <c r="E89" s="248">
         <v>17107.490413115142</v>
@@ -27243,16 +27246,16 @@
         <v>10411.7288153171</v>
       </c>
       <c r="G89" s="248">
-        <v>11011.002059161641</v>
+        <v>11011.00205916163</v>
       </c>
       <c r="H89" s="248">
-        <v>9751.66037269986</v>
+        <v>9751.6603726996709</v>
       </c>
       <c r="I89" s="248">
-        <v>4015.5086479956581</v>
+        <v>4015.5086479956735</v>
       </c>
       <c r="J89" s="248">
-        <v>-1383.2088305641228</v>
+        <v>-1383.2088305639336</v>
       </c>
       <c r="K89" s="248">
         <v>91750</v>
@@ -27333,13 +27336,13 @@
         <v>82</v>
       </c>
       <c r="B92" s="248">
-        <v>9155.6365430364949</v>
+        <v>9155.6365430364913</v>
       </c>
       <c r="C92" s="248">
-        <v>11580.336448116754</v>
+        <v>11580.336448116752</v>
       </c>
       <c r="D92" s="248">
-        <v>20099.845531121497</v>
+        <v>20099.845531121486</v>
       </c>
       <c r="E92" s="248">
         <v>17107.490413115142</v>
@@ -27348,16 +27351,16 @@
         <v>10411.7288153171</v>
       </c>
       <c r="G92" s="248">
-        <v>11011.002059161641</v>
+        <v>11011.00205916163</v>
       </c>
       <c r="H92" s="248">
-        <v>9751.66037269986</v>
+        <v>9751.6603726996709</v>
       </c>
       <c r="I92" s="248">
-        <v>4015.5086479956581</v>
+        <v>4015.5086479956735</v>
       </c>
       <c r="J92" s="248">
-        <v>-1012.2088305641228</v>
+        <v>-1012.2088305639336</v>
       </c>
       <c r="K92" s="248">
         <v>92121</v>
@@ -27383,31 +27386,31 @@
         <v>90</v>
       </c>
       <c r="B95" s="248">
-        <v>2437.8070194037296</v>
+        <v>2437.8070194043348</v>
       </c>
       <c r="C95" s="248">
-        <v>-8665.7856278121053</v>
+        <v>-8665.78562781109</v>
       </c>
       <c r="D95" s="248">
-        <v>-14027.425934063394</v>
+        <v>-14027.425934061572</v>
       </c>
       <c r="E95" s="248">
-        <v>-5011.9450520513483</v>
+        <v>-5011.9450520505234</v>
       </c>
       <c r="F95" s="248">
-        <v>3918.7708060318828</v>
+        <v>3918.7708060322198</v>
       </c>
       <c r="G95" s="248">
-        <v>8085.1623444065453</v>
+        <v>8085.1623444130864</v>
       </c>
       <c r="H95" s="248">
-        <v>7853.713200067662</v>
+        <v>7853.7132000866568</v>
       </c>
       <c r="I95" s="248">
-        <v>13359.032415319391</v>
+        <v>13359.032415289883</v>
       </c>
       <c r="J95" s="248">
-        <v>4510.6708286976382</v>
+        <v>4510.6708286970079</v>
       </c>
       <c r="K95" s="248">
         <v>12460</v>
@@ -27500,7 +27503,7 @@
       <c r="I3" s="227"/>
       <c r="J3" s="227"/>
       <c r="K3" s="232" t="s">
-        <v>3</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -27594,31 +27597,31 @@
         <v>20</v>
       </c>
       <c r="B9" s="231">
-        <v>12072.121011413758</v>
+        <v>12072.12101141994</v>
       </c>
       <c r="C9" s="231">
-        <v>3839.8683646588543</v>
+        <v>3839.8683646694722</v>
       </c>
       <c r="D9" s="231">
-        <v>8469.184857451186</v>
+        <v>8469.18485747082</v>
       </c>
       <c r="E9" s="231">
-        <v>17098.817246510524</v>
+        <v>17098.817246518076</v>
       </c>
       <c r="F9" s="231">
-        <v>18180.020494122815</v>
+        <v>18180.020494127795</v>
       </c>
       <c r="G9" s="231">
-        <v>24548.352819305204</v>
+        <v>24548.352819303327</v>
       </c>
       <c r="H9" s="231">
-        <v>13852.963071758262</v>
+        <v>13852.963071716558</v>
       </c>
       <c r="I9" s="231">
-        <v>3398.8165466577589</v>
+        <v>3398.8165466530122</v>
       </c>
       <c r="J9" s="231">
-        <v>3120.8555881216307</v>
+        <v>3120.8555881209904</v>
       </c>
       <c r="K9" s="231">
         <v>104581</v>
@@ -27644,28 +27647,28 @@
         <v>22</v>
       </c>
       <c r="B11" s="231">
-        <v>12072.121011413758</v>
+        <v>12072.12101141994</v>
       </c>
       <c r="C11" s="231">
-        <v>15911.989376072612</v>
+        <v>15911.989376089412</v>
       </c>
       <c r="D11" s="231">
-        <v>24381.174233523798</v>
+        <v>24381.174233560232</v>
       </c>
       <c r="E11" s="231">
-        <v>41479.991480034325</v>
+        <v>41479.991480078308</v>
       </c>
       <c r="F11" s="231">
-        <v>59660.01197415714</v>
+        <v>59660.011974206107</v>
       </c>
       <c r="G11" s="231">
-        <v>84208.364793462344</v>
+        <v>84208.364793509434</v>
       </c>
       <c r="H11" s="231">
-        <v>98061.3278652206</v>
+        <v>98061.327865225991</v>
       </c>
       <c r="I11" s="231">
-        <v>101460.14441187837</v>
+        <v>101460.14441187901</v>
       </c>
       <c r="J11" s="231">
         <v>104581</v>
@@ -27679,13 +27682,13 @@
         <v>23</v>
       </c>
       <c r="B12" s="231">
-        <v>9155.1662034873734</v>
+        <v>9155.16620348737</v>
       </c>
       <c r="C12" s="231">
-        <v>11575.825402283603</v>
+        <v>11575.8254022836</v>
       </c>
       <c r="D12" s="231">
-        <v>20088.324333138295</v>
+        <v>20088.324333138284</v>
       </c>
       <c r="E12" s="231">
         <v>17059.534586853209</v>
@@ -27694,16 +27697,16 @@
         <v>10384.552540124361</v>
       </c>
       <c r="G12" s="231">
-        <v>10966.05077784775</v>
+        <v>10966.05077784773</v>
       </c>
       <c r="H12" s="231">
-        <v>9613.6052884108412</v>
+        <v>9613.6052884105611</v>
       </c>
       <c r="I12" s="231">
-        <v>3936.2619940480135</v>
+        <v>3936.2619940481463</v>
       </c>
       <c r="J12" s="231">
-        <v>-658.32112619343388</v>
+        <v>-658.32112619327381</v>
       </c>
       <c r="K12" s="231">
         <v>92121</v>
@@ -27749,28 +27752,28 @@
         <v>25</v>
       </c>
       <c r="B14" s="231">
-        <v>9155.1662034873734</v>
+        <v>9155.16620348737</v>
       </c>
       <c r="C14" s="231">
-        <v>20730.991605770978</v>
+        <v>20730.991605770971</v>
       </c>
       <c r="D14" s="231">
-        <v>40819.315938909276</v>
+        <v>40819.315938909254</v>
       </c>
       <c r="E14" s="231">
-        <v>57878.850525762486</v>
+        <v>57878.850525762464</v>
       </c>
       <c r="F14" s="231">
-        <v>68263.403065886843</v>
+        <v>68263.403065886829</v>
       </c>
       <c r="G14" s="231">
-        <v>79229.453843734591</v>
+        <v>79229.453843734562</v>
       </c>
       <c r="H14" s="231">
-        <v>88843.059132145427</v>
+        <v>88843.059132145121</v>
       </c>
       <c r="I14" s="231">
-        <v>92779.321126193434</v>
+        <v>92779.321126193274</v>
       </c>
       <c r="J14" s="231">
         <v>104581</v>
@@ -27782,31 +27785,31 @@
         <v>26</v>
       </c>
       <c r="B15" s="231">
-        <v>2916.9548079263841</v>
+        <v>2916.9548079325705</v>
       </c>
       <c r="C15" s="231">
-        <v>-7735.9570376247484</v>
+        <v>-7735.9570376141291</v>
       </c>
       <c r="D15" s="231">
-        <v>-11619.139475687109</v>
+        <v>-11619.139475667464</v>
       </c>
       <c r="E15" s="231">
-        <v>39.28265965731407</v>
+        <v>39.282659664866515</v>
       </c>
       <c r="F15" s="231">
-        <v>7795.4679539984536</v>
+        <v>7795.467954003434</v>
       </c>
       <c r="G15" s="231">
-        <v>13582.302041457455</v>
+        <v>13582.302041455598</v>
       </c>
       <c r="H15" s="231">
-        <v>4239.357783347421</v>
+        <v>4239.3577833059971</v>
       </c>
       <c r="I15" s="231">
-        <v>-537.44544739025469</v>
+        <v>-537.44544739513412</v>
       </c>
       <c r="J15" s="231">
-        <v>-8680.8232856849354</v>
+        <v>-8680.8232856857358</v>
       </c>
       <c r="K15" s="231"/>
     </row>
@@ -27815,31 +27818,31 @@
         <v>27</v>
       </c>
       <c r="B16" s="236">
-        <v>0.027891823638389227</v>
+        <v>0.027891823638448384</v>
       </c>
       <c r="C16" s="236">
-        <v>-0.073970960668044372</v>
+        <v>-0.073970960667942828</v>
       </c>
       <c r="D16" s="236">
-        <v>-0.11110182036590879</v>
+        <v>-0.11110182036572097</v>
       </c>
       <c r="E16" s="236">
-        <v>0.00037561946871146834</v>
+        <v>0.00037561946878368456</v>
       </c>
       <c r="F16" s="237">
-        <v>0.074540002046246</v>
+        <v>0.07454000204629363</v>
       </c>
       <c r="G16" s="236">
-        <v>0.12987351470589739</v>
+        <v>0.12987351470587963</v>
       </c>
       <c r="H16" s="236">
-        <v>0.040536596354475679</v>
+        <v>0.040536596354079586</v>
       </c>
       <c r="I16" s="236">
-        <v>-0.0051390352682634</v>
+        <v>-0.0051390352683100575</v>
       </c>
       <c r="J16" s="236">
-        <v>-0.083005739911503382</v>
+        <v>-0.083005739911511042</v>
       </c>
       <c r="K16" s="236"/>
     </row>
@@ -27848,28 +27851,28 @@
         <v>28</v>
       </c>
       <c r="B17" s="231">
-        <v>2916.9548079263841</v>
+        <v>2916.9548079325705</v>
       </c>
       <c r="C17" s="231">
-        <v>-4819.0022296983661</v>
+        <v>-4819.0022296815587</v>
       </c>
       <c r="D17" s="231">
-        <v>-16438.141705385478</v>
+        <v>-16438.141705349022</v>
       </c>
       <c r="E17" s="231">
-        <v>-16398.859045728161</v>
+        <v>-16398.859045684156</v>
       </c>
       <c r="F17" s="231">
-        <v>-8603.3910917297035</v>
+        <v>-8603.3910916807217</v>
       </c>
       <c r="G17" s="231">
-        <v>4978.9109497277532</v>
+        <v>4978.9109497748723</v>
       </c>
       <c r="H17" s="231">
-        <v>9218.26873307518</v>
+        <v>9218.26873308087</v>
       </c>
       <c r="I17" s="231">
-        <v>8680.8232856849354</v>
+        <v>8680.8232856857358</v>
       </c>
       <c r="J17" s="231">
         <v>0</v>
@@ -27881,28 +27884,28 @@
         <v>29</v>
       </c>
       <c r="B18" s="236">
-        <v>0.027891823638389227</v>
+        <v>0.027891823638448384</v>
       </c>
       <c r="C18" s="236">
-        <v>-0.046079137029655159</v>
+        <v>-0.046079137029494441</v>
       </c>
       <c r="D18" s="236">
-        <v>-0.157180957395564</v>
+        <v>-0.1571809573952154</v>
       </c>
       <c r="E18" s="236">
-        <v>-0.1568053379268525</v>
+        <v>-0.1568053379264317</v>
       </c>
       <c r="F18" s="237">
-        <v>-0.082265335880606458</v>
+        <v>-0.0822653358801381</v>
       </c>
       <c r="G18" s="236">
-        <v>0.047608178825290955</v>
+        <v>0.047608178825741504</v>
       </c>
       <c r="H18" s="236">
-        <v>0.088144775179766682</v>
+        <v>0.088144775179821083</v>
       </c>
       <c r="I18" s="236">
-        <v>0.083005739911503382</v>
+        <v>0.083005739911511042</v>
       </c>
       <c r="J18" s="236">
         <v>0</v>
@@ -27914,31 +27917,31 @@
         <v>30</v>
       </c>
       <c r="B19" s="236">
-        <v>1.3186129823416273</v>
+        <v>1.318612982342303</v>
       </c>
       <c r="C19" s="236">
-        <v>0.33171443341753842</v>
+        <v>0.33171443341845575</v>
       </c>
       <c r="D19" s="236">
-        <v>0.42159737751148152</v>
+        <v>0.42159737751245913</v>
       </c>
       <c r="E19" s="236">
-        <v>1.0023026806187074</v>
+        <v>1.00230268061915</v>
       </c>
       <c r="F19" s="237">
-        <v>1.7506792347458333</v>
+        <v>1.7506792347463127</v>
       </c>
       <c r="G19" s="236">
-        <v>2.2385773435314316</v>
+        <v>2.2385773435312646</v>
       </c>
       <c r="H19" s="236">
-        <v>1.4409748118593913</v>
+        <v>1.4409748118550954</v>
       </c>
       <c r="I19" s="236">
-        <v>0.86346298894663986</v>
+        <v>0.863462988945405</v>
       </c>
       <c r="J19" s="236">
-        <v>0.26444166304577782</v>
+        <v>0.26444166304572003</v>
       </c>
       <c r="K19" s="236"/>
     </row>
@@ -27947,28 +27950,28 @@
         <v>31</v>
       </c>
       <c r="B20" s="236">
-        <v>1.3186129823416273</v>
+        <v>1.318612982342303</v>
       </c>
       <c r="C20" s="236">
-        <v>0.76754598519267747</v>
+        <v>0.76754598519348816</v>
       </c>
       <c r="D20" s="236">
-        <v>0.59729502253327771</v>
+        <v>0.59729502253417055</v>
       </c>
       <c r="E20" s="236">
-        <v>0.716669234154385</v>
+        <v>0.71666923415514516</v>
       </c>
       <c r="F20" s="237">
-        <v>0.87396773812425044</v>
+        <v>0.87396773812496786</v>
       </c>
       <c r="G20" s="236">
-        <v>1.0628416669329532</v>
+        <v>1.0628416669335479</v>
       </c>
       <c r="H20" s="236">
-        <v>1.1037590198167748</v>
+        <v>1.1037590198168392</v>
       </c>
       <c r="I20" s="236">
-        <v>1.0935642035349422</v>
+        <v>1.0935642035349511</v>
       </c>
       <c r="J20" s="236">
         <v>1</v>
@@ -28011,28 +28014,28 @@
         <v>40</v>
       </c>
       <c r="B23" s="236">
-        <v>-0.099049520976917924</v>
+        <v>-0.0990495209768734</v>
       </c>
       <c r="C23" s="236">
-        <v>-0.11297374020872214</v>
+        <v>-0.11297374020867679</v>
       </c>
       <c r="D23" s="236">
-        <v>-0.11475858979764077</v>
+        <v>-0.11475858979787076</v>
       </c>
       <c r="E23" s="236">
-        <v>-0.13553029511872952</v>
+        <v>-0.13553029511793446</v>
       </c>
       <c r="F23" s="236">
-        <v>-0.16967526349227832</v>
+        <v>-0.16967526349201276</v>
       </c>
       <c r="G23" s="236">
-        <v>-0.18685469719715037</v>
+        <v>-0.18685469719701306</v>
       </c>
       <c r="H23" s="236">
-        <v>-0.19368149608888582</v>
+        <v>-0.19368149608885293</v>
       </c>
       <c r="I23" s="236">
-        <v>-0.157180957395564</v>
+        <v>-0.1571809573952154</v>
       </c>
       <c r="J23" s="236"/>
       <c r="K23" s="236"/>
@@ -28042,28 +28045,28 @@
         <v>41</v>
       </c>
       <c r="B24" s="236">
-        <v>0.73912490765977656</v>
+        <v>0.73912490765989358</v>
       </c>
       <c r="C24" s="236">
-        <v>0.70851394813999735</v>
+        <v>0.70851394814011426</v>
       </c>
       <c r="D24" s="236">
-        <v>0.70503793335831855</v>
+        <v>0.70503793335772724</v>
       </c>
       <c r="E24" s="236">
-        <v>0.65240887904835321</v>
+        <v>0.65240887905039213</v>
       </c>
       <c r="F24" s="236">
-        <v>0.56517561467640354</v>
+        <v>0.56517561467708388</v>
       </c>
       <c r="G24" s="236">
-        <v>0.521339860232343</v>
+        <v>0.52133986023269474</v>
       </c>
       <c r="H24" s="236">
-        <v>0.50397946519859671</v>
+        <v>0.50397946519868075</v>
       </c>
       <c r="I24" s="236">
-        <v>0.59729502253327771</v>
+        <v>0.59729502253417055</v>
       </c>
       <c r="J24" s="236"/>
       <c r="K24" s="236"/>
@@ -28399,31 +28402,31 @@
         <v>51</v>
       </c>
       <c r="B50" s="246">
-        <v>16.806472774206</v>
+        <v>16.806472774223</v>
       </c>
       <c r="C50" s="246">
-        <v>20.980226105781302</v>
+        <v>20.9802261058088</v>
       </c>
       <c r="D50" s="246">
-        <v>48.612271810257205</v>
+        <v>48.6122718103219</v>
       </c>
       <c r="E50" s="246">
-        <v>106.55829085775399</v>
+        <v>106.558290857837</v>
       </c>
       <c r="F50" s="246">
-        <v>104.599864503345</v>
+        <v>104.59986450343901</v>
       </c>
       <c r="G50" s="246">
-        <v>230.509042018943</v>
+        <v>230.509042019368</v>
       </c>
       <c r="H50" s="246">
-        <v>498.84483329558</v>
+        <v>498.844833295974</v>
       </c>
       <c r="I50" s="246">
-        <v>496.616374692009</v>
+        <v>496.61637469091204</v>
       </c>
       <c r="J50" s="246">
-        <v>18.472623942124528</v>
+        <v>18.472623942116115</v>
       </c>
       <c r="K50" s="246">
         <v>1542</v>
@@ -28434,31 +28437,31 @@
         <v>52</v>
       </c>
       <c r="B51" s="248">
-        <v>16.806472774206</v>
+        <v>16.806472774223</v>
       </c>
       <c r="C51" s="248">
-        <v>20.980226105781302</v>
+        <v>20.9802261058088</v>
       </c>
       <c r="D51" s="248">
-        <v>48.612271810257205</v>
+        <v>48.6122718103219</v>
       </c>
       <c r="E51" s="248">
-        <v>106.55829085775399</v>
+        <v>106.558290857837</v>
       </c>
       <c r="F51" s="248">
-        <v>104.599864503345</v>
+        <v>104.59986450343901</v>
       </c>
       <c r="G51" s="248">
-        <v>230.509042018943</v>
+        <v>230.509042019368</v>
       </c>
       <c r="H51" s="248">
-        <v>498.84483329558</v>
+        <v>498.844833295974</v>
       </c>
       <c r="I51" s="248">
-        <v>496.616374692009</v>
+        <v>496.61637469091204</v>
       </c>
       <c r="J51" s="248">
-        <v>18.472623942124528</v>
+        <v>18.472623942116115</v>
       </c>
       <c r="K51" s="248">
         <v>1542</v>
@@ -28539,31 +28542,31 @@
         <v>55</v>
       </c>
       <c r="B54" s="248">
-        <v>16.806472774206</v>
+        <v>16.806472774223</v>
       </c>
       <c r="C54" s="248">
-        <v>20.980226105781302</v>
+        <v>20.9802261058088</v>
       </c>
       <c r="D54" s="248">
-        <v>48.612271810257205</v>
+        <v>48.6122718103219</v>
       </c>
       <c r="E54" s="248">
-        <v>106.55829085775399</v>
+        <v>106.558290857837</v>
       </c>
       <c r="F54" s="248">
-        <v>104.599864503345</v>
+        <v>104.59986450343901</v>
       </c>
       <c r="G54" s="248">
-        <v>443.509042018943</v>
+        <v>443.50904201936805</v>
       </c>
       <c r="H54" s="248">
-        <v>593.84483329558</v>
+        <v>593.8448332959739</v>
       </c>
       <c r="I54" s="248">
-        <v>496.616374692009</v>
+        <v>496.61637469091204</v>
       </c>
       <c r="J54" s="248">
-        <v>18.472623942124528</v>
+        <v>18.47262394211657</v>
       </c>
       <c r="K54" s="248">
         <v>1850</v>
@@ -28574,31 +28577,31 @@
         <v>56</v>
       </c>
       <c r="B55" s="248">
-        <v>16.806472774206</v>
+        <v>16.806472774223</v>
       </c>
       <c r="C55" s="248">
-        <v>20.980226105781302</v>
+        <v>20.9802261058088</v>
       </c>
       <c r="D55" s="248">
-        <v>48.612271810257205</v>
+        <v>48.6122718103219</v>
       </c>
       <c r="E55" s="248">
-        <v>106.55829085775399</v>
+        <v>106.558290857837</v>
       </c>
       <c r="F55" s="248">
-        <v>104.599864503345</v>
+        <v>104.59986450343901</v>
       </c>
       <c r="G55" s="248">
-        <v>3212.5090420189517</v>
+        <v>3212.5090420193769</v>
       </c>
       <c r="H55" s="248">
-        <v>1828.84483329558</v>
+        <v>1828.844833295974</v>
       </c>
       <c r="I55" s="248">
-        <v>496.616374692009</v>
+        <v>496.61637469091204</v>
       </c>
       <c r="J55" s="248">
-        <v>18.472623942115206</v>
+        <v>18.47262394210702</v>
       </c>
       <c r="K55" s="248">
         <v>5854</v>
@@ -28714,7 +28717,7 @@
         <v>60</v>
       </c>
       <c r="B59" s="246">
-        <v>380.05219228638</v>
+        <v>380.052192286381</v>
       </c>
       <c r="C59" s="246">
         <v>382.565733824596</v>
@@ -28738,7 +28741,7 @@
         <v>0</v>
       </c>
       <c r="J59" s="246">
-        <v>18.42909842937479</v>
+        <v>18.42909842937388</v>
       </c>
       <c r="K59" s="246">
         <v>4751</v>
@@ -28758,22 +28761,22 @@
         <v>317.223205896817</v>
       </c>
       <c r="E60" s="246">
-        <v>476.769706019034</v>
+        <v>476.769706019144</v>
       </c>
       <c r="F60" s="246">
-        <v>338.597437278983</v>
+        <v>338.597437278873</v>
       </c>
       <c r="G60" s="246">
         <v>404.490016753846</v>
       </c>
       <c r="H60" s="246">
-        <v>295.66605253738703</v>
+        <v>295.66605253738896</v>
       </c>
       <c r="I60" s="246">
         <v>0</v>
       </c>
       <c r="J60" s="246">
-        <v>35.278595238869912</v>
+        <v>35.278595238868093</v>
       </c>
       <c r="K60" s="246">
         <v>2246</v>
@@ -28784,31 +28787,31 @@
         <v>62</v>
       </c>
       <c r="B61" s="246">
-        <v>921.253720888476</v>
+        <v>921.253720894641</v>
       </c>
       <c r="C61" s="246">
-        <v>1645.07180232015</v>
+        <v>1645.07180233074</v>
       </c>
       <c r="D61" s="246">
-        <v>4219.79477123637</v>
+        <v>4219.79477125594</v>
       </c>
       <c r="E61" s="246">
-        <v>9094.96804187409</v>
+        <v>9094.96804188142</v>
       </c>
       <c r="F61" s="246">
-        <v>7417.8923756745507</v>
+        <v>7417.8923756795793</v>
       </c>
       <c r="G61" s="246">
-        <v>12942.031652225302</v>
+        <v>12942.031652223</v>
       </c>
       <c r="H61" s="246">
-        <v>11646.966305907199</v>
+        <v>11646.9663058651</v>
       </c>
       <c r="I61" s="246">
-        <v>2902.20017196575</v>
+        <v>2902.2001719621003</v>
       </c>
       <c r="J61" s="246">
-        <v>508.82115790811076</v>
+        <v>508.82115790748503</v>
       </c>
       <c r="K61" s="246">
         <v>51299</v>
@@ -28828,22 +28831,22 @@
         <v>87.4270545192028</v>
       </c>
       <c r="E62" s="246">
-        <v>131.398240438905</v>
+        <v>131.398240438936</v>
       </c>
       <c r="F62" s="246">
-        <v>93.31781552791189</v>
+        <v>93.3178155278814</v>
       </c>
       <c r="G62" s="246">
-        <v>111.47788084177701</v>
+        <v>111.477880841776</v>
       </c>
       <c r="H62" s="246">
-        <v>81.4858800180956</v>
+        <v>81.485880018096</v>
       </c>
       <c r="I62" s="246">
         <v>0</v>
       </c>
       <c r="J62" s="246">
-        <v>9.7228185453516289</v>
+        <v>9.7228185453517426</v>
       </c>
       <c r="K62" s="246">
         <v>618.999999999999</v>
@@ -28854,31 +28857,31 @@
         <v>64</v>
       </c>
       <c r="B63" s="248">
-        <v>975.61072595095447</v>
+        <v>975.61072595711948</v>
       </c>
       <c r="C63" s="248">
-        <v>1694.8851073664264</v>
+        <v>1694.8851073770165</v>
       </c>
       <c r="D63" s="248">
-        <v>4307.2218257555733</v>
+        <v>4307.2218257751429</v>
       </c>
       <c r="E63" s="248">
-        <v>9226.3662823129944</v>
+        <v>9226.3662823203558</v>
       </c>
       <c r="F63" s="248">
-        <v>7511.2101912024627</v>
+        <v>7511.2101912074613</v>
       </c>
       <c r="G63" s="248">
-        <v>13053.509533067077</v>
+        <v>13053.509533064776</v>
       </c>
       <c r="H63" s="248">
-        <v>11728.452185925296</v>
+        <v>11728.452185883196</v>
       </c>
       <c r="I63" s="248">
-        <v>2902.20017196575</v>
+        <v>2902.2001719621003</v>
       </c>
       <c r="J63" s="248">
-        <v>518.54397645346035</v>
+        <v>518.54397645282734</v>
       </c>
       <c r="K63" s="248">
         <v>51918</v>
@@ -28889,31 +28892,31 @@
         <v>65</v>
       </c>
       <c r="B64" s="248">
-        <v>1172.8414745298344</v>
+        <v>1172.8414745359996</v>
       </c>
       <c r="C64" s="248">
-        <v>1875.6293450626092</v>
+        <v>1875.6293450731994</v>
       </c>
       <c r="D64" s="248">
-        <v>4624.44503165239</v>
+        <v>4624.44503167196</v>
       </c>
       <c r="E64" s="248">
-        <v>9703.13598833203</v>
+        <v>9703.1359883395</v>
       </c>
       <c r="F64" s="248">
-        <v>7849.807628481446</v>
+        <v>7849.8076284863346</v>
       </c>
       <c r="G64" s="248">
-        <v>13457.999549820925</v>
+        <v>13457.999549818624</v>
       </c>
       <c r="H64" s="248">
-        <v>12024.118238462683</v>
+        <v>12024.118238420586</v>
       </c>
       <c r="I64" s="248">
-        <v>2902.20017196575</v>
+        <v>2902.2001719621003</v>
       </c>
       <c r="J64" s="248">
-        <v>553.82257169233344</v>
+        <v>553.82257169169316</v>
       </c>
       <c r="K64" s="248">
         <v>54164</v>
@@ -29029,31 +29032,31 @@
         <v>69</v>
       </c>
       <c r="B68" s="248">
-        <v>2227.7877301951767</v>
+        <v>2227.787730201343</v>
       </c>
       <c r="C68" s="248">
-        <v>2937.4496044555922</v>
+        <v>2937.4496044661823</v>
       </c>
       <c r="D68" s="248">
-        <v>6769.00533261881</v>
+        <v>6769.00533263838</v>
       </c>
       <c r="E68" s="248">
-        <v>14078.057913280756</v>
+        <v>14078.057913288225</v>
       </c>
       <c r="F68" s="248">
-        <v>15587.270879820533</v>
+        <v>15587.270879825423</v>
       </c>
       <c r="G68" s="248">
-        <v>13457.999549820925</v>
+        <v>13457.999549818624</v>
       </c>
       <c r="H68" s="248">
-        <v>12024.118238462683</v>
+        <v>12024.118238420586</v>
       </c>
       <c r="I68" s="248">
-        <v>2902.20017196575</v>
+        <v>2902.2001719621003</v>
       </c>
       <c r="J68" s="248">
-        <v>653.11057937976148</v>
+        <v>653.11057937913574</v>
       </c>
       <c r="K68" s="248">
         <v>70637</v>
@@ -29169,7 +29172,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="246">
-        <v>282.213076872188</v>
+        <v>282.213076872189</v>
       </c>
       <c r="C72" s="246">
         <v>271.503762058543</v>
@@ -29193,7 +29196,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="246">
-        <v>119.949360740864</v>
+        <v>119.94936074086309</v>
       </c>
       <c r="K72" s="246">
         <v>3535</v>
@@ -29204,7 +29207,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="248">
-        <v>723.91728237221707</v>
+        <v>723.9172823722181</v>
       </c>
       <c r="C73" s="248">
         <v>682.465883810886</v>
@@ -29274,31 +29277,31 @@
         <v>76</v>
       </c>
       <c r="B75" s="248">
-        <v>3149.3145386395508</v>
+        <v>3149.3145386457181</v>
       </c>
       <c r="C75" s="248">
-        <v>3818.8881385530731</v>
+        <v>3818.8881385636632</v>
       </c>
       <c r="D75" s="248">
-        <v>8420.5725856409281</v>
+        <v>8420.5725856604986</v>
       </c>
       <c r="E75" s="248">
-        <v>16992.258955652771</v>
+        <v>16992.25895566024</v>
       </c>
       <c r="F75" s="248">
-        <v>18075.420629619468</v>
+        <v>18075.420629624357</v>
       </c>
       <c r="G75" s="248">
-        <v>21335.843777286249</v>
+        <v>21335.843777283946</v>
       </c>
       <c r="H75" s="248">
-        <v>12024.118238462683</v>
+        <v>12024.118238420586</v>
       </c>
       <c r="I75" s="248">
-        <v>2902.20017196575</v>
+        <v>2902.2001719621003</v>
       </c>
       <c r="J75" s="248">
-        <v>919.38296417951642</v>
+        <v>919.38296417889069</v>
       </c>
       <c r="K75" s="248">
         <v>87638</v>
@@ -29484,31 +29487,31 @@
         <v>44</v>
       </c>
       <c r="B81" s="248">
-        <v>12072.121011413758</v>
+        <v>12072.12101141994</v>
       </c>
       <c r="C81" s="248">
-        <v>3839.8683646588543</v>
+        <v>3839.8683646694722</v>
       </c>
       <c r="D81" s="248">
-        <v>8469.184857451186</v>
+        <v>8469.18485747082</v>
       </c>
       <c r="E81" s="248">
-        <v>17098.817246510524</v>
+        <v>17098.817246518076</v>
       </c>
       <c r="F81" s="248">
-        <v>18180.020494122815</v>
+        <v>18180.020494127795</v>
       </c>
       <c r="G81" s="248">
-        <v>24548.352819305204</v>
+        <v>24548.352819303327</v>
       </c>
       <c r="H81" s="248">
-        <v>13852.963071758262</v>
+        <v>13852.963071716558</v>
       </c>
       <c r="I81" s="248">
-        <v>3398.8165466577589</v>
+        <v>3398.8165466530122</v>
       </c>
       <c r="J81" s="248">
-        <v>3120.8555881216307</v>
+        <v>3120.8555881209904</v>
       </c>
       <c r="K81" s="248">
         <v>104581</v>
@@ -29549,16 +29552,16 @@
         <v>3550.24754012436</v>
       </c>
       <c r="G84" s="246">
-        <v>2457.63350784775</v>
+        <v>2457.63350784773</v>
       </c>
       <c r="H84" s="246">
-        <v>1336.4164240659402</v>
+        <v>1336.41642406566</v>
       </c>
       <c r="I84" s="246">
-        <v>274.663128392916</v>
+        <v>274.66312839304595</v>
       </c>
       <c r="J84" s="246">
-        <v>-1029.3211261934266</v>
+        <v>-1029.3211261932593</v>
       </c>
       <c r="K84" s="246">
         <v>40901</v>
@@ -29639,13 +29642,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="246">
-        <v>758.650987399222</v>
+        <v>758.65098739921893</v>
       </c>
       <c r="C87" s="246">
-        <v>693.931396633247</v>
+        <v>693.93139663324507</v>
       </c>
       <c r="D87" s="246">
-        <v>1215.3176159675402</v>
+        <v>1215.31761596753</v>
       </c>
       <c r="E87" s="246">
         <v>1867.53</v>
@@ -29660,10 +29663,10 @@
         <v>1243.4412710643</v>
       </c>
       <c r="I87" s="246">
-        <v>251.205238935698</v>
+        <v>251.205238935701</v>
       </c>
       <c r="J87" s="246">
-        <v>-7.2759576141834259E-12</v>
+        <v>3.637978807091713E-12</v>
       </c>
       <c r="K87" s="246">
         <v>8893</v>
@@ -29709,13 +29712,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="248">
-        <v>9155.1662034873734</v>
+        <v>9155.16620348737</v>
       </c>
       <c r="C89" s="248">
-        <v>11575.825402283603</v>
+        <v>11575.8254022836</v>
       </c>
       <c r="D89" s="248">
-        <v>20088.324333138295</v>
+        <v>20088.324333138284</v>
       </c>
       <c r="E89" s="248">
         <v>17059.534586853209</v>
@@ -29724,16 +29727,16 @@
         <v>10384.552540124361</v>
       </c>
       <c r="G89" s="248">
-        <v>10966.05077784775</v>
+        <v>10966.05077784773</v>
       </c>
       <c r="H89" s="248">
-        <v>9613.6052884108412</v>
+        <v>9613.6052884105611</v>
       </c>
       <c r="I89" s="248">
-        <v>3936.2619940480135</v>
+        <v>3936.2619940481463</v>
       </c>
       <c r="J89" s="248">
-        <v>-1029.3211261934339</v>
+        <v>-1029.3211261932738</v>
       </c>
       <c r="K89" s="248">
         <v>91750</v>
@@ -29814,13 +29817,13 @@
         <v>82</v>
       </c>
       <c r="B92" s="248">
-        <v>9155.1662034873734</v>
+        <v>9155.16620348737</v>
       </c>
       <c r="C92" s="248">
-        <v>11575.825402283603</v>
+        <v>11575.8254022836</v>
       </c>
       <c r="D92" s="248">
-        <v>20088.324333138295</v>
+        <v>20088.324333138284</v>
       </c>
       <c r="E92" s="248">
         <v>17059.534586853209</v>
@@ -29829,16 +29832,16 @@
         <v>10384.552540124361</v>
       </c>
       <c r="G92" s="248">
-        <v>10966.05077784775</v>
+        <v>10966.05077784773</v>
       </c>
       <c r="H92" s="248">
-        <v>9613.6052884108412</v>
+        <v>9613.6052884105611</v>
       </c>
       <c r="I92" s="248">
-        <v>3936.2619940480135</v>
+        <v>3936.2619940481463</v>
       </c>
       <c r="J92" s="248">
-        <v>-658.32112619343388</v>
+        <v>-658.32112619327381</v>
       </c>
       <c r="K92" s="248">
         <v>92121</v>
@@ -29864,31 +29867,31 @@
         <v>90</v>
       </c>
       <c r="B95" s="248">
-        <v>2916.9548079263827</v>
+        <v>2916.9548079325705</v>
       </c>
       <c r="C95" s="248">
-        <v>-7735.9570376247484</v>
+        <v>-7735.9570376141291</v>
       </c>
       <c r="D95" s="248">
-        <v>-11619.139475687109</v>
+        <v>-11619.139475667464</v>
       </c>
       <c r="E95" s="248">
-        <v>39.282659657314419</v>
+        <v>39.282659664865584</v>
       </c>
       <c r="F95" s="248">
-        <v>7795.4679539984536</v>
+        <v>7795.4679540034349</v>
       </c>
       <c r="G95" s="248">
-        <v>13582.302041457453</v>
+        <v>13582.302041455596</v>
       </c>
       <c r="H95" s="248">
-        <v>4239.3577833474219</v>
+        <v>4239.3577833059971</v>
       </c>
       <c r="I95" s="248">
-        <v>-537.44544739025457</v>
+        <v>-537.44544739513424</v>
       </c>
       <c r="J95" s="248">
-        <v>3779.1767143150864</v>
+        <v>3779.1767143142624</v>
       </c>
       <c r="K95" s="248">
         <v>12460</v>
